--- a/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
+++ b/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
@@ -13,13 +13,14 @@
     <sheet name="SCoHIbP-transportation" sheetId="4" r:id="rId4"/>
     <sheet name="SCoHIbP-elec-distheat" sheetId="5" r:id="rId5"/>
     <sheet name="SCoHIbP-bldgs-indst" sheetId="6" r:id="rId6"/>
+    <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="70">
   <si>
     <t>Source:</t>
   </si>
@@ -28,9 +29,6 @@
   </si>
   <si>
     <t>RSM-based Benefit Per Ton Estimates</t>
-  </si>
-  <si>
-    <t>http://www.epa.gov/oaqps001/benmap/bpt.html</t>
   </si>
   <si>
     <t>Notes</t>
@@ -126,9 +124,6 @@
     <t>Now, we convert from 2006 dollars to 2012 dollars.</t>
   </si>
   <si>
-    <t>CPI-U</t>
-  </si>
-  <si>
     <t>Now, we convert from dollars per ton to dollars per gram of pollutant.</t>
   </si>
   <si>
@@ -148,21 +143,6 @@
   </si>
   <si>
     <t>Monetized Health Impacts per Ton</t>
-  </si>
-  <si>
-    <t>Inflation Adjustment</t>
-  </si>
-  <si>
-    <t>U.S. Bureau of Labor Statistics</t>
-  </si>
-  <si>
-    <t>CPI Detailed Report (Oct 2014)</t>
-  </si>
-  <si>
-    <t>http://www.bls.gov/cpi/cpid1410.pdf</t>
-  </si>
-  <si>
-    <t>Table 24</t>
   </si>
   <si>
     <t>F gases</t>
@@ -227,15 +207,39 @@
   <si>
     <t>The EPA is using a 3% discount rate, which is the same discount rate as the U.S. government</t>
   </si>
+  <si>
+    <t>LULUCF Sector</t>
+  </si>
+  <si>
+    <t>Although the LULUCF sector doesn't emit the types of pollutants that are assigned health impacts</t>
+  </si>
+  <si>
+    <t>in the source document above, we nonetheless include it here and produce a CSV output file,</t>
+  </si>
+  <si>
+    <t>in case the LULUCF sector is changed in the future to add some of the pollutant types for which</t>
+  </si>
+  <si>
+    <t>health impacts are calculated.</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>We adjust 2006 dollars to 2012 dollars using the following conversion factor:</t>
+  </si>
+  <si>
+    <t>http://www2.epa.gov/benmap/response-surface-model-rsm-based-benefit-ton-estimates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +265,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -281,7 +301,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -298,12 +318,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -331,12 +403,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,7 +728,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -654,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -674,104 +756,102 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>44</v>
+      <c r="A10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>11</v>
+    <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>1.141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -788,7 +868,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -798,43 +878,43 @@
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -967,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -983,42 +1063,42 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
@@ -1028,22 +1108,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1123,7 +1203,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1133,22 +1213,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,7 +1256,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>2020</v>
       </c>
@@ -1201,7 +1281,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>2030</v>
       </c>
@@ -1226,9 +1306,9 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1236,27 +1316,27 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="8" t="s">
+      <c r="F23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -1281,7 +1361,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>2020</v>
       </c>
@@ -1306,7 +1386,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>2030</v>
       </c>
@@ -1331,227 +1411,147 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B30" s="5">
+        <f>'Source Data'!B3</f>
+        <v>820000</v>
+      </c>
+      <c r="C30" s="5">
+        <f>'Source Data'!E3</f>
+        <v>46000</v>
+      </c>
+      <c r="D30" s="5">
+        <f>'Source Data'!H3</f>
+        <v>2800</v>
+      </c>
+      <c r="E30" s="5">
+        <f>'Source Data'!I3</f>
+        <v>43000</v>
+      </c>
+      <c r="F30" s="5">
+        <f>'Source Data'!L3</f>
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B31" s="5">
+        <f>'Source Data'!B4</f>
+        <v>910000</v>
+      </c>
+      <c r="C31" s="5">
+        <f>'Source Data'!E4</f>
+        <v>50000</v>
+      </c>
+      <c r="D31" s="5">
+        <f>'Source Data'!H4</f>
+        <v>3100</v>
+      </c>
+      <c r="E31" s="5">
+        <f>'Source Data'!I4</f>
+        <v>47000</v>
+      </c>
+      <c r="F31" s="5">
+        <f>'Source Data'!L4</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B32" s="5">
+        <f>'Source Data'!B5</f>
+        <v>1100000</v>
+      </c>
+      <c r="C32" s="5">
+        <f>'Source Data'!E5</f>
+        <v>60000</v>
+      </c>
+      <c r="D32" s="5">
+        <f>'Source Data'!H5</f>
+        <v>3600</v>
+      </c>
+      <c r="E32" s="5">
+        <f>'Source Data'!I5</f>
+        <v>55000</v>
+      </c>
+      <c r="F32" s="5">
+        <f>'Source Data'!L5</f>
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="8" t="s">
+    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="8" t="s">
+    </row>
+    <row r="37" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="K35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M35" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" s="5">
-        <f>D12</f>
-        <v>2800</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" s="5">
-        <f>F12</f>
-        <v>12000</v>
-      </c>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
-      <c r="G36" s="5">
-        <f>B12</f>
-        <v>630000</v>
-      </c>
-      <c r="H36" s="5">
-        <f>C12</f>
-        <v>67000</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" s="5">
-        <f>D13</f>
-        <v>3100</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37" s="5">
-        <f>F13</f>
-        <v>13000</v>
-      </c>
-      <c r="F37" s="5">
-        <v>0</v>
-      </c>
-      <c r="G37" s="5">
-        <f>B13</f>
-        <v>700000</v>
-      </c>
-      <c r="H37" s="5">
-        <f>C13</f>
-        <v>74000</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>2030</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5">
-        <f>D14</f>
-        <v>3600</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38" s="5">
-        <f>F14</f>
-        <v>15000</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0</v>
-      </c>
-      <c r="G38" s="5">
-        <f>B14</f>
-        <v>830000</v>
-      </c>
-      <c r="H38" s="5">
-        <f>C14</f>
-        <v>87000</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -1566,48 +1566,48 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="8" t="s">
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="G41" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="H41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K41" s="8" t="s">
+      <c r="L41" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M41" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>2015</v>
       </c>
@@ -1615,26 +1615,26 @@
         <v>0</v>
       </c>
       <c r="C42" s="5">
-        <f>D18</f>
+        <f>D12</f>
         <v>2800</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" s="5">
-        <f>F18</f>
-        <v>17000</v>
-      </c>
-      <c r="F42">
+        <f>F12</f>
+        <v>12000</v>
+      </c>
+      <c r="F42" s="5">
         <v>0</v>
       </c>
       <c r="G42" s="5">
-        <f>B18</f>
-        <v>520000</v>
+        <f t="shared" ref="G42:H44" si="0">B12</f>
+        <v>630000</v>
       </c>
       <c r="H42" s="5">
-        <f>C18</f>
-        <v>94000</v>
+        <f t="shared" si="0"/>
+        <v>67000</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -1660,26 +1660,26 @@
         <v>0</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:C44" si="0">D19</f>
+        <f>D13</f>
         <v>3100</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" ref="E43:E44" si="1">F19</f>
-        <v>19000</v>
-      </c>
-      <c r="F43">
+        <f>F13</f>
+        <v>13000</v>
+      </c>
+      <c r="F43" s="5">
         <v>0</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" ref="G43:H43" si="2">B19</f>
-        <v>570000</v>
+        <f t="shared" si="0"/>
+        <v>700000</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="2"/>
-        <v>100000</v>
+        <f t="shared" si="0"/>
+        <v>74000</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -1705,26 +1705,26 @@
         <v>0</v>
       </c>
       <c r="C44" s="5">
+        <f>D14</f>
+        <v>3600</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" s="5">
+        <f>F14</f>
+        <v>15000</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0</v>
+      </c>
+      <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>3600</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" s="5">
-        <f t="shared" si="1"/>
-        <v>22000</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="shared" ref="G44:H44" si="3">B20</f>
-        <v>660000</v>
+        <v>830000</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="3"/>
-        <v>120000</v>
+        <f t="shared" si="0"/>
+        <v>87000</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B46" s="10"/>
       <c r="C46" s="10"/>
@@ -1761,43 +1761,43 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="G47" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="H47" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K47" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J47" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K47" s="8" t="s">
+      <c r="L47" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L47" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M47" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
@@ -1808,26 +1808,26 @@
         <v>0</v>
       </c>
       <c r="C48" s="5">
-        <f>D24</f>
+        <f>D18</f>
         <v>2800</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" s="5">
-        <f>F24</f>
-        <v>11000</v>
-      </c>
-      <c r="F48" s="5">
+        <f>F18</f>
+        <v>17000</v>
+      </c>
+      <c r="F48">
         <v>0</v>
       </c>
       <c r="G48" s="5">
-        <f>B24</f>
+        <f>B18</f>
         <v>520000</v>
       </c>
       <c r="H48" s="5">
-        <f>C24</f>
-        <v>67000</v>
+        <f>C18</f>
+        <v>94000</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -1853,26 +1853,26 @@
         <v>0</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" ref="C49:C50" si="4">D25</f>
+        <f>D19</f>
         <v>3100</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" ref="E49:E50" si="5">F25</f>
-        <v>12000</v>
-      </c>
-      <c r="F49" s="5">
+        <f>F19</f>
+        <v>19000</v>
+      </c>
+      <c r="F49">
         <v>0</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" ref="G49:H49" si="6">B25</f>
+        <f t="shared" ref="G49:H49" si="1">B19</f>
         <v>570000</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="6"/>
-        <v>74000</v>
+        <f t="shared" si="1"/>
+        <v>100000</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -1898,26 +1898,26 @@
         <v>0</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="4"/>
+        <f>D20</f>
         <v>3600</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="5"/>
-        <v>14000</v>
-      </c>
-      <c r="F50" s="5">
+        <f>F20</f>
+        <v>22000</v>
+      </c>
+      <c r="F50">
         <v>0</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" ref="G50:H50" si="7">B26</f>
+        <f t="shared" ref="G50:H50" si="2">B20</f>
         <v>660000</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="7"/>
-        <v>87000</v>
+        <f t="shared" si="2"/>
+        <v>120000</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -1936,37 +1936,209 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>34</v>
+      <c r="A52" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M53" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>35</v>
+      <c r="A54" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54" s="5">
+        <f>D24</f>
+        <v>2800</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" s="5">
+        <f>F24</f>
+        <v>11000</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0</v>
+      </c>
+      <c r="G54" s="5">
+        <f>B24</f>
+        <v>520000</v>
+      </c>
+      <c r="H54" s="5">
+        <f>C24</f>
+        <v>67000</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>2006</v>
+        <v>2020</v>
       </c>
       <c r="B55">
-        <v>201.6</v>
+        <v>0</v>
+      </c>
+      <c r="C55" s="5">
+        <f>D25</f>
+        <v>3100</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <f>F25</f>
+        <v>12000</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <f t="shared" ref="G55:H55" si="3">B25</f>
+        <v>570000</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="3"/>
+        <v>74000</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>2012</v>
+        <v>2030</v>
       </c>
       <c r="B56">
-        <v>229.59399999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C56" s="5">
+        <f>D26</f>
+        <v>3600</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="5">
+        <f>F26</f>
+        <v>14000</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" ref="G56:H56" si="4">B26</f>
+        <v>660000</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="4"/>
+        <v>87000</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="6"/>
+      <c r="C57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>57</v>
+      <c r="A58" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
@@ -1983,95 +2155,87 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="G59" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="H59" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K59" s="8" t="s">
+      <c r="L59" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L59" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M59" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>2015</v>
       </c>
-      <c r="B60" s="5">
-        <f t="shared" ref="B60:M60" si="8">B36*($B$56/$B$55)</f>
+      <c r="B60">
         <v>0</v>
       </c>
       <c r="C60" s="5">
-        <f>C36*($B$56/$B$55)</f>
-        <v>3188.8055555555557</v>
-      </c>
-      <c r="D60" s="5">
-        <f t="shared" si="8"/>
+        <f>D30</f>
+        <v>2800</v>
+      </c>
+      <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="8"/>
-        <v>13666.309523809525</v>
+        <f>F30</f>
+        <v>11000</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="8"/>
-        <v>717481.25</v>
+        <f>B30</f>
+        <v>820000</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="8"/>
-        <v>76303.561507936509</v>
-      </c>
-      <c r="I60" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K60" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="5">
-        <f t="shared" si="8"/>
+        <f>C30</f>
+        <v>46000</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>0</v>
       </c>
     </row>
@@ -2079,52 +2243,44 @@
       <c r="A61" s="6">
         <v>2020</v>
       </c>
-      <c r="B61" s="5">
-        <f t="shared" ref="B61:M61" si="9">B37*($B$56/$B$55)</f>
+      <c r="B61">
         <v>0</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="9"/>
-        <v>3530.4632936507937</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="9"/>
+        <f>D31</f>
+        <v>3100</v>
+      </c>
+      <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="9"/>
-        <v>14805.168650793652</v>
+        <f>F31</f>
+        <v>12000</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="9"/>
-        <v>797201.38888888899</v>
+        <f t="shared" ref="G61:G62" si="5">B31</f>
+        <v>910000</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="9"/>
-        <v>84275.575396825399</v>
-      </c>
-      <c r="I61" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="K61" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H61:H62" si="6">C31</f>
+        <v>50000</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>0</v>
       </c>
     </row>
@@ -2132,1157 +2288,1835 @@
       <c r="A62" s="6">
         <v>2030</v>
       </c>
-      <c r="B62" s="5">
-        <f t="shared" ref="B62:M62" si="10">B38*($B$56/$B$55)</f>
+      <c r="B62">
         <v>0</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="10"/>
-        <v>4099.8928571428578</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="10"/>
+        <f>D32</f>
+        <v>3600</v>
+      </c>
+      <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="10"/>
-        <v>17082.886904761905</v>
+        <f>F32</f>
+        <v>14000</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="10"/>
-        <v>945253.07539682544</v>
+        <f t="shared" si="5"/>
+        <v>1100000</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="10"/>
-        <v>99080.744047619053</v>
-      </c>
-      <c r="I62" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="K62" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="8" t="s">
+      <c r="A64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="8" t="s">
+      <c r="E67" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F65" s="8" t="s">
+      <c r="G67" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="H67" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K67" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K65" s="8" t="s">
+      <c r="L67" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B66" s="5">
-        <f t="shared" ref="B66:M66" si="11">B42*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="C66" s="5">
-        <f>C42*($B$56/$B$55)</f>
-        <v>3188.8055555555557</v>
-      </c>
-      <c r="D66" s="5">
-        <f t="shared" ref="D66:M66" si="12">D42*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="E66" s="5">
-        <f t="shared" si="12"/>
-        <v>19360.605158730159</v>
-      </c>
-      <c r="F66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="5">
-        <f t="shared" si="12"/>
-        <v>592206.74603174604</v>
-      </c>
-      <c r="H66" s="5">
-        <f t="shared" si="12"/>
-        <v>107052.75793650794</v>
-      </c>
-      <c r="I66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B67" s="5">
-        <f t="shared" ref="B67:M67" si="13">B43*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="C67" s="5">
-        <f t="shared" si="13"/>
-        <v>3530.4632936507937</v>
-      </c>
-      <c r="D67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="5">
-        <f t="shared" si="13"/>
-        <v>21638.323412698413</v>
-      </c>
-      <c r="F67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="5">
-        <f t="shared" si="13"/>
-        <v>649149.70238095243</v>
-      </c>
-      <c r="H67" s="5">
-        <f t="shared" si="13"/>
-        <v>113885.91269841271</v>
-      </c>
-      <c r="I67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+      <c r="M67" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B68" s="5">
+        <f>B42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C68" s="5">
+        <f>C42*(About!$A$29)</f>
+        <v>3194.8</v>
+      </c>
+      <c r="D68" s="5">
+        <f>D42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="5">
+        <f>E42*(About!$A$29)</f>
+        <v>13692</v>
+      </c>
+      <c r="F68" s="5">
+        <f>F42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G68" s="5">
+        <f>G42*(About!$A$29)</f>
+        <v>718830</v>
+      </c>
+      <c r="H68" s="5">
+        <f>H42*(About!$A$29)</f>
+        <v>76447</v>
+      </c>
+      <c r="I68" s="5">
+        <f>I42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="5">
+        <f>J42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5">
+        <f>K42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="5">
+        <f>L42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="5">
+        <f>M42*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B69" s="5">
+        <f>B43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C69" s="5">
+        <f>C43*(About!$A$29)</f>
+        <v>3537.1</v>
+      </c>
+      <c r="D69" s="5">
+        <f>D43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E69" s="5">
+        <f>E43*(About!$A$29)</f>
+        <v>14833</v>
+      </c>
+      <c r="F69" s="5">
+        <f>F43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G69" s="5">
+        <f>G43*(About!$A$29)</f>
+        <v>798700</v>
+      </c>
+      <c r="H69" s="5">
+        <f>H43*(About!$A$29)</f>
+        <v>84434</v>
+      </c>
+      <c r="I69" s="5">
+        <f>I43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>J43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="5">
+        <f>K43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="5">
+        <f>L43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="5">
+        <f>M43*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
         <v>2030</v>
       </c>
-      <c r="B68" s="5">
-        <f t="shared" ref="B68:M68" si="14">B44*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="C68" s="5">
-        <f t="shared" si="14"/>
-        <v>4099.8928571428578</v>
-      </c>
-      <c r="D68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="5">
-        <f t="shared" si="14"/>
-        <v>25054.900793650795</v>
-      </c>
-      <c r="F68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="5">
-        <f t="shared" si="14"/>
-        <v>751647.0238095239</v>
-      </c>
-      <c r="H68" s="5">
-        <f t="shared" si="14"/>
-        <v>136663.09523809524</v>
-      </c>
-      <c r="I68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M68" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="8" t="s">
+      <c r="B70" s="5">
+        <f>B44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C70" s="5">
+        <f>C44*(About!$A$29)</f>
+        <v>4107.6000000000004</v>
+      </c>
+      <c r="D70" s="5">
+        <f>D44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E70" s="5">
+        <f>E44*(About!$A$29)</f>
+        <v>17115</v>
+      </c>
+      <c r="F70" s="5">
+        <f>F44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G70" s="5">
+        <f>G44*(About!$A$29)</f>
+        <v>947030</v>
+      </c>
+      <c r="H70" s="5">
+        <f>H44*(About!$A$29)</f>
+        <v>99267</v>
+      </c>
+      <c r="I70" s="5">
+        <f>I44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>J44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="5">
+        <f>K44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="5">
+        <f>L44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="5">
+        <f>M44*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="8" t="s">
+      <c r="E73" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E71" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="G73" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G71" s="8" t="s">
+      <c r="H73" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K73" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K71" s="8" t="s">
+      <c r="L73" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L71" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M71" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B72" s="5">
-        <f t="shared" ref="B72:M72" si="15">B48*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="C72" s="5">
-        <f>C48*($B$56/$B$55)</f>
-        <v>3188.8055555555557</v>
-      </c>
-      <c r="D72" s="5">
-        <f t="shared" ref="D72:M72" si="16">D48*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="E72" s="5">
-        <f t="shared" si="16"/>
-        <v>12527.450396825398</v>
-      </c>
-      <c r="F72" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G72" s="5">
-        <f t="shared" si="16"/>
-        <v>592206.74603174604</v>
-      </c>
-      <c r="H72" s="5">
-        <f t="shared" si="16"/>
-        <v>76303.561507936509</v>
-      </c>
-      <c r="I72" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M72" s="5">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B73" s="5">
-        <f t="shared" ref="B73:M73" si="17">B49*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="C73" s="5">
-        <f t="shared" si="17"/>
-        <v>3530.4632936507937</v>
-      </c>
-      <c r="D73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="5">
-        <f t="shared" si="17"/>
-        <v>13666.309523809525</v>
-      </c>
-      <c r="F73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="G73" s="5">
-        <f t="shared" si="17"/>
-        <v>649149.70238095243</v>
-      </c>
-      <c r="H73" s="5">
-        <f t="shared" si="17"/>
-        <v>84275.575396825399</v>
-      </c>
-      <c r="I73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="M73" s="5">
-        <f t="shared" si="17"/>
-        <v>0</v>
+      <c r="M73" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B74" s="5">
+        <f>B48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C74" s="5">
+        <f>C48*(About!$A$29)</f>
+        <v>3194.8</v>
+      </c>
+      <c r="D74" s="5">
+        <f>D48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="5">
+        <f>E48*(About!$A$29)</f>
+        <v>19397</v>
+      </c>
+      <c r="F74" s="5">
+        <f>F48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="5">
+        <f>G48*(About!$A$29)</f>
+        <v>593320</v>
+      </c>
+      <c r="H74" s="5">
+        <f>H48*(About!$A$29)</f>
+        <v>107254</v>
+      </c>
+      <c r="I74" s="5">
+        <f>I48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="5">
+        <f>J48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="5">
+        <f>K48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="5">
+        <f>L48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="5">
+        <f>M48*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B75" s="5">
+        <f>B49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C75" s="5">
+        <f>C49*(About!$A$29)</f>
+        <v>3537.1</v>
+      </c>
+      <c r="D75" s="5">
+        <f>D49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="5">
+        <f>E49*(About!$A$29)</f>
+        <v>21679</v>
+      </c>
+      <c r="F75" s="5">
+        <f>F49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="5">
+        <f>G49*(About!$A$29)</f>
+        <v>650370</v>
+      </c>
+      <c r="H75" s="5">
+        <f>H49*(About!$A$29)</f>
+        <v>114100</v>
+      </c>
+      <c r="I75" s="5">
+        <f>I49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="5">
+        <f>J49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="5">
+        <f>K49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="5">
+        <f>L49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="5">
+        <f>M49*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
         <v>2030</v>
       </c>
-      <c r="B74" s="5">
-        <f t="shared" ref="B74:M74" si="18">B50*($B$56/$B$55)</f>
-        <v>0</v>
-      </c>
-      <c r="C74" s="5">
-        <f t="shared" si="18"/>
-        <v>4099.8928571428578</v>
-      </c>
-      <c r="D74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="5">
-        <f t="shared" si="18"/>
-        <v>15944.027777777779</v>
-      </c>
-      <c r="F74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G74" s="5">
-        <f t="shared" si="18"/>
-        <v>751647.0238095239</v>
-      </c>
-      <c r="H74" s="5">
-        <f t="shared" si="18"/>
-        <v>99080.744047619053</v>
-      </c>
-      <c r="I74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M74" s="5">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>36</v>
+      <c r="B76" s="5">
+        <f>B50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="5">
+        <f>C50*(About!$A$29)</f>
+        <v>4107.6000000000004</v>
+      </c>
+      <c r="D76" s="5">
+        <f>D50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="5">
+        <f>E50*(About!$A$29)</f>
+        <v>25102</v>
+      </c>
+      <c r="F76" s="5">
+        <f>F50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="5">
+        <f>G50*(About!$A$29)</f>
+        <v>753060</v>
+      </c>
+      <c r="H76" s="5">
+        <f>H50*(About!$A$29)</f>
+        <v>136920</v>
+      </c>
+      <c r="I76" s="5">
+        <f>I50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J76" s="5">
+        <f>J50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="5">
+        <f>K50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="5">
+        <f>L50*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="5">
+        <f>M50*(About!$A$29)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B78">
+      <c r="A78" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="10"/>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B80" s="5">
+        <f>B54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="5">
+        <f>C54*(About!$A$29)</f>
+        <v>3194.8</v>
+      </c>
+      <c r="D80" s="5">
+        <f>D54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <f>E54*(About!$A$29)</f>
+        <v>12551</v>
+      </c>
+      <c r="F80" s="5">
+        <f>F54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <f>G54*(About!$A$29)</f>
+        <v>593320</v>
+      </c>
+      <c r="H80" s="5">
+        <f>H54*(About!$A$29)</f>
+        <v>76447</v>
+      </c>
+      <c r="I80" s="5">
+        <f>I54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <f>J54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="5">
+        <f>K54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="5">
+        <f>L54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="5">
+        <f>M54*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B81" s="5">
+        <f>B55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C81" s="5">
+        <f>C55*(About!$A$29)</f>
+        <v>3537.1</v>
+      </c>
+      <c r="D81" s="5">
+        <f>D55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E81" s="5">
+        <f>E55*(About!$A$29)</f>
+        <v>13692</v>
+      </c>
+      <c r="F81" s="5">
+        <f>F55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="5">
+        <f>G55*(About!$A$29)</f>
+        <v>650370</v>
+      </c>
+      <c r="H81" s="5">
+        <f>H55*(About!$A$29)</f>
+        <v>84434</v>
+      </c>
+      <c r="I81" s="5">
+        <f>I55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J81" s="5">
+        <f>J55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="5">
+        <f>K55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="5">
+        <f>L55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="5">
+        <f>M55*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B82" s="5">
+        <f>B56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C82" s="5">
+        <f>C56*(About!$A$29)</f>
+        <v>4107.6000000000004</v>
+      </c>
+      <c r="D82" s="5">
+        <f>D56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E82" s="5">
+        <f>E56*(About!$A$29)</f>
+        <v>15974</v>
+      </c>
+      <c r="F82" s="5">
+        <f>F56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="5">
+        <f>G56*(About!$A$29)</f>
+        <v>753060</v>
+      </c>
+      <c r="H82" s="5">
+        <f>H56*(About!$A$29)</f>
+        <v>99267</v>
+      </c>
+      <c r="I82" s="5">
+        <f>I56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J82" s="5">
+        <f>J56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="5">
+        <f>K56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="5">
+        <f>L56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="5">
+        <f>M56*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A83" s="6"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A84" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B86" s="5">
+        <f>B60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C86" s="5">
+        <f>C60*(About!$A$29)</f>
+        <v>3194.8</v>
+      </c>
+      <c r="D86" s="5">
+        <f>D60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E86" s="5">
+        <f>E60*(About!$A$29)</f>
+        <v>12551</v>
+      </c>
+      <c r="F86" s="5">
+        <f>F60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G86" s="5">
+        <f>G60*(About!$A$29)</f>
+        <v>935620</v>
+      </c>
+      <c r="H86" s="5">
+        <f>H60*(About!$A$29)</f>
+        <v>52486</v>
+      </c>
+      <c r="I86" s="5">
+        <f>I60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="5">
+        <f>J60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="5">
+        <f>K60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="5">
+        <f>L60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="5">
+        <f>M60*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B87" s="5">
+        <f>B61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C87" s="5">
+        <f>C61*(About!$A$29)</f>
+        <v>3537.1</v>
+      </c>
+      <c r="D87" s="5">
+        <f>D61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E87" s="5">
+        <f>E61*(About!$A$29)</f>
+        <v>13692</v>
+      </c>
+      <c r="F87" s="5">
+        <f>F61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G87" s="5">
+        <f>G61*(About!$A$29)</f>
+        <v>1038310</v>
+      </c>
+      <c r="H87" s="5">
+        <f>H61*(About!$A$29)</f>
+        <v>57050</v>
+      </c>
+      <c r="I87" s="5">
+        <f>I61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="5">
+        <f>J61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="5">
+        <f>K61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="5">
+        <f>L61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="5">
+        <f>M61*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B88" s="5">
+        <f>B62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="C88" s="5">
+        <f>C62*(About!$A$29)</f>
+        <v>4107.6000000000004</v>
+      </c>
+      <c r="D88" s="5">
+        <f>D62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="5">
+        <f>E62*(About!$A$29)</f>
+        <v>15974</v>
+      </c>
+      <c r="F88" s="5">
+        <f>F62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="G88" s="5">
+        <f>G62*(About!$A$29)</f>
+        <v>1255100</v>
+      </c>
+      <c r="H88" s="5">
+        <f>H62*(About!$A$29)</f>
+        <v>68460</v>
+      </c>
+      <c r="I88" s="5">
+        <f>I62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="J88" s="5">
+        <f>J62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="5">
+        <f>K62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="5">
+        <f>L62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="5">
+        <f>M62*(About!$A$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B92">
         <f>10^6</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B81" s="8" t="s">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="8" t="s">
+      <c r="E95" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F81" s="8" t="s">
+      <c r="G95" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="H95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I95" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J95" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K95" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I81" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K81" s="8" t="s">
+      <c r="L95" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L81" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B82" s="5">
-        <f>B60/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C82" s="16">
-        <f t="shared" ref="C82:M82" si="19">C60/$B$78</f>
-        <v>3.1888055555555558E-3</v>
-      </c>
-      <c r="D82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="16">
-        <f t="shared" si="19"/>
-        <v>1.3666309523809525E-2</v>
-      </c>
-      <c r="F82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G82" s="16">
-        <f t="shared" si="19"/>
-        <v>0.71748124999999996</v>
-      </c>
-      <c r="H82" s="16">
-        <f t="shared" si="19"/>
-        <v>7.6303561507936504E-2</v>
-      </c>
-      <c r="I82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="K82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="M82" s="5">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B83" s="5">
-        <f t="shared" ref="B83:M83" si="20">B61/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="16">
-        <f t="shared" si="20"/>
-        <v>3.5304632936507935E-3</v>
-      </c>
-      <c r="D83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="16">
-        <f t="shared" si="20"/>
-        <v>1.4805168650793652E-2</v>
-      </c>
-      <c r="F83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="16">
-        <f t="shared" si="20"/>
-        <v>0.79720138888888903</v>
-      </c>
-      <c r="H83" s="16">
-        <f t="shared" si="20"/>
-        <v>8.4275575396825397E-2</v>
-      </c>
-      <c r="I83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="M83" s="5">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="6">
-        <v>2030</v>
-      </c>
-      <c r="B84" s="5">
-        <f t="shared" ref="B84:M84" si="21">B62/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C84" s="16">
-        <f t="shared" si="21"/>
-        <v>4.0998928571428575E-3</v>
-      </c>
-      <c r="D84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="16">
-        <f t="shared" si="21"/>
-        <v>1.7082886904761906E-2</v>
-      </c>
-      <c r="F84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="G84" s="16">
-        <f t="shared" si="21"/>
-        <v>0.94525307539682546</v>
-      </c>
-      <c r="H84" s="16">
-        <f t="shared" si="21"/>
-        <v>9.908074404761906E-2</v>
-      </c>
-      <c r="I84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M84" s="5">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K87" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L87" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M87" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B88" s="5">
-        <f>B66/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C88" s="16">
-        <f t="shared" ref="C88:M88" si="22">C66/$B$78</f>
-        <v>3.1888055555555558E-3</v>
-      </c>
-      <c r="D88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="16">
-        <f t="shared" si="22"/>
-        <v>1.936060515873016E-2</v>
-      </c>
-      <c r="F88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G88" s="16">
-        <f t="shared" si="22"/>
-        <v>0.59220674603174606</v>
-      </c>
-      <c r="H88" s="16">
-        <f t="shared" si="22"/>
-        <v>0.10705275793650794</v>
-      </c>
-      <c r="I88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M88" s="5">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B89" s="5">
-        <f t="shared" ref="B89:M89" si="23">B67/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C89" s="16">
-        <f t="shared" si="23"/>
-        <v>3.5304632936507935E-3</v>
-      </c>
-      <c r="D89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="16">
-        <f t="shared" si="23"/>
-        <v>2.1638323412698415E-2</v>
-      </c>
-      <c r="F89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="G89" s="16">
-        <f t="shared" si="23"/>
-        <v>0.64914970238095238</v>
-      </c>
-      <c r="H89" s="16">
-        <f t="shared" si="23"/>
-        <v>0.11388591269841271</v>
-      </c>
-      <c r="I89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="K89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="M89" s="5">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>2030</v>
-      </c>
-      <c r="B90" s="5">
-        <f t="shared" ref="B90:M90" si="24">B68/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C90" s="16">
-        <f t="shared" si="24"/>
-        <v>4.0998928571428575E-3</v>
-      </c>
-      <c r="D90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="16">
-        <f t="shared" si="24"/>
-        <v>2.5054900793650796E-2</v>
-      </c>
-      <c r="F90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G90" s="16">
-        <f t="shared" si="24"/>
-        <v>0.75164702380952386</v>
-      </c>
-      <c r="H90" s="16">
-        <f t="shared" si="24"/>
-        <v>0.13666309523809525</v>
-      </c>
-      <c r="I90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="K90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="M90" s="5">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K93" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L93" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="M93" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="6">
-        <v>2015</v>
-      </c>
-      <c r="B94" s="5">
-        <f>B72/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C94" s="16">
-        <f t="shared" ref="C94:M94" si="25">C72/$B$78</f>
-        <v>3.1888055555555558E-3</v>
-      </c>
-      <c r="D94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="16">
-        <f t="shared" si="25"/>
-        <v>1.2527450396825398E-2</v>
-      </c>
-      <c r="F94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="G94" s="16">
-        <f t="shared" si="25"/>
-        <v>0.59220674603174606</v>
-      </c>
-      <c r="H94" s="16">
-        <f t="shared" si="25"/>
-        <v>7.6303561507936504E-2</v>
-      </c>
-      <c r="I94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M94" s="5">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="6">
-        <v>2020</v>
-      </c>
-      <c r="B95" s="5">
-        <f t="shared" ref="B95:M95" si="26">B73/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C95" s="16">
-        <f t="shared" si="26"/>
-        <v>3.5304632936507935E-3</v>
-      </c>
-      <c r="D95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="16">
-        <f t="shared" si="26"/>
-        <v>1.3666309523809525E-2</v>
-      </c>
-      <c r="F95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="G95" s="16">
-        <f t="shared" si="26"/>
-        <v>0.64914970238095238</v>
-      </c>
-      <c r="H95" s="16">
-        <f t="shared" si="26"/>
-        <v>8.4275575396825397E-2</v>
-      </c>
-      <c r="I95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="K95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="M95" s="5">
-        <f t="shared" si="26"/>
-        <v>0</v>
+      <c r="M95" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B96" s="5">
+        <f>B68/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C96" s="15">
+        <f t="shared" ref="C96:M96" si="7">C68/$B$92</f>
+        <v>3.1948000000000002E-3</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="15">
+        <f t="shared" si="7"/>
+        <v>1.3691999999999999E-2</v>
+      </c>
+      <c r="F96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="15">
+        <f t="shared" si="7"/>
+        <v>0.71882999999999997</v>
+      </c>
+      <c r="H96" s="15">
+        <f t="shared" si="7"/>
+        <v>7.6447000000000001E-2</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B97" s="5">
+        <f t="shared" ref="B97:M97" si="8">B69/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C97" s="15">
+        <f t="shared" si="8"/>
+        <v>3.5371000000000001E-3</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="15">
+        <f t="shared" si="8"/>
+        <v>1.4833000000000001E-2</v>
+      </c>
+      <c r="F97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="15">
+        <f t="shared" si="8"/>
+        <v>0.79869999999999997</v>
+      </c>
+      <c r="H97" s="15">
+        <f t="shared" si="8"/>
+        <v>8.4433999999999995E-2</v>
+      </c>
+      <c r="I97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M97" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
         <v>2030</v>
       </c>
-      <c r="B96" s="5">
-        <f t="shared" ref="B96:M96" si="27">B74/$B$78</f>
-        <v>0</v>
-      </c>
-      <c r="C96" s="16">
-        <f t="shared" si="27"/>
-        <v>4.0998928571428575E-3</v>
-      </c>
-      <c r="D96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="16">
-        <f t="shared" si="27"/>
-        <v>1.5944027777777779E-2</v>
-      </c>
-      <c r="F96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="G96" s="16">
-        <f t="shared" si="27"/>
-        <v>0.75164702380952386</v>
-      </c>
-      <c r="H96" s="16">
-        <f t="shared" si="27"/>
-        <v>9.908074404761906E-2</v>
-      </c>
-      <c r="I96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="K96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="M96" s="5">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>67</v>
+      <c r="B98" s="5">
+        <f t="shared" ref="B98:M98" si="9">B70/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C98" s="15">
+        <f t="shared" si="9"/>
+        <v>4.1076000000000003E-3</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="15">
+        <f t="shared" si="9"/>
+        <v>1.7114999999999998E-2</v>
+      </c>
+      <c r="F98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="15">
+        <f t="shared" si="9"/>
+        <v>0.94703000000000004</v>
+      </c>
+      <c r="H98" s="15">
+        <f t="shared" si="9"/>
+        <v>9.9266999999999994E-2</v>
+      </c>
+      <c r="I98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J101" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M101" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B102" s="5">
+        <f>B74/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C102" s="15">
+        <f t="shared" ref="C102:M102" si="10">C74/$B$92</f>
+        <v>3.1948000000000002E-3</v>
+      </c>
+      <c r="D102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="15">
+        <f t="shared" si="10"/>
+        <v>1.9397000000000001E-2</v>
+      </c>
+      <c r="F102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <f t="shared" si="10"/>
+        <v>0.59331999999999996</v>
+      </c>
+      <c r="H102" s="15">
+        <f t="shared" si="10"/>
+        <v>0.107254</v>
+      </c>
+      <c r="I102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B103" s="5">
+        <f t="shared" ref="B103:M103" si="11">B75/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C103" s="15">
+        <f t="shared" si="11"/>
+        <v>3.5371000000000001E-3</v>
+      </c>
+      <c r="D103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="15">
+        <f t="shared" si="11"/>
+        <v>2.1679E-2</v>
+      </c>
+      <c r="F103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="15">
+        <f t="shared" si="11"/>
+        <v>0.65037</v>
+      </c>
+      <c r="H103" s="15">
+        <f t="shared" si="11"/>
+        <v>0.11409999999999999</v>
+      </c>
+      <c r="I103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B104" s="5">
+        <f t="shared" ref="B104:M104" si="12">B76/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C104" s="15">
+        <f t="shared" si="12"/>
+        <v>4.1076000000000003E-3</v>
+      </c>
+      <c r="D104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="15">
+        <f t="shared" si="12"/>
+        <v>2.5101999999999999E-2</v>
+      </c>
+      <c r="F104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="15">
+        <f t="shared" si="12"/>
+        <v>0.75305999999999995</v>
+      </c>
+      <c r="H104" s="15">
+        <f t="shared" si="12"/>
+        <v>0.13691999999999999</v>
+      </c>
+      <c r="I104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B108" s="5">
+        <f>B80/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C108" s="15">
+        <f t="shared" ref="C108:M108" si="13">C80/$B$92</f>
+        <v>3.1948000000000002E-3</v>
+      </c>
+      <c r="D108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="15">
+        <f t="shared" si="13"/>
+        <v>1.2551E-2</v>
+      </c>
+      <c r="F108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="15">
+        <f t="shared" si="13"/>
+        <v>0.59331999999999996</v>
+      </c>
+      <c r="H108" s="15">
+        <f t="shared" si="13"/>
+        <v>7.6447000000000001E-2</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B109" s="5">
+        <f t="shared" ref="B109:M109" si="14">B81/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C109" s="15">
+        <f t="shared" si="14"/>
+        <v>3.5371000000000001E-3</v>
+      </c>
+      <c r="D109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="15">
+        <f t="shared" si="14"/>
+        <v>1.3691999999999999E-2</v>
+      </c>
+      <c r="F109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="15">
+        <f t="shared" si="14"/>
+        <v>0.65037</v>
+      </c>
+      <c r="H109" s="15">
+        <f t="shared" si="14"/>
+        <v>8.4433999999999995E-2</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B110" s="5">
+        <f t="shared" ref="B110:M110" si="15">B82/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C110" s="15">
+        <f t="shared" si="15"/>
+        <v>4.1076000000000003E-3</v>
+      </c>
+      <c r="D110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="15">
+        <f t="shared" si="15"/>
+        <v>1.5973999999999999E-2</v>
+      </c>
+      <c r="F110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="15">
+        <f t="shared" si="15"/>
+        <v>0.75305999999999995</v>
+      </c>
+      <c r="H110" s="15">
+        <f t="shared" si="15"/>
+        <v>9.9266999999999994E-2</v>
+      </c>
+      <c r="I110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A111" s="6"/>
+      <c r="B111" s="5"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A112" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I113" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J113" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K113" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M113" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B114" s="5">
+        <f>B86/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C114" s="15">
+        <f t="shared" ref="C114:M114" si="16">C86/$B$92</f>
+        <v>3.1948000000000002E-3</v>
+      </c>
+      <c r="D114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="15">
+        <f t="shared" si="16"/>
+        <v>1.2551E-2</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="15">
+        <f t="shared" si="16"/>
+        <v>0.93562000000000001</v>
+      </c>
+      <c r="H114" s="15">
+        <f t="shared" si="16"/>
+        <v>5.2485999999999998E-2</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>2020</v>
+      </c>
+      <c r="B115" s="5">
+        <f t="shared" ref="B115:M115" si="17">B87/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C115" s="15">
+        <f t="shared" si="17"/>
+        <v>3.5371000000000001E-3</v>
+      </c>
+      <c r="D115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="15">
+        <f t="shared" si="17"/>
+        <v>1.3691999999999999E-2</v>
+      </c>
+      <c r="F115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="15">
+        <f t="shared" si="17"/>
+        <v>1.0383100000000001</v>
+      </c>
+      <c r="H115" s="15">
+        <f t="shared" si="17"/>
+        <v>5.7049999999999997E-2</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="5">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>2030</v>
+      </c>
+      <c r="B116" s="5">
+        <f t="shared" ref="B116:M116" si="18">B88/$B$92</f>
+        <v>0</v>
+      </c>
+      <c r="C116" s="15">
+        <f t="shared" si="18"/>
+        <v>4.1076000000000003E-3</v>
+      </c>
+      <c r="D116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="15">
+        <f t="shared" si="18"/>
+        <v>1.5973999999999999E-2</v>
+      </c>
+      <c r="F116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="15">
+        <f t="shared" si="18"/>
+        <v>1.2551000000000001</v>
+      </c>
+      <c r="H116" s="15">
+        <f t="shared" si="18"/>
+        <v>6.8459999999999993E-2</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="5">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3304,43 +4138,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -3348,51 +4182,51 @@
         <v>2013</v>
       </c>
       <c r="B2" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A2)</f>
-        <v>3.0521424603174585E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A2)</f>
+        <v>3.0578799999999851E-3</v>
       </c>
       <c r="D2" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A2)</f>
-        <v>1.3210765873015839E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A2)</f>
+        <v>1.3235600000000014E-2</v>
       </c>
       <c r="F2" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A2)</f>
-        <v>0.68559319444444355</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A2)</f>
+        <v>0.68688200000000066</v>
       </c>
       <c r="H2" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A2)</f>
-        <v>7.3114755952381039E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A2)</f>
+        <v>7.3252200000000212E-2</v>
       </c>
       <c r="I2" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A2)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A2)</f>
         <v>0</v>
       </c>
     </row>
@@ -3401,51 +4235,51 @@
         <v>2014</v>
       </c>
       <c r="B3" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="C3" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A3)</f>
-        <v>3.1204740079365245E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A3)</f>
+        <v>3.1263400000000052E-3</v>
       </c>
       <c r="D3" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A3)</f>
-        <v>1.3438537698412689E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A3)</f>
+        <v>1.3463800000000026E-2</v>
       </c>
       <c r="F3" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A3)</f>
-        <v>0.70153722222222115</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A3)</f>
+        <v>0.70285600000000059</v>
       </c>
       <c r="H3" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A3)</f>
-        <v>7.4709158730158709E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A3)</f>
+        <v>7.484959999999985E-2</v>
       </c>
       <c r="I3" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A3)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A3)</f>
         <v>0</v>
       </c>
     </row>
@@ -3454,51 +4288,51 @@
         <v>2015</v>
       </c>
       <c r="B4" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A4)</f>
-        <v>3.1888055555555628E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A4)</f>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D4" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A4)</f>
-        <v>1.3666309523809483E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A4)</f>
+        <v>1.3692000000000037E-2</v>
       </c>
       <c r="F4" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A4)</f>
-        <v>0.71748124999999874</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A4)</f>
+        <v>0.71883000000000052</v>
       </c>
       <c r="H4" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A4)</f>
-        <v>7.6303561507936379E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A4)</f>
+        <v>7.6446999999999932E-2</v>
       </c>
       <c r="I4" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A4)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A4)</f>
         <v>0</v>
       </c>
     </row>
@@ -3507,51 +4341,51 @@
         <v>2016</v>
       </c>
       <c r="B5" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="C5" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A5)</f>
-        <v>3.257137103174601E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A5)</f>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D5" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A5)</f>
-        <v>1.3894081349206333E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A5)</f>
+        <v>1.3920200000000049E-2</v>
       </c>
       <c r="F5" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A5)</f>
-        <v>0.73342527777777633</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A5)</f>
+        <v>0.73480400000000046</v>
       </c>
       <c r="H5" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A5)</f>
-        <v>7.789796428571405E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A5)</f>
+        <v>7.8044400000000014E-2</v>
       </c>
       <c r="I5" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A5)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A5)</f>
         <v>0</v>
       </c>
     </row>
@@ -3560,51 +4394,51 @@
         <v>2017</v>
       </c>
       <c r="B6" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A6)</f>
-        <v>3.325468650793667E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A6)</f>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D6" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A6)</f>
-        <v>1.4121853174603183E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A6)</f>
+        <v>1.4148400000000005E-2</v>
       </c>
       <c r="F6" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A6)</f>
-        <v>0.74936930555555392</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A6)</f>
+        <v>0.75077800000000039</v>
       </c>
       <c r="H6" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A6)</f>
-        <v>7.949236706349172E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A6)</f>
+        <v>7.9641800000000096E-2</v>
       </c>
       <c r="I6" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A6)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A6)</f>
         <v>0</v>
       </c>
     </row>
@@ -3613,51 +4447,51 @@
         <v>2018</v>
       </c>
       <c r="B7" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A7)</f>
-        <v>3.3938001984127053E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A7)</f>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A7)</f>
-        <v>1.4349624999999977E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A7)</f>
+        <v>1.4376600000000017E-2</v>
       </c>
       <c r="F7" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A7)</f>
-        <v>0.76531333333333151</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A7)</f>
+        <v>0.76675200000000032</v>
       </c>
       <c r="H7" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A7)</f>
-        <v>8.1086769841269835E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A7)</f>
+        <v>8.1239200000000178E-2</v>
       </c>
       <c r="I7" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A7)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
     </row>
@@ -3666,51 +4500,51 @@
         <v>2019</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A8)</f>
-        <v>3.4621317460317436E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A8)</f>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A8)</f>
-        <v>1.4577396825396827E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A8)</f>
+        <v>1.4604800000000029E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A8)</f>
-        <v>0.78125736111110911</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A8)</f>
+        <v>0.78272600000000025</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A8)</f>
-        <v>8.2681172619047505E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A8)</f>
+        <v>8.2836599999999816E-2</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A8)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A8)</f>
         <v>0</v>
       </c>
     </row>
@@ -3719,51 +4553,51 @@
         <v>2020</v>
       </c>
       <c r="B9" s="14">
-        <f>TREND(Calculations!B$82:B$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="14">
-        <f>TREND(Calculations!C$82:C$83,Calculations!$A$82:$A$83,$A9)</f>
-        <v>3.5304632936508096E-3</v>
+        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A9)</f>
+        <v>3.5370999999999875E-3</v>
       </c>
       <c r="D9" s="14">
-        <f>TREND(Calculations!D$82:D$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f>TREND(Calculations!E$82:E$83,Calculations!$A$82:$A$83,$A9)</f>
-        <v>1.4805168650793621E-2</v>
+        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A9)</f>
+        <v>1.4833000000000041E-2</v>
       </c>
       <c r="F9" s="14">
-        <f>TREND(Calculations!F$82:F$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <f>TREND(Calculations!G$82:G$83,Calculations!$A$82:$A$83,$A9)</f>
-        <v>0.7972013888888867</v>
+        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A9)</f>
+        <v>0.79870000000000019</v>
       </c>
       <c r="H9" s="14">
-        <f>TREND(Calculations!H$82:H$83,Calculations!$A$82:$A$83,$A9)</f>
-        <v>8.4275575396825175E-2</v>
+        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A9)</f>
+        <v>8.4433999999999898E-2</v>
       </c>
       <c r="I9" s="14">
-        <f>TREND(Calculations!I$82:I$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f>TREND(Calculations!J$82:J$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f>TREND(Calculations!K$82:K$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="14">
-        <f>TREND(Calculations!L$82:L$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <f>TREND(Calculations!M$82:M$83,Calculations!$A$82:$A$83,$A9)</f>
+        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A9)</f>
         <v>0</v>
       </c>
     </row>
@@ -3772,51 +4606,51 @@
         <v>2021</v>
       </c>
       <c r="B10" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A10)</f>
-        <v>3.5874062500000081E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A10)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D10" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A10)</f>
-        <v>1.5032940476190471E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A10)</f>
+        <v>1.5061199999999997E-2</v>
       </c>
       <c r="F10" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A10)</f>
-        <v>0.81200655753968221</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A10)</f>
+        <v>0.81353300000000317</v>
       </c>
       <c r="H10" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A10)</f>
-        <v>8.5756092261904282E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A10)</f>
+        <v>8.5917300000000196E-2</v>
       </c>
       <c r="I10" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="K10" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A10)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A10)</f>
         <v>0</v>
       </c>
     </row>
@@ -3825,51 +4659,51 @@
         <v>2022</v>
       </c>
       <c r="B11" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="C11" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A11)</f>
-        <v>3.6443492063492067E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A11)</f>
+        <v>3.6511999999999933E-3</v>
       </c>
       <c r="D11" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A11)</f>
-        <v>1.5260712301587265E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A11)</f>
+        <v>1.5289400000000009E-2</v>
       </c>
       <c r="F11" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A11)</f>
-        <v>0.82681172619047771</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A11)</f>
+        <v>0.8283660000000026</v>
       </c>
       <c r="H11" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A11)</f>
-        <v>8.7236609126983833E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A11)</f>
+        <v>8.740060000000005E-2</v>
       </c>
       <c r="I11" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A11)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A11)</f>
         <v>0</v>
       </c>
     </row>
@@ -3878,51 +4712,51 @@
         <v>2023</v>
       </c>
       <c r="B12" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A12)</f>
-        <v>3.7012921626984191E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A12)</f>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D12" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A12)</f>
-        <v>1.5488484126984114E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A12)</f>
+        <v>1.5517599999999965E-2</v>
       </c>
       <c r="F12" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A12)</f>
-        <v>0.84161689484126967</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A12)</f>
+        <v>0.84319900000000203</v>
       </c>
       <c r="H12" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A12)</f>
-        <v>8.871712599206294E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A12)</f>
+        <v>8.8883900000000349E-2</v>
       </c>
       <c r="I12" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A12)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A12)</f>
         <v>0</v>
       </c>
     </row>
@@ -3931,51 +4765,51 @@
         <v>2024</v>
       </c>
       <c r="B13" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="C13" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A13)</f>
-        <v>3.7582351190476176E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A13)</f>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D13" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A13)</f>
-        <v>1.5716255952380964E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A13)</f>
+        <v>1.5745799999999976E-2</v>
       </c>
       <c r="F13" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A13)</f>
-        <v>0.85642206349206518</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A13)</f>
+        <v>0.85803200000000146</v>
       </c>
       <c r="H13" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A13)</f>
-        <v>9.019764285714249E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A13)</f>
+        <v>9.0367200000000203E-2</v>
       </c>
       <c r="I13" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A13)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A13)</f>
         <v>0</v>
       </c>
     </row>
@@ -3984,51 +4818,51 @@
         <v>2025</v>
       </c>
       <c r="B14" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A14)</f>
-        <v>3.8151780753968301E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A14)</f>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D14" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A14)</f>
-        <v>1.5944027777777758E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A14)</f>
+        <v>1.5973999999999988E-2</v>
       </c>
       <c r="F14" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A14)</f>
-        <v>0.87122723214285713</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A14)</f>
+        <v>0.87286500000000089</v>
       </c>
       <c r="H14" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A14)</f>
-        <v>9.1678159722222041E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A14)</f>
+        <v>9.1850500000000057E-2</v>
       </c>
       <c r="I14" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A14)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A14)</f>
         <v>0</v>
       </c>
     </row>
@@ -4037,51 +4871,51 @@
         <v>2026</v>
       </c>
       <c r="B15" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="C15" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A15)</f>
-        <v>3.8721210317460425E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A15)</f>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D15" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A15)</f>
-        <v>1.6171799603174608E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A15)</f>
+        <v>1.62022E-2</v>
       </c>
       <c r="F15" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A15)</f>
-        <v>0.88603240079365264</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A15)</f>
+        <v>0.88769800000000032</v>
       </c>
       <c r="H15" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A15)</f>
-        <v>9.3158676587301148E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A15)</f>
+        <v>9.3333800000000355E-2</v>
       </c>
       <c r="I15" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A15)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A15)</f>
         <v>0</v>
       </c>
     </row>
@@ -4090,51 +4924,51 @@
         <v>2027</v>
       </c>
       <c r="B16" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A16)</f>
-        <v>3.929063988095241E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A16)</f>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D16" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A16)</f>
-        <v>1.6399571428571402E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A16)</f>
+        <v>1.6430400000000012E-2</v>
       </c>
       <c r="F16" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A16)</f>
-        <v>0.9008375694444446</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A16)</f>
+        <v>0.9025310000000033</v>
       </c>
       <c r="H16" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A16)</f>
-        <v>9.4639193452380699E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A16)</f>
+        <v>9.481710000000021E-2</v>
       </c>
       <c r="I16" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A16)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A16)</f>
         <v>0</v>
       </c>
     </row>
@@ -4143,51 +4977,51 @@
         <v>2028</v>
       </c>
       <c r="B17" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="C17" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A17)</f>
-        <v>3.9860069444444535E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A17)</f>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D17" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A17)</f>
-        <v>1.6627343253968252E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A17)</f>
+        <v>1.6658599999999968E-2</v>
       </c>
       <c r="F17" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A17)</f>
-        <v>0.91564273809524011</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A17)</f>
+        <v>0.91736400000000273</v>
       </c>
       <c r="H17" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A17)</f>
-        <v>9.6119710317459806E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A17)</f>
+        <v>9.6300400000000064E-2</v>
       </c>
       <c r="I17" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A17)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A17)</f>
         <v>0</v>
       </c>
     </row>
@@ -4196,51 +5030,51 @@
         <v>2029</v>
       </c>
       <c r="B18" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="C18" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A18)</f>
-        <v>4.042949900793652E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A18)</f>
+        <v>4.05055E-3</v>
       </c>
       <c r="D18" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A18)</f>
-        <v>1.6855115079365046E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A18)</f>
+        <v>1.688679999999998E-2</v>
       </c>
       <c r="F18" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A18)</f>
-        <v>0.93044790674603206</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A18)</f>
+        <v>0.93219700000000216</v>
       </c>
       <c r="H18" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A18)</f>
-        <v>9.7600227182539356E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A18)</f>
+        <v>9.7783700000000362E-2</v>
       </c>
       <c r="I18" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A18)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A18)</f>
         <v>0</v>
       </c>
     </row>
@@ -4249,51 +5083,51 @@
         <v>2030</v>
       </c>
       <c r="B19" s="11">
-        <f>TREND(Calculations!B$83:B$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="C19" s="11">
-        <f>TREND(Calculations!C$83:C$84,Calculations!$A$83:$A$84,$A19)</f>
-        <v>4.0998928571428644E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A19)</f>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D19" s="11">
-        <f>TREND(Calculations!D$83:D$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <f>TREND(Calculations!E$83:E$84,Calculations!$A$83:$A$84,$A19)</f>
-        <v>1.7082886904761896E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A19)</f>
+        <v>1.7114999999999991E-2</v>
       </c>
       <c r="F19" s="11">
-        <f>TREND(Calculations!F$83:F$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f>TREND(Calculations!G$83:G$84,Calculations!$A$83:$A$84,$A19)</f>
-        <v>0.94525307539682402</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A19)</f>
+        <v>0.94703000000000159</v>
       </c>
       <c r="H19" s="11">
-        <f>TREND(Calculations!H$83:H$84,Calculations!$A$83:$A$84,$A19)</f>
-        <v>9.9080744047618463E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A19)</f>
+        <v>9.9267000000000216E-2</v>
       </c>
       <c r="I19" s="11">
-        <f>TREND(Calculations!I$83:I$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f>TREND(Calculations!J$83:J$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f>TREND(Calculations!K$83:K$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f>TREND(Calculations!L$83:L$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <f>TREND(Calculations!M$83:M$84,Calculations!$A$83:$A$84,$A19)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A19)</f>
         <v>0</v>
       </c>
     </row>
@@ -4315,43 +5149,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -4359,51 +5193,51 @@
         <v>2013</v>
       </c>
       <c r="B2" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A2)</f>
-        <v>3.0521424603174585E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A2)</f>
+        <v>3.0578799999999851E-3</v>
       </c>
       <c r="D2" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A2)</f>
-        <v>1.8449517857142772E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A2)</f>
+        <v>1.8484199999999951E-2</v>
       </c>
       <c r="F2" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A2)</f>
-        <v>0.56942956349206142</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A2)</f>
+        <v>0.57049999999999912</v>
       </c>
       <c r="H2" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A2)</f>
-        <v>0.10431949603174617</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A2)</f>
+        <v>0.10451560000000004</v>
       </c>
       <c r="I2" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A2)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A2)</f>
         <v>0</v>
       </c>
     </row>
@@ -4412,51 +5246,51 @@
         <v>2014</v>
       </c>
       <c r="B3" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="C3" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A3)</f>
-        <v>3.1204740079365245E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A3)</f>
+        <v>3.1263400000000052E-3</v>
       </c>
       <c r="D3" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A3)</f>
-        <v>1.8905061507936471E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A3)</f>
+        <v>1.8940599999999974E-2</v>
       </c>
       <c r="F3" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A3)</f>
-        <v>0.58081815476190357</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A3)</f>
+        <v>0.58191000000000059</v>
       </c>
       <c r="H3" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A3)</f>
-        <v>0.10568612698412716</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A3)</f>
+        <v>0.10588480000000011</v>
       </c>
       <c r="I3" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A3)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A3)</f>
         <v>0</v>
       </c>
     </row>
@@ -4465,51 +5299,51 @@
         <v>2015</v>
       </c>
       <c r="B4" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A4)</f>
-        <v>3.1888055555555628E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A4)</f>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D4" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A4)</f>
-        <v>1.936060515873006E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A4)</f>
+        <v>1.9396999999999998E-2</v>
       </c>
       <c r="F4" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A4)</f>
-        <v>0.59220674603174217</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A4)</f>
+        <v>0.59332000000000207</v>
       </c>
       <c r="H4" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A4)</f>
-        <v>0.1070527579365077</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A4)</f>
+        <v>0.10725399999999974</v>
       </c>
       <c r="I4" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A4)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A4)</f>
         <v>0</v>
       </c>
     </row>
@@ -4518,51 +5352,51 @@
         <v>2016</v>
       </c>
       <c r="B5" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="C5" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A5)</f>
-        <v>3.257137103174601E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A5)</f>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D5" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A5)</f>
-        <v>1.9816148809523759E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A5)</f>
+        <v>1.9853400000000021E-2</v>
       </c>
       <c r="F5" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A5)</f>
-        <v>0.60359533730158432</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A5)</f>
+        <v>0.60472999999999999</v>
       </c>
       <c r="H5" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A5)</f>
-        <v>0.10841938888888869</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A5)</f>
+        <v>0.10862319999999981</v>
       </c>
       <c r="I5" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A5)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A5)</f>
         <v>0</v>
       </c>
     </row>
@@ -4571,51 +5405,51 @@
         <v>2017</v>
       </c>
       <c r="B6" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A6)</f>
-        <v>3.325468650793667E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A6)</f>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D6" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A6)</f>
-        <v>2.0271692460317459E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A6)</f>
+        <v>2.0309800000000044E-2</v>
       </c>
       <c r="F6" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A6)</f>
-        <v>0.61498392857142647</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A6)</f>
+        <v>0.61614000000000146</v>
       </c>
       <c r="H6" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A6)</f>
-        <v>0.10978601984126968</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A6)</f>
+        <v>0.10999239999999988</v>
       </c>
       <c r="I6" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A6)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A6)</f>
         <v>0</v>
       </c>
     </row>
@@ -4624,51 +5458,51 @@
         <v>2018</v>
       </c>
       <c r="B7" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A7)</f>
-        <v>3.3938001984127053E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A7)</f>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A7)</f>
-        <v>2.0727236111111047E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A7)</f>
+        <v>2.0766199999999957E-2</v>
       </c>
       <c r="F7" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A7)</f>
-        <v>0.62637251984126863</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A7)</f>
+        <v>0.62754999999999939</v>
       </c>
       <c r="H7" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A7)</f>
-        <v>0.11115265079365066</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A7)</f>
+        <v>0.11136159999999995</v>
       </c>
       <c r="I7" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A7)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
     </row>
@@ -4677,51 +5511,51 @@
         <v>2019</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A8)</f>
-        <v>3.4621317460317436E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A8)</f>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A8)</f>
-        <v>2.1182779761904746E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A8)</f>
+        <v>2.122259999999998E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A8)</f>
-        <v>0.63776111111110723</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A8)</f>
+        <v>0.63896000000000086</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A8)</f>
-        <v>0.11251928174603165</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A8)</f>
+        <v>0.11273080000000002</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A8)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A8)</f>
         <v>0</v>
       </c>
     </row>
@@ -4730,51 +5564,51 @@
         <v>2020</v>
       </c>
       <c r="B9" s="14">
-        <f>TREND(Calculations!B$88:B$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="14">
-        <f>TREND(Calculations!C$88:C$89,Calculations!$A$88:$A$89,$A9)</f>
-        <v>3.5304632936508096E-3</v>
+        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A9)</f>
+        <v>3.5370999999999875E-3</v>
       </c>
       <c r="D9" s="14">
-        <f>TREND(Calculations!D$88:D$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f>TREND(Calculations!E$88:E$89,Calculations!$A$88:$A$89,$A9)</f>
-        <v>2.1638323412698335E-2</v>
+        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A9)</f>
+        <v>2.1679000000000004E-2</v>
       </c>
       <c r="F9" s="14">
-        <f>TREND(Calculations!F$88:F$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <f>TREND(Calculations!G$88:G$89,Calculations!$A$88:$A$89,$A9)</f>
-        <v>0.64914970238094938</v>
+        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A9)</f>
+        <v>0.65037000000000234</v>
       </c>
       <c r="H9" s="14">
-        <f>TREND(Calculations!H$88:H$89,Calculations!$A$88:$A$89,$A9)</f>
-        <v>0.11388591269841264</v>
+        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A9)</f>
+        <v>0.11410000000000009</v>
       </c>
       <c r="I9" s="14">
-        <f>TREND(Calculations!I$88:I$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f>TREND(Calculations!J$88:J$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f>TREND(Calculations!K$88:K$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="14">
-        <f>TREND(Calculations!L$88:L$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <f>TREND(Calculations!M$88:M$89,Calculations!$A$88:$A$89,$A9)</f>
+        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A9)</f>
         <v>0</v>
       </c>
     </row>
@@ -4783,51 +5617,51 @@
         <v>2021</v>
       </c>
       <c r="B10" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A10)</f>
-        <v>3.5874062500000081E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A10)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D10" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A10)</f>
-        <v>2.1979981150793582E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A10)</f>
+        <v>2.202129999999991E-2</v>
       </c>
       <c r="F10" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A10)</f>
-        <v>0.65939943452380945</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A10)</f>
+        <v>0.66063899999999975</v>
       </c>
       <c r="H10" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A10)</f>
-        <v>0.11616363095238125</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A10)</f>
+        <v>0.11638200000000065</v>
       </c>
       <c r="I10" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="K10" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A10)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A10)</f>
         <v>0</v>
       </c>
     </row>
@@ -4836,51 +5670,51 @@
         <v>2022</v>
       </c>
       <c r="B11" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="C11" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A11)</f>
-        <v>3.6443492063492067E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A11)</f>
+        <v>3.6511999999999933E-3</v>
       </c>
       <c r="D11" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A11)</f>
-        <v>2.2321638888888828E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A11)</f>
+        <v>2.2363599999999928E-2</v>
       </c>
       <c r="F11" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A11)</f>
-        <v>0.66964916666666596</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A11)</f>
+        <v>0.67090800000000073</v>
       </c>
       <c r="H11" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A11)</f>
-        <v>0.11844134920634897</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A11)</f>
+        <v>0.11866399999999988</v>
       </c>
       <c r="I11" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A11)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A11)</f>
         <v>0</v>
       </c>
     </row>
@@ -4889,51 +5723,51 @@
         <v>2023</v>
       </c>
       <c r="B12" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A12)</f>
-        <v>3.7012921626984191E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A12)</f>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D12" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A12)</f>
-        <v>2.2663296626984075E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A12)</f>
+        <v>2.2705899999999946E-2</v>
       </c>
       <c r="F12" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A12)</f>
-        <v>0.67989889880952603</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A12)</f>
+        <v>0.6811770000000017</v>
       </c>
       <c r="H12" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A12)</f>
-        <v>0.12071906746031758</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A12)</f>
+        <v>0.120946</v>
       </c>
       <c r="I12" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A12)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A12)</f>
         <v>0</v>
       </c>
     </row>
@@ -4942,51 +5776,51 @@
         <v>2024</v>
       </c>
       <c r="B13" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="C13" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A13)</f>
-        <v>3.7582351190476176E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A13)</f>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D13" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A13)</f>
-        <v>2.3004954365079322E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A13)</f>
+        <v>2.3048199999999963E-2</v>
       </c>
       <c r="F13" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A13)</f>
-        <v>0.69014863095238255</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A13)</f>
+        <v>0.69144600000000267</v>
       </c>
       <c r="H13" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A13)</f>
-        <v>0.12299678571428618</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A13)</f>
+        <v>0.12322800000000012</v>
       </c>
       <c r="I13" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A13)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4995,51 +5829,51 @@
         <v>2025</v>
       </c>
       <c r="B14" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A14)</f>
-        <v>3.8151780753968301E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A14)</f>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D14" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A14)</f>
-        <v>2.3346612103174569E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A14)</f>
+        <v>2.3390499999999981E-2</v>
       </c>
       <c r="F14" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A14)</f>
-        <v>0.70039836309523906</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A14)</f>
+        <v>0.70171500000000009</v>
       </c>
       <c r="H14" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A14)</f>
-        <v>0.1252745039682539</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A14)</f>
+        <v>0.12551000000000023</v>
       </c>
       <c r="I14" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A14)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A14)</f>
         <v>0</v>
       </c>
     </row>
@@ -5048,51 +5882,51 @@
         <v>2026</v>
       </c>
       <c r="B15" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="C15" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A15)</f>
-        <v>3.8721210317460425E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A15)</f>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D15" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A15)</f>
-        <v>2.3688269841269816E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A15)</f>
+        <v>2.3732799999999998E-2</v>
       </c>
       <c r="F15" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A15)</f>
-        <v>0.71064809523809558</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A15)</f>
+        <v>0.71198400000000106</v>
       </c>
       <c r="H15" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A15)</f>
-        <v>0.12755222222222251</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A15)</f>
+        <v>0.12779200000000035</v>
       </c>
       <c r="I15" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A15)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A15)</f>
         <v>0</v>
       </c>
     </row>
@@ -5101,51 +5935,51 @@
         <v>2027</v>
       </c>
       <c r="B16" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A16)</f>
-        <v>3.929063988095241E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A16)</f>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D16" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A16)</f>
-        <v>2.4029927579365062E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A16)</f>
+        <v>2.4075099999999905E-2</v>
       </c>
       <c r="F16" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A16)</f>
-        <v>0.72089782738095209</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A16)</f>
+        <v>0.72225300000000203</v>
       </c>
       <c r="H16" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A16)</f>
-        <v>0.12982994047619023</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A16)</f>
+        <v>0.13007400000000047</v>
       </c>
       <c r="I16" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A16)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A16)</f>
         <v>0</v>
       </c>
     </row>
@@ -5154,51 +5988,51 @@
         <v>2028</v>
       </c>
       <c r="B17" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="C17" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A17)</f>
-        <v>3.9860069444444535E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A17)</f>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D17" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A17)</f>
-        <v>2.4371585317460309E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A17)</f>
+        <v>2.4417399999999922E-2</v>
       </c>
       <c r="F17" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A17)</f>
-        <v>0.73114755952380861</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A17)</f>
+        <v>0.73252199999999945</v>
       </c>
       <c r="H17" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A17)</f>
-        <v>0.13210765873015884</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A17)</f>
+        <v>0.13235600000000058</v>
       </c>
       <c r="I17" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A17)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A17)</f>
         <v>0</v>
       </c>
     </row>
@@ -5207,51 +6041,51 @@
         <v>2029</v>
       </c>
       <c r="B18" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="C18" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A18)</f>
-        <v>4.042949900793652E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A18)</f>
+        <v>4.05055E-3</v>
       </c>
       <c r="D18" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A18)</f>
-        <v>2.4713243055555556E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A18)</f>
+        <v>2.475969999999994E-2</v>
       </c>
       <c r="F18" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A18)</f>
-        <v>0.74139729166666868</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A18)</f>
+        <v>0.74279100000000042</v>
       </c>
       <c r="H18" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A18)</f>
-        <v>0.13438537698412745</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A18)</f>
+        <v>0.1346380000000007</v>
       </c>
       <c r="I18" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A18)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A18)</f>
         <v>0</v>
       </c>
     </row>
@@ -5260,51 +6094,51 @@
         <v>2030</v>
       </c>
       <c r="B19" s="11">
-        <f>TREND(Calculations!B$89:B$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="C19" s="11">
-        <f>TREND(Calculations!C$89:C$90,Calculations!$A$89:$A$90,$A19)</f>
-        <v>4.0998928571428644E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A19)</f>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D19" s="11">
-        <f>TREND(Calculations!D$89:D$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <f>TREND(Calculations!E$89:E$90,Calculations!$A$89:$A$90,$A19)</f>
-        <v>2.5054900793650692E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A19)</f>
+        <v>2.5101999999999958E-2</v>
       </c>
       <c r="F19" s="11">
-        <f>TREND(Calculations!F$89:F$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f>TREND(Calculations!G$89:G$90,Calculations!$A$89:$A$90,$A19)</f>
-        <v>0.75164702380952519</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A19)</f>
+        <v>0.75306000000000139</v>
       </c>
       <c r="H19" s="11">
-        <f>TREND(Calculations!H$89:H$90,Calculations!$A$89:$A$90,$A19)</f>
-        <v>0.13666309523809517</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A19)</f>
+        <v>0.13691999999999993</v>
       </c>
       <c r="I19" s="11">
-        <f>TREND(Calculations!I$89:I$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f>TREND(Calculations!J$89:J$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f>TREND(Calculations!K$89:K$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f>TREND(Calculations!L$89:L$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <f>TREND(Calculations!M$89:M$90,Calculations!$A$89:$A$90,$A19)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A19)</f>
         <v>0</v>
       </c>
     </row>
@@ -5326,43 +6160,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -5370,51 +6204,51 @@
         <v>2013</v>
       </c>
       <c r="B2" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="C2" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A2)</f>
-        <v>3.0521424603174585E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A2)</f>
+        <v>3.0578799999999851E-3</v>
       </c>
       <c r="D2" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="E2" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A2)</f>
-        <v>1.2071906746031702E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A2)</f>
+        <v>1.2094600000000011E-2</v>
       </c>
       <c r="F2" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="G2" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A2)</f>
-        <v>0.56942956349206142</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A2)</f>
+        <v>0.57049999999999912</v>
       </c>
       <c r="H2" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A2)</f>
-        <v>7.3114755952381039E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A2)</f>
+        <v>7.3252200000000212E-2</v>
       </c>
       <c r="I2" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="J2" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="K2" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="L2" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
       <c r="M2" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A2)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A2)</f>
         <v>0</v>
       </c>
     </row>
@@ -5423,51 +6257,51 @@
         <v>2014</v>
       </c>
       <c r="B3" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="C3" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A3)</f>
-        <v>3.1204740079365245E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A3)</f>
+        <v>3.1263400000000052E-3</v>
       </c>
       <c r="D3" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A3)</f>
-        <v>1.2299678571428552E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A3)</f>
+        <v>1.2322800000000023E-2</v>
       </c>
       <c r="F3" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A3)</f>
-        <v>0.58081815476190357</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A3)</f>
+        <v>0.58191000000000059</v>
       </c>
       <c r="H3" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A3)</f>
-        <v>7.4709158730158709E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A3)</f>
+        <v>7.484959999999985E-2</v>
       </c>
       <c r="I3" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A3)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A3)</f>
         <v>0</v>
       </c>
     </row>
@@ -5476,51 +6310,51 @@
         <v>2015</v>
       </c>
       <c r="B4" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="C4" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A4)</f>
-        <v>3.1888055555555628E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A4)</f>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D4" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A4)</f>
-        <v>1.2527450396825346E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A4)</f>
+        <v>1.2551000000000034E-2</v>
       </c>
       <c r="F4" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="G4" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A4)</f>
-        <v>0.59220674603174217</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A4)</f>
+        <v>0.59332000000000207</v>
       </c>
       <c r="H4" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A4)</f>
-        <v>7.6303561507936379E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A4)</f>
+        <v>7.6446999999999932E-2</v>
       </c>
       <c r="I4" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="J4" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="L4" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
       <c r="M4" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A4)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A4)</f>
         <v>0</v>
       </c>
     </row>
@@ -5529,51 +6363,51 @@
         <v>2016</v>
       </c>
       <c r="B5" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="C5" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A5)</f>
-        <v>3.257137103174601E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A5)</f>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D5" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="E5" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A5)</f>
-        <v>1.2755222222222196E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A5)</f>
+        <v>1.2779200000000046E-2</v>
       </c>
       <c r="F5" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="G5" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A5)</f>
-        <v>0.60359533730158432</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A5)</f>
+        <v>0.60472999999999999</v>
       </c>
       <c r="H5" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A5)</f>
-        <v>7.789796428571405E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A5)</f>
+        <v>7.8044400000000014E-2</v>
       </c>
       <c r="I5" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="J5" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="K5" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="L5" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
       <c r="M5" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A5)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A5)</f>
         <v>0</v>
       </c>
     </row>
@@ -5582,51 +6416,51 @@
         <v>2017</v>
       </c>
       <c r="B6" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="C6" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A6)</f>
-        <v>3.325468650793667E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A6)</f>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D6" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="E6" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A6)</f>
-        <v>1.2982994047619045E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A6)</f>
+        <v>1.3007400000000058E-2</v>
       </c>
       <c r="F6" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A6)</f>
-        <v>0.61498392857142647</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A6)</f>
+        <v>0.61614000000000146</v>
       </c>
       <c r="H6" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A6)</f>
-        <v>7.949236706349172E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A6)</f>
+        <v>7.9641800000000096E-2</v>
       </c>
       <c r="I6" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="J6" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="L6" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
       <c r="M6" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A6)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A6)</f>
         <v>0</v>
       </c>
     </row>
@@ -5635,51 +6469,51 @@
         <v>2018</v>
       </c>
       <c r="B7" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="C7" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A7)</f>
-        <v>3.3938001984127053E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A7)</f>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D7" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="E7" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A7)</f>
-        <v>1.3210765873015839E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A7)</f>
+        <v>1.3235600000000014E-2</v>
       </c>
       <c r="F7" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A7)</f>
-        <v>0.62637251984126863</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A7)</f>
+        <v>0.62754999999999939</v>
       </c>
       <c r="H7" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A7)</f>
-        <v>8.1086769841269835E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A7)</f>
+        <v>8.1239200000000178E-2</v>
       </c>
       <c r="I7" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="J7" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="L7" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
       <c r="M7" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A7)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
     </row>
@@ -5688,51 +6522,51 @@
         <v>2019</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A8)</f>
-        <v>3.4621317460317436E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A8)</f>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A8)</f>
-        <v>1.3438537698412689E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A8)</f>
+        <v>1.3463800000000026E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A8)</f>
-        <v>0.63776111111110723</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A8)</f>
+        <v>0.63896000000000086</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A8)</f>
-        <v>8.2681172619047505E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A8)</f>
+        <v>8.2836599999999816E-2</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A8)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A8)</f>
         <v>0</v>
       </c>
     </row>
@@ -5741,51 +6575,51 @@
         <v>2020</v>
       </c>
       <c r="B9" s="14">
-        <f>TREND(Calculations!B$94:B$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="C9" s="14">
-        <f>TREND(Calculations!C$94:C$95,Calculations!$A$94:$A$95,$A9)</f>
-        <v>3.5304632936508096E-3</v>
+        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A9)</f>
+        <v>3.5370999999999875E-3</v>
       </c>
       <c r="D9" s="14">
-        <f>TREND(Calculations!D$94:D$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="E9" s="14">
-        <f>TREND(Calculations!E$94:E$95,Calculations!$A$94:$A$95,$A9)</f>
-        <v>1.3666309523809483E-2</v>
+        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A9)</f>
+        <v>1.3692000000000037E-2</v>
       </c>
       <c r="F9" s="14">
-        <f>TREND(Calculations!F$94:F$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="14">
-        <f>TREND(Calculations!G$94:G$95,Calculations!$A$94:$A$95,$A9)</f>
-        <v>0.64914970238094938</v>
+        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A9)</f>
+        <v>0.65037000000000234</v>
       </c>
       <c r="H9" s="14">
-        <f>TREND(Calculations!H$94:H$95,Calculations!$A$94:$A$95,$A9)</f>
-        <v>8.4275575396825175E-2</v>
+        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A9)</f>
+        <v>8.4433999999999898E-2</v>
       </c>
       <c r="I9" s="14">
-        <f>TREND(Calculations!I$94:I$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="J9" s="14">
-        <f>TREND(Calculations!J$94:J$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="K9" s="14">
-        <f>TREND(Calculations!K$94:K$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="L9" s="14">
-        <f>TREND(Calculations!L$94:L$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
       <c r="M9" s="14">
-        <f>TREND(Calculations!M$94:M$95,Calculations!$A$94:$A$95,$A9)</f>
+        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A9)</f>
         <v>0</v>
       </c>
     </row>
@@ -5794,51 +6628,51 @@
         <v>2021</v>
       </c>
       <c r="B10" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="C10" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A10)</f>
-        <v>3.5874062500000081E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A10)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D10" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="E10" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A10)</f>
-        <v>1.3894081349206389E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A10)</f>
+        <v>1.3920199999999994E-2</v>
       </c>
       <c r="F10" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="G10" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A10)</f>
-        <v>0.65939943452380945</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A10)</f>
+        <v>0.66063899999999975</v>
       </c>
       <c r="H10" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A10)</f>
-        <v>8.5756092261904282E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A10)</f>
+        <v>8.5917300000000196E-2</v>
       </c>
       <c r="I10" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="J10" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="K10" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="L10" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
       <c r="M10" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A10)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A10)</f>
         <v>0</v>
       </c>
     </row>
@@ -5847,51 +6681,51 @@
         <v>2022</v>
       </c>
       <c r="B11" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="C11" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A11)</f>
-        <v>3.6443492063492067E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A11)</f>
+        <v>3.6511999999999933E-3</v>
       </c>
       <c r="D11" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="E11" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A11)</f>
-        <v>1.4121853174603183E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A11)</f>
+        <v>1.4148400000000005E-2</v>
       </c>
       <c r="F11" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A11)</f>
-        <v>0.66964916666666596</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A11)</f>
+        <v>0.67090800000000073</v>
       </c>
       <c r="H11" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A11)</f>
-        <v>8.7236609126983833E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A11)</f>
+        <v>8.740060000000005E-2</v>
       </c>
       <c r="I11" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="J11" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="L11" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
       <c r="M11" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A11)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A11)</f>
         <v>0</v>
       </c>
     </row>
@@ -5900,51 +6734,51 @@
         <v>2023</v>
       </c>
       <c r="B12" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="C12" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A12)</f>
-        <v>3.7012921626984191E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A12)</f>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D12" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="E12" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A12)</f>
-        <v>1.4349625000000032E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A12)</f>
+        <v>1.4376599999999962E-2</v>
       </c>
       <c r="F12" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="G12" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A12)</f>
-        <v>0.67989889880952603</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A12)</f>
+        <v>0.6811770000000017</v>
       </c>
       <c r="H12" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A12)</f>
-        <v>8.871712599206294E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A12)</f>
+        <v>8.8883900000000349E-2</v>
       </c>
       <c r="I12" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="J12" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="K12" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="L12" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A12)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A12)</f>
         <v>0</v>
       </c>
     </row>
@@ -5953,51 +6787,51 @@
         <v>2024</v>
       </c>
       <c r="B13" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="C13" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A13)</f>
-        <v>3.7582351190476176E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A13)</f>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D13" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="E13" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A13)</f>
-        <v>1.4577396825396882E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A13)</f>
+        <v>1.4604799999999973E-2</v>
       </c>
       <c r="F13" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A13)</f>
-        <v>0.69014863095238255</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A13)</f>
+        <v>0.69144600000000267</v>
       </c>
       <c r="H13" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A13)</f>
-        <v>9.019764285714249E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A13)</f>
+        <v>9.0367200000000203E-2</v>
       </c>
       <c r="I13" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="J13" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="L13" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A13)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A13)</f>
         <v>0</v>
       </c>
     </row>
@@ -6006,51 +6840,51 @@
         <v>2025</v>
       </c>
       <c r="B14" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="C14" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A14)</f>
-        <v>3.8151780753968301E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A14)</f>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D14" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="E14" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A14)</f>
-        <v>1.4805168650793676E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A14)</f>
+        <v>1.4832999999999985E-2</v>
       </c>
       <c r="F14" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="G14" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A14)</f>
-        <v>0.70039836309523906</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A14)</f>
+        <v>0.70171500000000009</v>
       </c>
       <c r="H14" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A14)</f>
-        <v>9.1678159722222041E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A14)</f>
+        <v>9.1850500000000057E-2</v>
       </c>
       <c r="I14" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="K14" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="L14" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A14)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A14)</f>
         <v>0</v>
       </c>
     </row>
@@ -6059,51 +6893,51 @@
         <v>2026</v>
       </c>
       <c r="B15" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="C15" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A15)</f>
-        <v>3.8721210317460425E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A15)</f>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D15" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="E15" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A15)</f>
-        <v>1.5032940476190526E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A15)</f>
+        <v>1.5061199999999997E-2</v>
       </c>
       <c r="F15" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="G15" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A15)</f>
-        <v>0.71064809523809558</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A15)</f>
+        <v>0.71198400000000106</v>
       </c>
       <c r="H15" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A15)</f>
-        <v>9.3158676587301148E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A15)</f>
+        <v>9.3333800000000355E-2</v>
       </c>
       <c r="I15" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="J15" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="K15" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="L15" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
       <c r="M15" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A15)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A15)</f>
         <v>0</v>
       </c>
     </row>
@@ -6112,51 +6946,51 @@
         <v>2027</v>
       </c>
       <c r="B16" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="C16" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A16)</f>
-        <v>3.929063988095241E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A16)</f>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D16" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A16)</f>
-        <v>1.526071230158732E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A16)</f>
+        <v>1.5289399999999953E-2</v>
       </c>
       <c r="F16" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="G16" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A16)</f>
-        <v>0.72089782738095209</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A16)</f>
+        <v>0.72225300000000203</v>
       </c>
       <c r="H16" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A16)</f>
-        <v>9.4639193452380699E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A16)</f>
+        <v>9.481710000000021E-2</v>
       </c>
       <c r="I16" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="J16" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="L16" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A16)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A16)</f>
         <v>0</v>
       </c>
     </row>
@@ -6165,51 +6999,51 @@
         <v>2028</v>
       </c>
       <c r="B17" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="C17" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A17)</f>
-        <v>3.9860069444444535E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A17)</f>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D17" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="E17" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A17)</f>
-        <v>1.548848412698417E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A17)</f>
+        <v>1.5517599999999965E-2</v>
       </c>
       <c r="F17" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="G17" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A17)</f>
-        <v>0.73114755952380861</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A17)</f>
+        <v>0.73252199999999945</v>
       </c>
       <c r="H17" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A17)</f>
-        <v>9.6119710317459806E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A17)</f>
+        <v>9.6300400000000064E-2</v>
       </c>
       <c r="I17" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="J17" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A17)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A17)</f>
         <v>0</v>
       </c>
     </row>
@@ -6218,51 +7052,51 @@
         <v>2029</v>
       </c>
       <c r="B18" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="C18" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A18)</f>
-        <v>4.042949900793652E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A18)</f>
+        <v>4.05055E-3</v>
       </c>
       <c r="D18" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="E18" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A18)</f>
-        <v>1.5716255952380964E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A18)</f>
+        <v>1.5745799999999976E-2</v>
       </c>
       <c r="F18" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A18)</f>
-        <v>0.74139729166666868</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A18)</f>
+        <v>0.74279100000000042</v>
       </c>
       <c r="H18" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A18)</f>
-        <v>9.7600227182539356E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A18)</f>
+        <v>9.7783700000000362E-2</v>
       </c>
       <c r="I18" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="J18" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="K18" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="L18" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
       <c r="M18" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A18)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A18)</f>
         <v>0</v>
       </c>
     </row>
@@ -6271,51 +7105,1062 @@
         <v>2030</v>
       </c>
       <c r="B19" s="11">
-        <f>TREND(Calculations!B$95:B$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="C19" s="11">
-        <f>TREND(Calculations!C$95:C$96,Calculations!$A$95:$A$96,$A19)</f>
-        <v>4.0998928571428644E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A19)</f>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D19" s="11">
-        <f>TREND(Calculations!D$95:D$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="E19" s="11">
-        <f>TREND(Calculations!E$95:E$96,Calculations!$A$95:$A$96,$A19)</f>
-        <v>1.5944027777777814E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A19)</f>
+        <v>1.5973999999999988E-2</v>
       </c>
       <c r="F19" s="11">
-        <f>TREND(Calculations!F$95:F$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="G19" s="11">
-        <f>TREND(Calculations!G$95:G$96,Calculations!$A$95:$A$96,$A19)</f>
-        <v>0.75164702380952519</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A19)</f>
+        <v>0.75306000000000139</v>
       </c>
       <c r="H19" s="11">
-        <f>TREND(Calculations!H$95:H$96,Calculations!$A$95:$A$96,$A19)</f>
-        <v>9.9080744047618463E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A19)</f>
+        <v>9.9267000000000216E-2</v>
       </c>
       <c r="I19" s="11">
-        <f>TREND(Calculations!I$95:I$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="J19" s="11">
-        <f>TREND(Calculations!J$95:J$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <f>TREND(Calculations!K$95:K$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="L19" s="11">
-        <f>TREND(Calculations!L$95:L$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A19)</f>
         <v>0</v>
       </c>
       <c r="M19" s="11">
-        <f>TREND(Calculations!M$95:M$96,Calculations!$A$95:$A$96,$A19)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>3.0578799999999851E-3</v>
+      </c>
+      <c r="D2" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>1.2094600000000011E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0.89454400000000334</v>
+      </c>
+      <c r="H2" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>5.0660399999999939E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>3.1263400000000052E-3</v>
+      </c>
+      <c r="D3" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>1.2322800000000023E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0.91508199999999817</v>
+      </c>
+      <c r="H3" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>5.1573199999999986E-2</v>
+      </c>
+      <c r="I3" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>3.1947999999999976E-3</v>
+      </c>
+      <c r="D4" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>1.2551000000000034E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0.93562000000000012</v>
+      </c>
+      <c r="H4" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>5.2486000000000033E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>3.2632599999999901E-3</v>
+      </c>
+      <c r="D5" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>1.2779200000000046E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0.95615800000000206</v>
+      </c>
+      <c r="H5" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>5.339880000000008E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>3.3317200000000102E-3</v>
+      </c>
+      <c r="D6" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>1.3007400000000058E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0.9766959999999969</v>
+      </c>
+      <c r="H6" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>5.4311600000000126E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>3.4001800000000026E-3</v>
+      </c>
+      <c r="D7" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>1.3235600000000014E-2</v>
+      </c>
+      <c r="F7" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0.99723399999999884</v>
+      </c>
+      <c r="H7" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>5.5224399999999951E-2</v>
+      </c>
+      <c r="I7" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="11">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>3.4686399999999951E-3</v>
+      </c>
+      <c r="D8" s="11">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>1.3463800000000026E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>1.0177720000000008</v>
+      </c>
+      <c r="H8" s="11">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>5.6137199999999998E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="14">
+        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="14">
+        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>3.5370999999999875E-3</v>
+      </c>
+      <c r="D9" s="14">
+        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="14">
+        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>1.3692000000000037E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>1.0383100000000027</v>
+      </c>
+      <c r="H9" s="14">
+        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>5.7050000000000045E-2</v>
+      </c>
+      <c r="I9" s="14">
+        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="14">
+        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="14">
+        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="14">
+        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="14">
+        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>3.5941500000000043E-3</v>
+      </c>
+      <c r="D10" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>1.3920199999999994E-2</v>
+      </c>
+      <c r="F10" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>1.0599890000000016</v>
+      </c>
+      <c r="H10" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>5.8191000000000326E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>3.6511999999999933E-3</v>
+      </c>
+      <c r="D11" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>1.4148400000000005E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>1.0816680000000005</v>
+      </c>
+      <c r="H11" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>5.933199999999994E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>3.7082499999999963E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>1.4376599999999962E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>1.1033469999999994</v>
+      </c>
+      <c r="H12" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>6.0472999999999999E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>3.7652999999999992E-3</v>
+      </c>
+      <c r="D13" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>1.4604799999999973E-2</v>
+      </c>
+      <c r="F13" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>1.1250259999999983</v>
+      </c>
+      <c r="H13" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>6.1614000000000058E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2025</v>
+      </c>
+      <c r="B14" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>3.8223500000000021E-3</v>
+      </c>
+      <c r="D14" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>1.4832999999999985E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>1.1467049999999972</v>
+      </c>
+      <c r="H14" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>6.2755000000000116E-2</v>
+      </c>
+      <c r="I14" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2026</v>
+      </c>
+      <c r="B15" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>3.8794000000000051E-3</v>
+      </c>
+      <c r="D15" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>1.5061199999999997E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>1.1683840000000032</v>
+      </c>
+      <c r="H15" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>6.3896000000000175E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2027</v>
+      </c>
+      <c r="B16" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>3.9364499999999941E-3</v>
+      </c>
+      <c r="D16" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>1.5289399999999953E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>1.1900630000000021</v>
+      </c>
+      <c r="H16" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>6.5037000000000234E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2028</v>
+      </c>
+      <c r="B17" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>3.9934999999999971E-3</v>
+      </c>
+      <c r="D17" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>1.5517599999999965E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>1.211742000000001</v>
+      </c>
+      <c r="H17" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>6.6178000000000292E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2029</v>
+      </c>
+      <c r="B18" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>4.05055E-3</v>
+      </c>
+      <c r="D18" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>1.5745799999999976E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>1.2334209999999999</v>
+      </c>
+      <c r="H18" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>6.7319000000000351E-2</v>
+      </c>
+      <c r="I18" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2030</v>
+      </c>
+      <c r="B19" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>4.1076000000000029E-3</v>
+      </c>
+      <c r="D19" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>1.5973999999999988E-2</v>
+      </c>
+      <c r="F19" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>1.2550999999999988</v>
+      </c>
+      <c r="H19" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>6.8459999999999965E-2</v>
+      </c>
+      <c r="I19" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A19)</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
+++ b/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
@@ -723,7 +723,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,47 +804,47 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>1.141</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>67</v>
       </c>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="13" width="14.42578125" customWidth="1"/>
+    <col min="2" max="13" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -1054,11 +1054,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.625" customWidth="1"/>
+    <col min="11" max="12" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1256,7 +1256,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>2020</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>2030</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>52</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>9</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>2015</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2020</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>2030</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1419,7 +1419,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>2015</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>2020</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>2030</v>
       </c>
@@ -1524,32 +1524,32 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>50</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
     </row>
-    <row r="41" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>2015</v>
       </c>
@@ -4130,7 +4130,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="11">
         <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A2)</f>
@@ -4187,7 +4187,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A2)</f>
-        <v>3.0578799999999851E-3</v>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A2)</f>
@@ -4195,7 +4195,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A2)</f>
-        <v>1.3235600000000014E-2</v>
+        <v>1.3692000000000037E-2</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A2)</f>
@@ -4203,11 +4203,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A2)</f>
-        <v>0.68688200000000066</v>
+        <v>0.71883000000000052</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A2)</f>
-        <v>7.3252200000000212E-2</v>
+        <v>7.6446999999999932E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A2)</f>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="11">
         <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A3)</f>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A3)</f>
-        <v>3.1263400000000052E-3</v>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A3)</f>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A3)</f>
-        <v>1.3463800000000026E-2</v>
+        <v>1.3920200000000049E-2</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A3)</f>
@@ -4256,11 +4256,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A3)</f>
-        <v>0.70285600000000059</v>
+        <v>0.73480400000000046</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A3)</f>
-        <v>7.484959999999985E-2</v>
+        <v>7.8044400000000014E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A3)</f>
@@ -4285,7 +4285,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="11">
         <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A4)</f>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A4)</f>
-        <v>3.1947999999999976E-3</v>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A4)</f>
@@ -4301,7 +4301,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A4)</f>
-        <v>1.3692000000000037E-2</v>
+        <v>1.4148400000000005E-2</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A4)</f>
@@ -4309,11 +4309,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A4)</f>
-        <v>0.71883000000000052</v>
+        <v>0.75077800000000039</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A4)</f>
-        <v>7.6446999999999932E-2</v>
+        <v>7.9641800000000096E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A4)</f>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="11">
         <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A5)</f>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A5)</f>
-        <v>3.2632599999999901E-3</v>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A5)</f>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A5)</f>
-        <v>1.3920200000000049E-2</v>
+        <v>1.4376600000000017E-2</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A5)</f>
@@ -4362,11 +4362,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A5)</f>
-        <v>0.73480400000000046</v>
+        <v>0.76675200000000032</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A5)</f>
-        <v>7.8044400000000014E-2</v>
+        <v>8.1239200000000178E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A5)</f>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="11">
         <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A6)</f>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A6)</f>
-        <v>3.3317200000000102E-3</v>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A6)</f>
@@ -4407,7 +4407,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A6)</f>
-        <v>1.4148400000000005E-2</v>
+        <v>1.4604800000000029E-2</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A6)</f>
@@ -4415,11 +4415,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A6)</f>
-        <v>0.75077800000000039</v>
+        <v>0.78272600000000025</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A6)</f>
-        <v>7.9641800000000096E-2</v>
+        <v>8.2836599999999816E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A6)</f>
@@ -4443,167 +4443,167 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="14">
         <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A7)</f>
-        <v>3.4001800000000026E-3</v>
-      </c>
-      <c r="D7" s="11">
+        <v>3.5370999999999875E-3</v>
+      </c>
+      <c r="D7" s="14">
         <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A7)</f>
-        <v>1.4376600000000017E-2</v>
-      </c>
-      <c r="F7" s="11">
+        <v>1.4833000000000041E-2</v>
+      </c>
+      <c r="F7" s="14">
         <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A7)</f>
-        <v>0.76675200000000032</v>
-      </c>
-      <c r="H7" s="11">
+        <v>0.79870000000000019</v>
+      </c>
+      <c r="H7" s="14">
         <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A7)</f>
-        <v>8.1239200000000178E-2</v>
-      </c>
-      <c r="I7" s="11">
+        <v>8.4433999999999898E-2</v>
+      </c>
+      <c r="I7" s="14">
         <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="14">
         <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="14">
         <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A8)</f>
-        <v>3.4686399999999951E-3</v>
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A8)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A8)</f>
-        <v>1.4604800000000029E-2</v>
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A8)</f>
+        <v>1.5061199999999997E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A8)</f>
-        <v>0.78272600000000025</v>
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A8)</f>
+        <v>0.81353300000000317</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A8)</f>
-        <v>8.2836599999999816E-2</v>
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A8)</f>
+        <v>8.5917300000000196E-2</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A8)</f>
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="14">
-        <f>TREND(Calculations!B$96:B$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <f>TREND(Calculations!C$96:C$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>3.5370999999999875E-3</v>
-      </c>
-      <c r="D9" s="14">
-        <f>TREND(Calculations!D$96:D$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <f>TREND(Calculations!E$96:E$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>1.4833000000000041E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <f>TREND(Calculations!F$96:F$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <f>TREND(Calculations!G$96:G$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0.79870000000000019</v>
-      </c>
-      <c r="H9" s="14">
-        <f>TREND(Calculations!H$96:H$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>8.4433999999999898E-2</v>
-      </c>
-      <c r="I9" s="14">
-        <f>TREND(Calculations!I$96:I$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f>TREND(Calculations!J$96:J$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <f>TREND(Calculations!K$96:K$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <f>TREND(Calculations!L$96:L$97,Calculations!$A$96:$A$97,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <f>TREND(Calculations!M$96:M$97,Calculations!$A$96:$A$97,$A9)</f>
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>3.6511999999999933E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>1.5289400000000009E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0.8283660000000026</v>
+      </c>
+      <c r="H9" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>8.740060000000005E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A10)</f>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A10)</f>
-        <v>3.5941500000000043E-3</v>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A10)</f>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A10)</f>
-        <v>1.5061199999999997E-2</v>
+        <v>1.5517599999999965E-2</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A10)</f>
@@ -4627,11 +4627,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A10)</f>
-        <v>0.81353300000000317</v>
+        <v>0.84319900000000203</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A10)</f>
-        <v>8.5917300000000196E-2</v>
+        <v>8.8883900000000349E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A10)</f>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A11)</f>
@@ -4664,7 +4664,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A11)</f>
-        <v>3.6511999999999933E-3</v>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A11)</f>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A11)</f>
-        <v>1.5289400000000009E-2</v>
+        <v>1.5745799999999976E-2</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A11)</f>
@@ -4680,11 +4680,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A11)</f>
-        <v>0.8283660000000026</v>
+        <v>0.85803200000000146</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A11)</f>
-        <v>8.740060000000005E-2</v>
+        <v>9.0367200000000203E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A11)</f>
@@ -4709,7 +4709,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B12" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A12)</f>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A12)</f>
-        <v>3.7082499999999963E-3</v>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A12)</f>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A12)</f>
-        <v>1.5517599999999965E-2</v>
+        <v>1.5973999999999988E-2</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A12)</f>
@@ -4733,11 +4733,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A12)</f>
-        <v>0.84319900000000203</v>
+        <v>0.87286500000000089</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A12)</f>
-        <v>8.8883900000000349E-2</v>
+        <v>9.1850500000000057E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A12)</f>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B13" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A13)</f>
@@ -4770,7 +4770,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A13)</f>
-        <v>3.7652999999999992E-3</v>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A13)</f>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A13)</f>
-        <v>1.5745799999999976E-2</v>
+        <v>1.62022E-2</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A13)</f>
@@ -4786,11 +4786,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A13)</f>
-        <v>0.85803200000000146</v>
+        <v>0.88769800000000032</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A13)</f>
-        <v>9.0367200000000203E-2</v>
+        <v>9.3333800000000355E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A13)</f>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="B14" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A14)</f>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A14)</f>
-        <v>3.8223500000000021E-3</v>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A14)</f>
@@ -4831,7 +4831,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A14)</f>
-        <v>1.5973999999999988E-2</v>
+        <v>1.6430400000000012E-2</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A14)</f>
@@ -4839,11 +4839,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A14)</f>
-        <v>0.87286500000000089</v>
+        <v>0.9025310000000033</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A14)</f>
-        <v>9.1850500000000057E-2</v>
+        <v>9.481710000000021E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A14)</f>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B15" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A15)</f>
@@ -4876,7 +4876,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A15)</f>
-        <v>3.8794000000000051E-3</v>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A15)</f>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A15)</f>
-        <v>1.62022E-2</v>
+        <v>1.6658599999999968E-2</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A15)</f>
@@ -4892,11 +4892,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A15)</f>
-        <v>0.88769800000000032</v>
+        <v>0.91736400000000273</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A15)</f>
-        <v>9.3333800000000355E-2</v>
+        <v>9.6300400000000064E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A15)</f>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="B16" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A16)</f>
@@ -4929,7 +4929,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A16)</f>
-        <v>3.9364499999999941E-3</v>
+        <v>4.05055E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A16)</f>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A16)</f>
-        <v>1.6430400000000012E-2</v>
+        <v>1.688679999999998E-2</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A16)</f>
@@ -4945,11 +4945,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A16)</f>
-        <v>0.9025310000000033</v>
+        <v>0.93219700000000216</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A16)</f>
-        <v>9.481710000000021E-2</v>
+        <v>9.7783700000000362E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A16)</f>
@@ -4974,7 +4974,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B17" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A17)</f>
@@ -4982,7 +4982,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A17)</f>
-        <v>3.9934999999999971E-3</v>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A17)</f>
@@ -4990,7 +4990,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A17)</f>
-        <v>1.6658599999999968E-2</v>
+        <v>1.7114999999999991E-2</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A17)</f>
@@ -4998,11 +4998,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A17)</f>
-        <v>0.91736400000000273</v>
+        <v>0.94703000000000159</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A17)</f>
-        <v>9.6300400000000064E-2</v>
+        <v>9.9267000000000216E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A17)</f>
@@ -5026,8 +5026,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2029</v>
+      <c r="A18" s="18">
+        <v>2031</v>
       </c>
       <c r="B18" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A18)</f>
@@ -5035,7 +5035,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A18)</f>
-        <v>4.05055E-3</v>
+        <v>4.1646500000000058E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A18)</f>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A18)</f>
-        <v>1.688679999999998E-2</v>
+        <v>1.7343200000000003E-2</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A18)</f>
@@ -5051,11 +5051,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A18)</f>
-        <v>0.93219700000000216</v>
+        <v>0.96186300000000102</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A18)</f>
-        <v>9.7783700000000362E-2</v>
+        <v>0.10075030000000007</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A18)</f>
@@ -5079,8 +5079,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2030</v>
+      <c r="A19" s="18">
+        <v>2032</v>
       </c>
       <c r="B19" s="11">
         <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A19)</f>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A19)</f>
-        <v>4.1076000000000029E-3</v>
+        <v>4.2216999999999949E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A19)</f>
@@ -5096,7 +5096,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A19)</f>
-        <v>1.7114999999999991E-2</v>
+        <v>1.7571399999999959E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A19)</f>
@@ -5104,11 +5104,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A19)</f>
-        <v>0.94703000000000159</v>
+        <v>0.97669600000000045</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A19)</f>
-        <v>9.9267000000000216E-2</v>
+        <v>0.10223360000000037</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A19)</f>
@@ -5128,6 +5128,960 @@
       </c>
       <c r="M19" s="11">
         <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>4.2787499999999978E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>1.7799599999999971E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0.99152900000000344</v>
+      </c>
+      <c r="H20" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0.10371690000000022</v>
+      </c>
+      <c r="I20" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>4.3358000000000008E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>1.8027799999999983E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>1.0063620000000029</v>
+      </c>
+      <c r="H21" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0.10520020000000008</v>
+      </c>
+      <c r="I21" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>4.3928500000000037E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>1.8255999999999994E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>1.0211950000000023</v>
+      </c>
+      <c r="H22" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0.10668350000000038</v>
+      </c>
+      <c r="I22" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>4.4499000000000066E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>1.8484200000000006E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>1.0360280000000017</v>
+      </c>
+      <c r="H23" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0.10816680000000023</v>
+      </c>
+      <c r="I23" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>4.5069499999999957E-3</v>
+      </c>
+      <c r="D24" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>1.8712399999999962E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>1.0508610000000012</v>
+      </c>
+      <c r="H24" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0.10965010000000008</v>
+      </c>
+      <c r="I24" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>4.5639999999999986E-3</v>
+      </c>
+      <c r="D25" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>1.8940599999999974E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>1.0656940000000006</v>
+      </c>
+      <c r="H25" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0.11113340000000038</v>
+      </c>
+      <c r="I25" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>4.6210500000000015E-3</v>
+      </c>
+      <c r="D26" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>1.9168799999999986E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>1.0805270000000036</v>
+      </c>
+      <c r="H26" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0.11261670000000024</v>
+      </c>
+      <c r="I26" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>4.6781000000000045E-3</v>
+      </c>
+      <c r="D27" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>1.9396999999999998E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>1.095360000000003</v>
+      </c>
+      <c r="H27" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0.11410000000000009</v>
+      </c>
+      <c r="I27" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>4.7351499999999935E-3</v>
+      </c>
+      <c r="D28" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>1.9625200000000009E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>1.1101930000000024</v>
+      </c>
+      <c r="H28" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0.11558330000000039</v>
+      </c>
+      <c r="I28" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>4.7921999999999965E-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>1.9853399999999966E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>1.1250260000000019</v>
+      </c>
+      <c r="H29" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0.11706660000000024</v>
+      </c>
+      <c r="I29" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>4.8492499999999994E-3</v>
+      </c>
+      <c r="D30" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>2.0081599999999977E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>1.1398590000000013</v>
+      </c>
+      <c r="H30" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0.1185499000000001</v>
+      </c>
+      <c r="I30" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>4.9063000000000023E-3</v>
+      </c>
+      <c r="D31" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>2.0309799999999989E-2</v>
+      </c>
+      <c r="F31" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>1.1546920000000007</v>
+      </c>
+      <c r="H31" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0.1200332000000004</v>
+      </c>
+      <c r="I31" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>4.9633500000000053E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="F32" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>1.1695250000000037</v>
+      </c>
+      <c r="H32" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0.12151650000000025</v>
+      </c>
+      <c r="I32" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>5.0203999999999943E-3</v>
+      </c>
+      <c r="D33" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>2.0766199999999957E-2</v>
+      </c>
+      <c r="F33" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>1.1843580000000031</v>
+      </c>
+      <c r="H33" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0.1229998000000001</v>
+      </c>
+      <c r="I33" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>5.0774499999999972E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>2.0994399999999969E-2</v>
+      </c>
+      <c r="F34" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>1.1991910000000026</v>
+      </c>
+      <c r="H34" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0.1244831000000004</v>
+      </c>
+      <c r="I34" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>5.1345000000000002E-3</v>
+      </c>
+      <c r="D35" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>2.122259999999998E-2</v>
+      </c>
+      <c r="F35" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>1.214024000000002</v>
+      </c>
+      <c r="H35" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0.12596640000000026</v>
+      </c>
+      <c r="I35" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>5.1915500000000031E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>2.1450799999999992E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>1.2288570000000014</v>
+      </c>
+      <c r="H36" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0.12744970000000011</v>
+      </c>
+      <c r="I36" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="11">
+        <f>TREND(Calculations!B$97:B$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f>TREND(Calculations!C$97:C$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>5.248600000000006E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <f>TREND(Calculations!D$97:D$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f>TREND(Calculations!E$97:E$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>2.1679000000000004E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f>TREND(Calculations!F$97:F$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f>TREND(Calculations!G$97:G$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>1.2436900000000009</v>
+      </c>
+      <c r="H37" s="11">
+        <f>TREND(Calculations!H$97:H$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0.12893300000000041</v>
+      </c>
+      <c r="I37" s="11">
+        <f>TREND(Calculations!I$97:I$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f>TREND(Calculations!J$97:J$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f>TREND(Calculations!K$97:K$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f>TREND(Calculations!L$97:L$98,Calculations!$A$97:$A$98,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f>TREND(Calculations!M$97:M$98,Calculations!$A$97:$A$98,$A37)</f>
         <v>0</v>
       </c>
     </row>
@@ -5141,7 +6095,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5190,7 +6144,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="11">
         <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A2)</f>
@@ -5198,7 +6152,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A2)</f>
-        <v>3.0578799999999851E-3</v>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A2)</f>
@@ -5206,7 +6160,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A2)</f>
-        <v>1.8484199999999951E-2</v>
+        <v>1.9396999999999998E-2</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A2)</f>
@@ -5214,11 +6168,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A2)</f>
-        <v>0.57049999999999912</v>
+        <v>0.59332000000000207</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A2)</f>
-        <v>0.10451560000000004</v>
+        <v>0.10725399999999974</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A2)</f>
@@ -5243,7 +6197,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="11">
         <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A3)</f>
@@ -5251,7 +6205,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A3)</f>
-        <v>3.1263400000000052E-3</v>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A3)</f>
@@ -5259,7 +6213,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A3)</f>
-        <v>1.8940599999999974E-2</v>
+        <v>1.9853400000000021E-2</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A3)</f>
@@ -5267,11 +6221,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A3)</f>
-        <v>0.58191000000000059</v>
+        <v>0.60472999999999999</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A3)</f>
-        <v>0.10588480000000011</v>
+        <v>0.10862319999999981</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A3)</f>
@@ -5296,7 +6250,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="11">
         <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A4)</f>
@@ -5304,7 +6258,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A4)</f>
-        <v>3.1947999999999976E-3</v>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A4)</f>
@@ -5312,7 +6266,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A4)</f>
-        <v>1.9396999999999998E-2</v>
+        <v>2.0309800000000044E-2</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A4)</f>
@@ -5320,11 +6274,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A4)</f>
-        <v>0.59332000000000207</v>
+        <v>0.61614000000000146</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A4)</f>
-        <v>0.10725399999999974</v>
+        <v>0.10999239999999988</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A4)</f>
@@ -5349,7 +6303,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="11">
         <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A5)</f>
@@ -5357,7 +6311,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A5)</f>
-        <v>3.2632599999999901E-3</v>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A5)</f>
@@ -5365,7 +6319,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A5)</f>
-        <v>1.9853400000000021E-2</v>
+        <v>2.0766199999999957E-2</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A5)</f>
@@ -5373,11 +6327,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A5)</f>
-        <v>0.60472999999999999</v>
+        <v>0.62754999999999939</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A5)</f>
-        <v>0.10862319999999981</v>
+        <v>0.11136159999999995</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A5)</f>
@@ -5402,7 +6356,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="11">
         <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A6)</f>
@@ -5410,7 +6364,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A6)</f>
-        <v>3.3317200000000102E-3</v>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A6)</f>
@@ -5418,7 +6372,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A6)</f>
-        <v>2.0309800000000044E-2</v>
+        <v>2.122259999999998E-2</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A6)</f>
@@ -5426,11 +6380,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A6)</f>
-        <v>0.61614000000000146</v>
+        <v>0.63896000000000086</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A6)</f>
-        <v>0.10999239999999988</v>
+        <v>0.11273080000000002</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A6)</f>
@@ -5454,167 +6408,167 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="14">
         <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A7)</f>
-        <v>3.4001800000000026E-3</v>
-      </c>
-      <c r="D7" s="11">
+        <v>3.5370999999999875E-3</v>
+      </c>
+      <c r="D7" s="14">
         <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A7)</f>
-        <v>2.0766199999999957E-2</v>
-      </c>
-      <c r="F7" s="11">
+        <v>2.1679000000000004E-2</v>
+      </c>
+      <c r="F7" s="14">
         <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A7)</f>
-        <v>0.62754999999999939</v>
-      </c>
-      <c r="H7" s="11">
+        <v>0.65037000000000234</v>
+      </c>
+      <c r="H7" s="14">
         <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A7)</f>
-        <v>0.11136159999999995</v>
-      </c>
-      <c r="I7" s="11">
+        <v>0.11410000000000009</v>
+      </c>
+      <c r="I7" s="14">
         <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="14">
         <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="14">
         <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A8)</f>
-        <v>3.4686399999999951E-3</v>
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A8)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A8)</f>
-        <v>2.122259999999998E-2</v>
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A8)</f>
+        <v>2.202129999999991E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A8)</f>
-        <v>0.63896000000000086</v>
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A8)</f>
+        <v>0.66063899999999975</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A8)</f>
-        <v>0.11273080000000002</v>
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A8)</f>
+        <v>0.11638200000000065</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A8)</f>
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="14">
-        <f>TREND(Calculations!B$102:B$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <f>TREND(Calculations!C$102:C$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>3.5370999999999875E-3</v>
-      </c>
-      <c r="D9" s="14">
-        <f>TREND(Calculations!D$102:D$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <f>TREND(Calculations!E$102:E$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>2.1679000000000004E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <f>TREND(Calculations!F$102:F$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <f>TREND(Calculations!G$102:G$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0.65037000000000234</v>
-      </c>
-      <c r="H9" s="14">
-        <f>TREND(Calculations!H$102:H$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0.11410000000000009</v>
-      </c>
-      <c r="I9" s="14">
-        <f>TREND(Calculations!I$102:I$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f>TREND(Calculations!J$102:J$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <f>TREND(Calculations!K$102:K$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <f>TREND(Calculations!L$102:L$103,Calculations!$A$102:$A$103,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <f>TREND(Calculations!M$102:M$103,Calculations!$A$102:$A$103,$A9)</f>
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>3.6511999999999933E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>2.2363599999999928E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0.67090800000000073</v>
+      </c>
+      <c r="H9" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0.11866399999999988</v>
+      </c>
+      <c r="I9" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A10)</f>
@@ -5622,7 +6576,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A10)</f>
-        <v>3.5941500000000043E-3</v>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A10)</f>
@@ -5630,7 +6584,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A10)</f>
-        <v>2.202129999999991E-2</v>
+        <v>2.2705899999999946E-2</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A10)</f>
@@ -5638,11 +6592,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A10)</f>
-        <v>0.66063899999999975</v>
+        <v>0.6811770000000017</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A10)</f>
-        <v>0.11638200000000065</v>
+        <v>0.120946</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A10)</f>
@@ -5667,7 +6621,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A11)</f>
@@ -5675,7 +6629,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A11)</f>
-        <v>3.6511999999999933E-3</v>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A11)</f>
@@ -5683,7 +6637,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A11)</f>
-        <v>2.2363599999999928E-2</v>
+        <v>2.3048199999999963E-2</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A11)</f>
@@ -5691,11 +6645,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A11)</f>
-        <v>0.67090800000000073</v>
+        <v>0.69144600000000267</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A11)</f>
-        <v>0.11866399999999988</v>
+        <v>0.12322800000000012</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A11)</f>
@@ -5720,7 +6674,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B12" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A12)</f>
@@ -5728,7 +6682,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A12)</f>
-        <v>3.7082499999999963E-3</v>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A12)</f>
@@ -5736,7 +6690,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A12)</f>
-        <v>2.2705899999999946E-2</v>
+        <v>2.3390499999999981E-2</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A12)</f>
@@ -5744,11 +6698,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A12)</f>
-        <v>0.6811770000000017</v>
+        <v>0.70171500000000009</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A12)</f>
-        <v>0.120946</v>
+        <v>0.12551000000000023</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A12)</f>
@@ -5773,7 +6727,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B13" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A13)</f>
@@ -5781,7 +6735,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A13)</f>
-        <v>3.7652999999999992E-3</v>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A13)</f>
@@ -5789,7 +6743,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A13)</f>
-        <v>2.3048199999999963E-2</v>
+        <v>2.3732799999999998E-2</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A13)</f>
@@ -5797,11 +6751,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A13)</f>
-        <v>0.69144600000000267</v>
+        <v>0.71198400000000106</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A13)</f>
-        <v>0.12322800000000012</v>
+        <v>0.12779200000000035</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A13)</f>
@@ -5826,7 +6780,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="B14" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A14)</f>
@@ -5834,7 +6788,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A14)</f>
-        <v>3.8223500000000021E-3</v>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A14)</f>
@@ -5842,7 +6796,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A14)</f>
-        <v>2.3390499999999981E-2</v>
+        <v>2.4075099999999905E-2</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A14)</f>
@@ -5850,11 +6804,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A14)</f>
-        <v>0.70171500000000009</v>
+        <v>0.72225300000000203</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A14)</f>
-        <v>0.12551000000000023</v>
+        <v>0.13007400000000047</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A14)</f>
@@ -5879,7 +6833,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B15" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A15)</f>
@@ -5887,7 +6841,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A15)</f>
-        <v>3.8794000000000051E-3</v>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A15)</f>
@@ -5895,7 +6849,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A15)</f>
-        <v>2.3732799999999998E-2</v>
+        <v>2.4417399999999922E-2</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A15)</f>
@@ -5903,11 +6857,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A15)</f>
-        <v>0.71198400000000106</v>
+        <v>0.73252199999999945</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A15)</f>
-        <v>0.12779200000000035</v>
+        <v>0.13235600000000058</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A15)</f>
@@ -5932,7 +6886,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="B16" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A16)</f>
@@ -5940,7 +6894,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A16)</f>
-        <v>3.9364499999999941E-3</v>
+        <v>4.05055E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A16)</f>
@@ -5948,7 +6902,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A16)</f>
-        <v>2.4075099999999905E-2</v>
+        <v>2.475969999999994E-2</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A16)</f>
@@ -5956,11 +6910,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A16)</f>
-        <v>0.72225300000000203</v>
+        <v>0.74279100000000042</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A16)</f>
-        <v>0.13007400000000047</v>
+        <v>0.1346380000000007</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A16)</f>
@@ -5985,7 +6939,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B17" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A17)</f>
@@ -5993,7 +6947,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A17)</f>
-        <v>3.9934999999999971E-3</v>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A17)</f>
@@ -6001,7 +6955,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A17)</f>
-        <v>2.4417399999999922E-2</v>
+        <v>2.5101999999999958E-2</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A17)</f>
@@ -6009,11 +6963,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A17)</f>
-        <v>0.73252199999999945</v>
+        <v>0.75306000000000139</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A17)</f>
-        <v>0.13235600000000058</v>
+        <v>0.13691999999999993</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A17)</f>
@@ -6037,8 +6991,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2029</v>
+      <c r="A18" s="18">
+        <v>2031</v>
       </c>
       <c r="B18" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A18)</f>
@@ -6046,7 +7000,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A18)</f>
-        <v>4.05055E-3</v>
+        <v>4.1646500000000058E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A18)</f>
@@ -6054,7 +7008,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A18)</f>
-        <v>2.475969999999994E-2</v>
+        <v>2.5444299999999975E-2</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A18)</f>
@@ -6062,11 +7016,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A18)</f>
-        <v>0.74279100000000042</v>
+        <v>0.76332900000000237</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A18)</f>
-        <v>0.1346380000000007</v>
+        <v>0.13920200000000005</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A18)</f>
@@ -6090,8 +7044,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2030</v>
+      <c r="A19" s="18">
+        <v>2032</v>
       </c>
       <c r="B19" s="11">
         <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A19)</f>
@@ -6099,7 +7053,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A19)</f>
-        <v>4.1076000000000029E-3</v>
+        <v>4.2216999999999949E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A19)</f>
@@ -6107,7 +7061,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A19)</f>
-        <v>2.5101999999999958E-2</v>
+        <v>2.5786599999999993E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A19)</f>
@@ -6115,11 +7069,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A19)</f>
-        <v>0.75306000000000139</v>
+        <v>0.77359799999999979</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A19)</f>
-        <v>0.13691999999999993</v>
+        <v>0.14148400000000017</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A19)</f>
@@ -6139,6 +7093,960 @@
       </c>
       <c r="M19" s="11">
         <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>4.2787499999999978E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>2.6128899999999899E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0.78386700000000076</v>
+      </c>
+      <c r="H20" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0.14376600000000028</v>
+      </c>
+      <c r="I20" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>4.3358000000000008E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>2.6471199999999917E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0.79413600000000173</v>
+      </c>
+      <c r="H21" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0.1460480000000004</v>
+      </c>
+      <c r="I21" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>4.3928500000000037E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>2.6813499999999935E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0.8044050000000027</v>
+      </c>
+      <c r="H22" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0.14833000000000052</v>
+      </c>
+      <c r="I22" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>4.4499000000000066E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>2.7155799999999952E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0.81467400000000012</v>
+      </c>
+      <c r="H23" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0.15061200000000063</v>
+      </c>
+      <c r="I23" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>4.5069499999999957E-3</v>
+      </c>
+      <c r="D24" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>2.749809999999997E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0.82494300000000109</v>
+      </c>
+      <c r="H24" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0.15289399999999986</v>
+      </c>
+      <c r="I24" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>4.5639999999999986E-3</v>
+      </c>
+      <c r="D25" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>2.7840399999999987E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0.83521200000000206</v>
+      </c>
+      <c r="H25" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0.15517599999999998</v>
+      </c>
+      <c r="I25" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>4.6210500000000015E-3</v>
+      </c>
+      <c r="D26" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>2.8182699999999894E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0.84548099999999948</v>
+      </c>
+      <c r="H26" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0.1574580000000001</v>
+      </c>
+      <c r="I26" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>4.6781000000000045E-3</v>
+      </c>
+      <c r="D27" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>2.8524999999999912E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0.85575000000000045</v>
+      </c>
+      <c r="H27" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0.15974000000000022</v>
+      </c>
+      <c r="I27" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>4.7351499999999935E-3</v>
+      </c>
+      <c r="D28" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>2.8867299999999929E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0.86601900000000143</v>
+      </c>
+      <c r="H28" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0.16202200000000033</v>
+      </c>
+      <c r="I28" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>4.7921999999999965E-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>2.9209599999999947E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0.8762880000000024</v>
+      </c>
+      <c r="H29" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0.16430400000000045</v>
+      </c>
+      <c r="I29" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>4.8492499999999994E-3</v>
+      </c>
+      <c r="D30" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>2.9551899999999964E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0.88655699999999982</v>
+      </c>
+      <c r="H30" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0.16658600000000057</v>
+      </c>
+      <c r="I30" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>4.9063000000000023E-3</v>
+      </c>
+      <c r="D31" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>2.9894199999999982E-2</v>
+      </c>
+      <c r="F31" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0.89682600000000079</v>
+      </c>
+      <c r="H31" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0.16886800000000068</v>
+      </c>
+      <c r="I31" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>4.9633500000000053E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>3.0236499999999888E-2</v>
+      </c>
+      <c r="F32" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0.90709500000000176</v>
+      </c>
+      <c r="H32" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0.17114999999999991</v>
+      </c>
+      <c r="I32" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>5.0203999999999943E-3</v>
+      </c>
+      <c r="D33" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>3.0578799999999906E-2</v>
+      </c>
+      <c r="F33" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0.91736400000000273</v>
+      </c>
+      <c r="H33" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0.17343200000000003</v>
+      </c>
+      <c r="I33" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>5.0774499999999972E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>3.0921099999999924E-2</v>
+      </c>
+      <c r="F34" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0.92763300000000015</v>
+      </c>
+      <c r="H34" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0.17571400000000015</v>
+      </c>
+      <c r="I34" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>5.1345000000000002E-3</v>
+      </c>
+      <c r="D35" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>3.1263399999999941E-2</v>
+      </c>
+      <c r="F35" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0.93790200000000112</v>
+      </c>
+      <c r="H35" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0.17799600000000027</v>
+      </c>
+      <c r="I35" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>5.1915500000000031E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>3.1605699999999959E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0.9481710000000021</v>
+      </c>
+      <c r="H36" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0.18027800000000038</v>
+      </c>
+      <c r="I36" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="11">
+        <f>TREND(Calculations!B$103:B$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f>TREND(Calculations!C$103:C$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>5.248600000000006E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <f>TREND(Calculations!D$103:D$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f>TREND(Calculations!E$103:E$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>3.1947999999999976E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f>TREND(Calculations!F$103:F$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f>TREND(Calculations!G$103:G$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0.95843999999999951</v>
+      </c>
+      <c r="H37" s="11">
+        <f>TREND(Calculations!H$103:H$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0.1825600000000005</v>
+      </c>
+      <c r="I37" s="11">
+        <f>TREND(Calculations!I$103:I$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f>TREND(Calculations!J$103:J$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f>TREND(Calculations!K$103:K$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f>TREND(Calculations!L$103:L$104,Calculations!$A$103:$A$104,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f>TREND(Calculations!M$103:M$104,Calculations!$A$103:$A$104,$A37)</f>
         <v>0</v>
       </c>
     </row>
@@ -6152,7 +8060,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6201,7 +8109,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="11">
         <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A2)</f>
@@ -6209,7 +8117,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A2)</f>
-        <v>3.0578799999999851E-3</v>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A2)</f>
@@ -6217,7 +8125,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A2)</f>
-        <v>1.2094600000000011E-2</v>
+        <v>1.2551000000000034E-2</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A2)</f>
@@ -6225,11 +8133,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A2)</f>
-        <v>0.57049999999999912</v>
+        <v>0.59332000000000207</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A2)</f>
-        <v>7.3252200000000212E-2</v>
+        <v>7.6446999999999932E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A2)</f>
@@ -6254,7 +8162,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="11">
         <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A3)</f>
@@ -6262,7 +8170,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A3)</f>
-        <v>3.1263400000000052E-3</v>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A3)</f>
@@ -6270,7 +8178,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A3)</f>
-        <v>1.2322800000000023E-2</v>
+        <v>1.2779200000000046E-2</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A3)</f>
@@ -6278,11 +8186,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A3)</f>
-        <v>0.58191000000000059</v>
+        <v>0.60472999999999999</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A3)</f>
-        <v>7.484959999999985E-2</v>
+        <v>7.8044400000000014E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A3)</f>
@@ -6307,7 +8215,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="11">
         <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A4)</f>
@@ -6315,7 +8223,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A4)</f>
-        <v>3.1947999999999976E-3</v>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A4)</f>
@@ -6323,7 +8231,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A4)</f>
-        <v>1.2551000000000034E-2</v>
+        <v>1.3007400000000058E-2</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A4)</f>
@@ -6331,11 +8239,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A4)</f>
-        <v>0.59332000000000207</v>
+        <v>0.61614000000000146</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A4)</f>
-        <v>7.6446999999999932E-2</v>
+        <v>7.9641800000000096E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A4)</f>
@@ -6360,7 +8268,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="11">
         <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A5)</f>
@@ -6368,7 +8276,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A5)</f>
-        <v>3.2632599999999901E-3</v>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A5)</f>
@@ -6376,7 +8284,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A5)</f>
-        <v>1.2779200000000046E-2</v>
+        <v>1.3235600000000014E-2</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A5)</f>
@@ -6384,11 +8292,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A5)</f>
-        <v>0.60472999999999999</v>
+        <v>0.62754999999999939</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A5)</f>
-        <v>7.8044400000000014E-2</v>
+        <v>8.1239200000000178E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A5)</f>
@@ -6413,7 +8321,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="11">
         <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A6)</f>
@@ -6421,7 +8329,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A6)</f>
-        <v>3.3317200000000102E-3</v>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A6)</f>
@@ -6429,7 +8337,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A6)</f>
-        <v>1.3007400000000058E-2</v>
+        <v>1.3463800000000026E-2</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A6)</f>
@@ -6437,11 +8345,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A6)</f>
-        <v>0.61614000000000146</v>
+        <v>0.63896000000000086</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A6)</f>
-        <v>7.9641800000000096E-2</v>
+        <v>8.2836599999999816E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A6)</f>
@@ -6465,167 +8373,167 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="14">
         <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A7)</f>
-        <v>3.4001800000000026E-3</v>
-      </c>
-      <c r="D7" s="11">
+        <v>3.5370999999999875E-3</v>
+      </c>
+      <c r="D7" s="14">
         <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A7)</f>
-        <v>1.3235600000000014E-2</v>
-      </c>
-      <c r="F7" s="11">
+        <v>1.3692000000000037E-2</v>
+      </c>
+      <c r="F7" s="14">
         <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A7)</f>
-        <v>0.62754999999999939</v>
-      </c>
-      <c r="H7" s="11">
+        <v>0.65037000000000234</v>
+      </c>
+      <c r="H7" s="14">
         <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A7)</f>
-        <v>8.1239200000000178E-2</v>
-      </c>
-      <c r="I7" s="11">
+        <v>8.4433999999999898E-2</v>
+      </c>
+      <c r="I7" s="14">
         <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="14">
         <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="14">
         <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A8)</f>
-        <v>3.4686399999999951E-3</v>
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A8)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A8)</f>
-        <v>1.3463800000000026E-2</v>
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A8)</f>
+        <v>1.3920199999999994E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A8)</f>
-        <v>0.63896000000000086</v>
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A8)</f>
+        <v>0.66063899999999975</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A8)</f>
-        <v>8.2836599999999816E-2</v>
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A8)</f>
+        <v>8.5917300000000196E-2</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A8)</f>
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="14">
-        <f>TREND(Calculations!B$108:B$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <f>TREND(Calculations!C$108:C$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>3.5370999999999875E-3</v>
-      </c>
-      <c r="D9" s="14">
-        <f>TREND(Calculations!D$108:D$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <f>TREND(Calculations!E$108:E$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>1.3692000000000037E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <f>TREND(Calculations!F$108:F$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <f>TREND(Calculations!G$108:G$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0.65037000000000234</v>
-      </c>
-      <c r="H9" s="14">
-        <f>TREND(Calculations!H$108:H$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>8.4433999999999898E-2</v>
-      </c>
-      <c r="I9" s="14">
-        <f>TREND(Calculations!I$108:I$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f>TREND(Calculations!J$108:J$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <f>TREND(Calculations!K$108:K$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <f>TREND(Calculations!L$108:L$109,Calculations!$A$108:$A$109,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <f>TREND(Calculations!M$108:M$109,Calculations!$A$108:$A$109,$A9)</f>
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>3.6511999999999933E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>1.4148400000000005E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0.67090800000000073</v>
+      </c>
+      <c r="H9" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>8.740060000000005E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A10)</f>
@@ -6633,7 +8541,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A10)</f>
-        <v>3.5941500000000043E-3</v>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A10)</f>
@@ -6641,7 +8549,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A10)</f>
-        <v>1.3920199999999994E-2</v>
+        <v>1.4376599999999962E-2</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A10)</f>
@@ -6649,11 +8557,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A10)</f>
-        <v>0.66063899999999975</v>
+        <v>0.6811770000000017</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A10)</f>
-        <v>8.5917300000000196E-2</v>
+        <v>8.8883900000000349E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A10)</f>
@@ -6678,7 +8586,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A11)</f>
@@ -6686,7 +8594,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A11)</f>
-        <v>3.6511999999999933E-3</v>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A11)</f>
@@ -6694,7 +8602,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A11)</f>
-        <v>1.4148400000000005E-2</v>
+        <v>1.4604799999999973E-2</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A11)</f>
@@ -6702,11 +8610,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A11)</f>
-        <v>0.67090800000000073</v>
+        <v>0.69144600000000267</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A11)</f>
-        <v>8.740060000000005E-2</v>
+        <v>9.0367200000000203E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A11)</f>
@@ -6731,7 +8639,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B12" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A12)</f>
@@ -6739,7 +8647,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A12)</f>
-        <v>3.7082499999999963E-3</v>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A12)</f>
@@ -6747,7 +8655,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A12)</f>
-        <v>1.4376599999999962E-2</v>
+        <v>1.4832999999999985E-2</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A12)</f>
@@ -6755,11 +8663,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A12)</f>
-        <v>0.6811770000000017</v>
+        <v>0.70171500000000009</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A12)</f>
-        <v>8.8883900000000349E-2</v>
+        <v>9.1850500000000057E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A12)</f>
@@ -6784,7 +8692,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B13" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A13)</f>
@@ -6792,7 +8700,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A13)</f>
-        <v>3.7652999999999992E-3</v>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A13)</f>
@@ -6800,7 +8708,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A13)</f>
-        <v>1.4604799999999973E-2</v>
+        <v>1.5061199999999997E-2</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A13)</f>
@@ -6808,11 +8716,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A13)</f>
-        <v>0.69144600000000267</v>
+        <v>0.71198400000000106</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A13)</f>
-        <v>9.0367200000000203E-2</v>
+        <v>9.3333800000000355E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A13)</f>
@@ -6837,7 +8745,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="B14" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A14)</f>
@@ -6845,7 +8753,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A14)</f>
-        <v>3.8223500000000021E-3</v>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A14)</f>
@@ -6853,7 +8761,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A14)</f>
-        <v>1.4832999999999985E-2</v>
+        <v>1.5289399999999953E-2</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A14)</f>
@@ -6861,11 +8769,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A14)</f>
-        <v>0.70171500000000009</v>
+        <v>0.72225300000000203</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A14)</f>
-        <v>9.1850500000000057E-2</v>
+        <v>9.481710000000021E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A14)</f>
@@ -6890,7 +8798,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B15" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A15)</f>
@@ -6898,7 +8806,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A15)</f>
-        <v>3.8794000000000051E-3</v>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A15)</f>
@@ -6906,7 +8814,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A15)</f>
-        <v>1.5061199999999997E-2</v>
+        <v>1.5517599999999965E-2</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A15)</f>
@@ -6914,11 +8822,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A15)</f>
-        <v>0.71198400000000106</v>
+        <v>0.73252199999999945</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A15)</f>
-        <v>9.3333800000000355E-2</v>
+        <v>9.6300400000000064E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A15)</f>
@@ -6943,7 +8851,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="B16" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A16)</f>
@@ -6951,7 +8859,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A16)</f>
-        <v>3.9364499999999941E-3</v>
+        <v>4.05055E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A16)</f>
@@ -6959,7 +8867,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A16)</f>
-        <v>1.5289399999999953E-2</v>
+        <v>1.5745799999999976E-2</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A16)</f>
@@ -6967,11 +8875,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A16)</f>
-        <v>0.72225300000000203</v>
+        <v>0.74279100000000042</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A16)</f>
-        <v>9.481710000000021E-2</v>
+        <v>9.7783700000000362E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A16)</f>
@@ -6996,7 +8904,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B17" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A17)</f>
@@ -7004,7 +8912,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A17)</f>
-        <v>3.9934999999999971E-3</v>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A17)</f>
@@ -7012,7 +8920,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A17)</f>
-        <v>1.5517599999999965E-2</v>
+        <v>1.5973999999999988E-2</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A17)</f>
@@ -7020,11 +8928,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A17)</f>
-        <v>0.73252199999999945</v>
+        <v>0.75306000000000139</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A17)</f>
-        <v>9.6300400000000064E-2</v>
+        <v>9.9267000000000216E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A17)</f>
@@ -7048,8 +8956,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2029</v>
+      <c r="A18" s="18">
+        <v>2031</v>
       </c>
       <c r="B18" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A18)</f>
@@ -7057,7 +8965,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A18)</f>
-        <v>4.05055E-3</v>
+        <v>4.1646500000000058E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A18)</f>
@@ -7065,7 +8973,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A18)</f>
-        <v>1.5745799999999976E-2</v>
+        <v>1.62022E-2</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A18)</f>
@@ -7073,11 +8981,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A18)</f>
-        <v>0.74279100000000042</v>
+        <v>0.76332900000000237</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A18)</f>
-        <v>9.7783700000000362E-2</v>
+        <v>0.10075030000000007</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A18)</f>
@@ -7101,8 +9009,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2030</v>
+      <c r="A19" s="18">
+        <v>2032</v>
       </c>
       <c r="B19" s="11">
         <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A19)</f>
@@ -7110,7 +9018,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A19)</f>
-        <v>4.1076000000000029E-3</v>
+        <v>4.2216999999999949E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A19)</f>
@@ -7118,7 +9026,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A19)</f>
-        <v>1.5973999999999988E-2</v>
+        <v>1.6430399999999956E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A19)</f>
@@ -7126,11 +9034,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A19)</f>
-        <v>0.75306000000000139</v>
+        <v>0.77359799999999979</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A19)</f>
-        <v>9.9267000000000216E-2</v>
+        <v>0.10223360000000037</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A19)</f>
@@ -7150,6 +9058,960 @@
       </c>
       <c r="M19" s="11">
         <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>4.2787499999999978E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>1.6658599999999968E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0.78386700000000076</v>
+      </c>
+      <c r="H20" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0.10371690000000022</v>
+      </c>
+      <c r="I20" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>4.3358000000000008E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>1.688679999999998E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0.79413600000000173</v>
+      </c>
+      <c r="H21" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0.10520020000000008</v>
+      </c>
+      <c r="I21" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>4.3928500000000037E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>1.7114999999999991E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0.8044050000000027</v>
+      </c>
+      <c r="H22" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0.10668350000000038</v>
+      </c>
+      <c r="I22" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>4.4499000000000066E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>1.7343200000000003E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0.81467400000000012</v>
+      </c>
+      <c r="H23" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0.10816680000000023</v>
+      </c>
+      <c r="I23" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>4.5069499999999957E-3</v>
+      </c>
+      <c r="D24" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>1.7571399999999959E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0.82494300000000109</v>
+      </c>
+      <c r="H24" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0.10965010000000008</v>
+      </c>
+      <c r="I24" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>4.5639999999999986E-3</v>
+      </c>
+      <c r="D25" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>1.7799599999999971E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0.83521200000000206</v>
+      </c>
+      <c r="H25" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0.11113340000000038</v>
+      </c>
+      <c r="I25" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>4.6210500000000015E-3</v>
+      </c>
+      <c r="D26" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>1.8027799999999983E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0.84548099999999948</v>
+      </c>
+      <c r="H26" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0.11261670000000024</v>
+      </c>
+      <c r="I26" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>4.6781000000000045E-3</v>
+      </c>
+      <c r="D27" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>1.8255999999999994E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0.85575000000000045</v>
+      </c>
+      <c r="H27" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0.11410000000000009</v>
+      </c>
+      <c r="I27" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>4.7351499999999935E-3</v>
+      </c>
+      <c r="D28" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>1.8484199999999951E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0.86601900000000143</v>
+      </c>
+      <c r="H28" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0.11558330000000039</v>
+      </c>
+      <c r="I28" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>4.7921999999999965E-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>1.8712399999999962E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0.8762880000000024</v>
+      </c>
+      <c r="H29" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0.11706660000000024</v>
+      </c>
+      <c r="I29" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>4.8492499999999994E-3</v>
+      </c>
+      <c r="D30" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>1.8940599999999974E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0.88655699999999982</v>
+      </c>
+      <c r="H30" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0.1185499000000001</v>
+      </c>
+      <c r="I30" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>4.9063000000000023E-3</v>
+      </c>
+      <c r="D31" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>1.9168799999999986E-2</v>
+      </c>
+      <c r="F31" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0.89682600000000079</v>
+      </c>
+      <c r="H31" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0.1200332000000004</v>
+      </c>
+      <c r="I31" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>4.9633500000000053E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>1.9396999999999998E-2</v>
+      </c>
+      <c r="F32" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0.90709500000000176</v>
+      </c>
+      <c r="H32" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0.12151650000000025</v>
+      </c>
+      <c r="I32" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>5.0203999999999943E-3</v>
+      </c>
+      <c r="D33" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>1.9625199999999954E-2</v>
+      </c>
+      <c r="F33" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0.91736400000000273</v>
+      </c>
+      <c r="H33" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0.1229998000000001</v>
+      </c>
+      <c r="I33" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>5.0774499999999972E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>1.9853399999999966E-2</v>
+      </c>
+      <c r="F34" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0.92763300000000015</v>
+      </c>
+      <c r="H34" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0.1244831000000004</v>
+      </c>
+      <c r="I34" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>5.1345000000000002E-3</v>
+      </c>
+      <c r="D35" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>2.0081599999999977E-2</v>
+      </c>
+      <c r="F35" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0.93790200000000112</v>
+      </c>
+      <c r="H35" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0.12596640000000026</v>
+      </c>
+      <c r="I35" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>5.1915500000000031E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>2.0309799999999989E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0.9481710000000021</v>
+      </c>
+      <c r="H36" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0.12744970000000011</v>
+      </c>
+      <c r="I36" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="11">
+        <f>TREND(Calculations!B$109:B$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f>TREND(Calculations!C$109:C$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>5.248600000000006E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <f>TREND(Calculations!D$109:D$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f>TREND(Calculations!E$109:E$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f>TREND(Calculations!F$109:F$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f>TREND(Calculations!G$109:G$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0.95843999999999951</v>
+      </c>
+      <c r="H37" s="11">
+        <f>TREND(Calculations!H$109:H$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0.12893300000000041</v>
+      </c>
+      <c r="I37" s="11">
+        <f>TREND(Calculations!I$109:I$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f>TREND(Calculations!J$109:J$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f>TREND(Calculations!K$109:K$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f>TREND(Calculations!L$109:L$110,Calculations!$A$109:$A$110,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f>TREND(Calculations!M$109:M$110,Calculations!$A$109:$A$110,$A37)</f>
         <v>0</v>
       </c>
     </row>
@@ -7163,7 +10025,7 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7212,7 +10074,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B2" s="11">
         <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A2)</f>
@@ -7220,7 +10082,7 @@
       </c>
       <c r="C2" s="11">
         <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A2)</f>
-        <v>3.0578799999999851E-3</v>
+        <v>3.1947999999999976E-3</v>
       </c>
       <c r="D2" s="11">
         <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A2)</f>
@@ -7228,7 +10090,7 @@
       </c>
       <c r="E2" s="11">
         <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A2)</f>
-        <v>1.2094600000000011E-2</v>
+        <v>1.2551000000000034E-2</v>
       </c>
       <c r="F2" s="11">
         <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A2)</f>
@@ -7236,11 +10098,11 @@
       </c>
       <c r="G2" s="11">
         <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A2)</f>
-        <v>0.89454400000000334</v>
+        <v>0.93562000000000012</v>
       </c>
       <c r="H2" s="11">
         <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A2)</f>
-        <v>5.0660399999999939E-2</v>
+        <v>5.2486000000000033E-2</v>
       </c>
       <c r="I2" s="11">
         <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A2)</f>
@@ -7265,7 +10127,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B3" s="11">
         <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A3)</f>
@@ -7273,7 +10135,7 @@
       </c>
       <c r="C3" s="11">
         <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A3)</f>
-        <v>3.1263400000000052E-3</v>
+        <v>3.2632599999999901E-3</v>
       </c>
       <c r="D3" s="11">
         <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A3)</f>
@@ -7281,7 +10143,7 @@
       </c>
       <c r="E3" s="11">
         <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A3)</f>
-        <v>1.2322800000000023E-2</v>
+        <v>1.2779200000000046E-2</v>
       </c>
       <c r="F3" s="11">
         <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A3)</f>
@@ -7289,11 +10151,11 @@
       </c>
       <c r="G3" s="11">
         <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A3)</f>
-        <v>0.91508199999999817</v>
+        <v>0.95615800000000206</v>
       </c>
       <c r="H3" s="11">
         <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A3)</f>
-        <v>5.1573199999999986E-2</v>
+        <v>5.339880000000008E-2</v>
       </c>
       <c r="I3" s="11">
         <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A3)</f>
@@ -7318,7 +10180,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B4" s="11">
         <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A4)</f>
@@ -7326,7 +10188,7 @@
       </c>
       <c r="C4" s="11">
         <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A4)</f>
-        <v>3.1947999999999976E-3</v>
+        <v>3.3317200000000102E-3</v>
       </c>
       <c r="D4" s="11">
         <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A4)</f>
@@ -7334,7 +10196,7 @@
       </c>
       <c r="E4" s="11">
         <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A4)</f>
-        <v>1.2551000000000034E-2</v>
+        <v>1.3007400000000058E-2</v>
       </c>
       <c r="F4" s="11">
         <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A4)</f>
@@ -7342,11 +10204,11 @@
       </c>
       <c r="G4" s="11">
         <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A4)</f>
-        <v>0.93562000000000012</v>
+        <v>0.9766959999999969</v>
       </c>
       <c r="H4" s="11">
         <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A4)</f>
-        <v>5.2486000000000033E-2</v>
+        <v>5.4311600000000126E-2</v>
       </c>
       <c r="I4" s="11">
         <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A4)</f>
@@ -7371,7 +10233,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B5" s="11">
         <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A5)</f>
@@ -7379,7 +10241,7 @@
       </c>
       <c r="C5" s="11">
         <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A5)</f>
-        <v>3.2632599999999901E-3</v>
+        <v>3.4001800000000026E-3</v>
       </c>
       <c r="D5" s="11">
         <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A5)</f>
@@ -7387,7 +10249,7 @@
       </c>
       <c r="E5" s="11">
         <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A5)</f>
-        <v>1.2779200000000046E-2</v>
+        <v>1.3235600000000014E-2</v>
       </c>
       <c r="F5" s="11">
         <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A5)</f>
@@ -7395,11 +10257,11 @@
       </c>
       <c r="G5" s="11">
         <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A5)</f>
-        <v>0.95615800000000206</v>
+        <v>0.99723399999999884</v>
       </c>
       <c r="H5" s="11">
         <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A5)</f>
-        <v>5.339880000000008E-2</v>
+        <v>5.5224399999999951E-2</v>
       </c>
       <c r="I5" s="11">
         <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A5)</f>
@@ -7424,7 +10286,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B6" s="11">
         <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A6)</f>
@@ -7432,7 +10294,7 @@
       </c>
       <c r="C6" s="11">
         <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A6)</f>
-        <v>3.3317200000000102E-3</v>
+        <v>3.4686399999999951E-3</v>
       </c>
       <c r="D6" s="11">
         <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A6)</f>
@@ -7440,7 +10302,7 @@
       </c>
       <c r="E6" s="11">
         <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A6)</f>
-        <v>1.3007400000000058E-2</v>
+        <v>1.3463800000000026E-2</v>
       </c>
       <c r="F6" s="11">
         <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A6)</f>
@@ -7448,11 +10310,11 @@
       </c>
       <c r="G6" s="11">
         <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A6)</f>
-        <v>0.9766959999999969</v>
+        <v>1.0177720000000008</v>
       </c>
       <c r="H6" s="11">
         <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A6)</f>
-        <v>5.4311600000000126E-2</v>
+        <v>5.6137199999999998E-2</v>
       </c>
       <c r="I6" s="11">
         <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A6)</f>
@@ -7476,167 +10338,167 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2018</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="A7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="14">
         <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A7)</f>
-        <v>3.4001800000000026E-3</v>
-      </c>
-      <c r="D7" s="11">
+        <v>3.5370999999999875E-3</v>
+      </c>
+      <c r="D7" s="14">
         <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="14">
         <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A7)</f>
-        <v>1.3235600000000014E-2</v>
-      </c>
-      <c r="F7" s="11">
+        <v>1.3692000000000037E-2</v>
+      </c>
+      <c r="F7" s="14">
         <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="14">
         <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A7)</f>
-        <v>0.99723399999999884</v>
-      </c>
-      <c r="H7" s="11">
+        <v>1.0383100000000027</v>
+      </c>
+      <c r="H7" s="14">
         <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A7)</f>
-        <v>5.5224399999999951E-2</v>
-      </c>
-      <c r="I7" s="11">
+        <v>5.7050000000000045E-2</v>
+      </c>
+      <c r="I7" s="14">
         <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="14">
         <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="14">
         <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="14">
         <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M7" s="14">
         <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="11">
-        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="C8" s="11">
-        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A8)</f>
-        <v>3.4686399999999951E-3</v>
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A8)</f>
+        <v>3.5941500000000043E-3</v>
       </c>
       <c r="D8" s="11">
-        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="E8" s="11">
-        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A8)</f>
-        <v>1.3463800000000026E-2</v>
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A8)</f>
+        <v>1.3920199999999994E-2</v>
       </c>
       <c r="F8" s="11">
-        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="G8" s="11">
-        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A8)</f>
-        <v>1.0177720000000008</v>
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A8)</f>
+        <v>1.0599890000000016</v>
       </c>
       <c r="H8" s="11">
-        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A8)</f>
-        <v>5.6137199999999998E-2</v>
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A8)</f>
+        <v>5.8191000000000326E-2</v>
       </c>
       <c r="I8" s="11">
-        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="J8" s="11">
-        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="K8" s="11">
-        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="11">
-        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
       <c r="M8" s="11">
-        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A8)</f>
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>2020</v>
-      </c>
-      <c r="B9" s="14">
-        <f>TREND(Calculations!B$114:B$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <f>TREND(Calculations!C$114:C$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>3.5370999999999875E-3</v>
-      </c>
-      <c r="D9" s="14">
-        <f>TREND(Calculations!D$114:D$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="14">
-        <f>TREND(Calculations!E$114:E$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>1.3692000000000037E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <f>TREND(Calculations!F$114:F$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <f>TREND(Calculations!G$114:G$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>1.0383100000000027</v>
-      </c>
-      <c r="H9" s="14">
-        <f>TREND(Calculations!H$114:H$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>5.7050000000000045E-2</v>
-      </c>
-      <c r="I9" s="14">
-        <f>TREND(Calculations!I$114:I$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="14">
-        <f>TREND(Calculations!J$114:J$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="14">
-        <f>TREND(Calculations!K$114:K$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="14">
-        <f>TREND(Calculations!L$114:L$115,Calculations!$A$114:$A$115,$A9)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="14">
-        <f>TREND(Calculations!M$114:M$115,Calculations!$A$114:$A$115,$A9)</f>
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>3.6511999999999933E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>1.4148400000000005E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>1.0816680000000005</v>
+      </c>
+      <c r="H9" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>5.933199999999994E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A10)</f>
@@ -7644,7 +10506,7 @@
       </c>
       <c r="C10" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A10)</f>
-        <v>3.5941500000000043E-3</v>
+        <v>3.7082499999999963E-3</v>
       </c>
       <c r="D10" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A10)</f>
@@ -7652,7 +10514,7 @@
       </c>
       <c r="E10" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A10)</f>
-        <v>1.3920199999999994E-2</v>
+        <v>1.4376599999999962E-2</v>
       </c>
       <c r="F10" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A10)</f>
@@ -7660,11 +10522,11 @@
       </c>
       <c r="G10" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A10)</f>
-        <v>1.0599890000000016</v>
+        <v>1.1033469999999994</v>
       </c>
       <c r="H10" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A10)</f>
-        <v>5.8191000000000326E-2</v>
+        <v>6.0472999999999999E-2</v>
       </c>
       <c r="I10" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A10)</f>
@@ -7689,7 +10551,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B11" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A11)</f>
@@ -7697,7 +10559,7 @@
       </c>
       <c r="C11" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A11)</f>
-        <v>3.6511999999999933E-3</v>
+        <v>3.7652999999999992E-3</v>
       </c>
       <c r="D11" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A11)</f>
@@ -7705,7 +10567,7 @@
       </c>
       <c r="E11" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A11)</f>
-        <v>1.4148400000000005E-2</v>
+        <v>1.4604799999999973E-2</v>
       </c>
       <c r="F11" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A11)</f>
@@ -7713,11 +10575,11 @@
       </c>
       <c r="G11" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A11)</f>
-        <v>1.0816680000000005</v>
+        <v>1.1250259999999983</v>
       </c>
       <c r="H11" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A11)</f>
-        <v>5.933199999999994E-2</v>
+        <v>6.1614000000000058E-2</v>
       </c>
       <c r="I11" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A11)</f>
@@ -7742,7 +10604,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B12" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A12)</f>
@@ -7750,7 +10612,7 @@
       </c>
       <c r="C12" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A12)</f>
-        <v>3.7082499999999963E-3</v>
+        <v>3.8223500000000021E-3</v>
       </c>
       <c r="D12" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A12)</f>
@@ -7758,7 +10620,7 @@
       </c>
       <c r="E12" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A12)</f>
-        <v>1.4376599999999962E-2</v>
+        <v>1.4832999999999985E-2</v>
       </c>
       <c r="F12" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A12)</f>
@@ -7766,11 +10628,11 @@
       </c>
       <c r="G12" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A12)</f>
-        <v>1.1033469999999994</v>
+        <v>1.1467049999999972</v>
       </c>
       <c r="H12" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A12)</f>
-        <v>6.0472999999999999E-2</v>
+        <v>6.2755000000000116E-2</v>
       </c>
       <c r="I12" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A12)</f>
@@ -7795,7 +10657,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B13" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A13)</f>
@@ -7803,7 +10665,7 @@
       </c>
       <c r="C13" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A13)</f>
-        <v>3.7652999999999992E-3</v>
+        <v>3.8794000000000051E-3</v>
       </c>
       <c r="D13" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A13)</f>
@@ -7811,7 +10673,7 @@
       </c>
       <c r="E13" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A13)</f>
-        <v>1.4604799999999973E-2</v>
+        <v>1.5061199999999997E-2</v>
       </c>
       <c r="F13" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A13)</f>
@@ -7819,11 +10681,11 @@
       </c>
       <c r="G13" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A13)</f>
-        <v>1.1250259999999983</v>
+        <v>1.1683840000000032</v>
       </c>
       <c r="H13" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A13)</f>
-        <v>6.1614000000000058E-2</v>
+        <v>6.3896000000000175E-2</v>
       </c>
       <c r="I13" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A13)</f>
@@ -7848,7 +10710,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="B14" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A14)</f>
@@ -7856,7 +10718,7 @@
       </c>
       <c r="C14" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A14)</f>
-        <v>3.8223500000000021E-3</v>
+        <v>3.9364499999999941E-3</v>
       </c>
       <c r="D14" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A14)</f>
@@ -7864,7 +10726,7 @@
       </c>
       <c r="E14" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A14)</f>
-        <v>1.4832999999999985E-2</v>
+        <v>1.5289399999999953E-2</v>
       </c>
       <c r="F14" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A14)</f>
@@ -7872,11 +10734,11 @@
       </c>
       <c r="G14" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A14)</f>
-        <v>1.1467049999999972</v>
+        <v>1.1900630000000021</v>
       </c>
       <c r="H14" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A14)</f>
-        <v>6.2755000000000116E-2</v>
+        <v>6.5037000000000234E-2</v>
       </c>
       <c r="I14" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A14)</f>
@@ -7901,7 +10763,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B15" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A15)</f>
@@ -7909,7 +10771,7 @@
       </c>
       <c r="C15" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A15)</f>
-        <v>3.8794000000000051E-3</v>
+        <v>3.9934999999999971E-3</v>
       </c>
       <c r="D15" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A15)</f>
@@ -7917,7 +10779,7 @@
       </c>
       <c r="E15" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A15)</f>
-        <v>1.5061199999999997E-2</v>
+        <v>1.5517599999999965E-2</v>
       </c>
       <c r="F15" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A15)</f>
@@ -7925,11 +10787,11 @@
       </c>
       <c r="G15" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A15)</f>
-        <v>1.1683840000000032</v>
+        <v>1.211742000000001</v>
       </c>
       <c r="H15" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A15)</f>
-        <v>6.3896000000000175E-2</v>
+        <v>6.6178000000000292E-2</v>
       </c>
       <c r="I15" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A15)</f>
@@ -7954,7 +10816,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2027</v>
+        <v>2029</v>
       </c>
       <c r="B16" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A16)</f>
@@ -7962,7 +10824,7 @@
       </c>
       <c r="C16" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A16)</f>
-        <v>3.9364499999999941E-3</v>
+        <v>4.05055E-3</v>
       </c>
       <c r="D16" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A16)</f>
@@ -7970,7 +10832,7 @@
       </c>
       <c r="E16" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A16)</f>
-        <v>1.5289399999999953E-2</v>
+        <v>1.5745799999999976E-2</v>
       </c>
       <c r="F16" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A16)</f>
@@ -7978,11 +10840,11 @@
       </c>
       <c r="G16" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A16)</f>
-        <v>1.1900630000000021</v>
+        <v>1.2334209999999999</v>
       </c>
       <c r="H16" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A16)</f>
-        <v>6.5037000000000234E-2</v>
+        <v>6.7319000000000351E-2</v>
       </c>
       <c r="I16" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A16)</f>
@@ -8007,7 +10869,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="B17" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A17)</f>
@@ -8015,7 +10877,7 @@
       </c>
       <c r="C17" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A17)</f>
-        <v>3.9934999999999971E-3</v>
+        <v>4.1076000000000029E-3</v>
       </c>
       <c r="D17" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A17)</f>
@@ -8023,7 +10885,7 @@
       </c>
       <c r="E17" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A17)</f>
-        <v>1.5517599999999965E-2</v>
+        <v>1.5973999999999988E-2</v>
       </c>
       <c r="F17" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A17)</f>
@@ -8031,11 +10893,11 @@
       </c>
       <c r="G17" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A17)</f>
-        <v>1.211742000000001</v>
+        <v>1.2550999999999988</v>
       </c>
       <c r="H17" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A17)</f>
-        <v>6.6178000000000292E-2</v>
+        <v>6.8459999999999965E-2</v>
       </c>
       <c r="I17" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A17)</f>
@@ -8059,8 +10921,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2029</v>
+      <c r="A18" s="18">
+        <v>2031</v>
       </c>
       <c r="B18" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A18)</f>
@@ -8068,7 +10930,7 @@
       </c>
       <c r="C18" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A18)</f>
-        <v>4.05055E-3</v>
+        <v>4.1646500000000058E-3</v>
       </c>
       <c r="D18" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A18)</f>
@@ -8076,7 +10938,7 @@
       </c>
       <c r="E18" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A18)</f>
-        <v>1.5745799999999976E-2</v>
+        <v>1.62022E-2</v>
       </c>
       <c r="F18" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A18)</f>
@@ -8084,11 +10946,11 @@
       </c>
       <c r="G18" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A18)</f>
-        <v>1.2334209999999999</v>
+        <v>1.2767789999999977</v>
       </c>
       <c r="H18" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A18)</f>
-        <v>6.7319000000000351E-2</v>
+        <v>6.9601000000000024E-2</v>
       </c>
       <c r="I18" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A18)</f>
@@ -8112,8 +10974,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2030</v>
+      <c r="A19" s="18">
+        <v>2032</v>
       </c>
       <c r="B19" s="11">
         <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A19)</f>
@@ -8121,7 +10983,7 @@
       </c>
       <c r="C19" s="11">
         <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A19)</f>
-        <v>4.1076000000000029E-3</v>
+        <v>4.2216999999999949E-3</v>
       </c>
       <c r="D19" s="11">
         <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A19)</f>
@@ -8129,7 +10991,7 @@
       </c>
       <c r="E19" s="11">
         <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A19)</f>
-        <v>1.5973999999999988E-2</v>
+        <v>1.6430399999999956E-2</v>
       </c>
       <c r="F19" s="11">
         <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A19)</f>
@@ -8137,11 +10999,11 @@
       </c>
       <c r="G19" s="11">
         <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A19)</f>
-        <v>1.2550999999999988</v>
+        <v>1.2984580000000037</v>
       </c>
       <c r="H19" s="11">
         <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A19)</f>
-        <v>6.8459999999999965E-2</v>
+        <v>7.0742000000000083E-2</v>
       </c>
       <c r="I19" s="11">
         <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A19)</f>
@@ -8161,6 +11023,960 @@
       </c>
       <c r="M19" s="11">
         <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>4.2787499999999978E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>1.6658599999999968E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>1.3201370000000026</v>
+      </c>
+      <c r="H20" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>7.1883000000000141E-2</v>
+      </c>
+      <c r="I20" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>4.3358000000000008E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>1.688679999999998E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>1.3418160000000015</v>
+      </c>
+      <c r="H21" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>7.30240000000002E-2</v>
+      </c>
+      <c r="I21" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>4.3928500000000037E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>1.7114999999999991E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>1.3634950000000003</v>
+      </c>
+      <c r="H22" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>7.4165000000000258E-2</v>
+      </c>
+      <c r="I22" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>4.4499000000000066E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>1.7343200000000003E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>1.3851739999999992</v>
+      </c>
+      <c r="H23" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>7.5306000000000317E-2</v>
+      </c>
+      <c r="I23" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>4.5069499999999957E-3</v>
+      </c>
+      <c r="D24" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>1.7571399999999959E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>1.4068529999999981</v>
+      </c>
+      <c r="H24" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>7.6446999999999932E-2</v>
+      </c>
+      <c r="I24" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>4.5639999999999986E-3</v>
+      </c>
+      <c r="D25" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>1.7799599999999971E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>1.428531999999997</v>
+      </c>
+      <c r="H25" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>7.758799999999999E-2</v>
+      </c>
+      <c r="I25" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>4.6210500000000015E-3</v>
+      </c>
+      <c r="D26" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>1.8027799999999983E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>1.450211000000003</v>
+      </c>
+      <c r="H26" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>7.8729000000000049E-2</v>
+      </c>
+      <c r="I26" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>4.6781000000000045E-3</v>
+      </c>
+      <c r="D27" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>1.8255999999999994E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>1.4718900000000019</v>
+      </c>
+      <c r="H27" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>7.9870000000000108E-2</v>
+      </c>
+      <c r="I27" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>4.7351499999999935E-3</v>
+      </c>
+      <c r="D28" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>1.8484199999999951E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>1.4935690000000008</v>
+      </c>
+      <c r="H28" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>8.1011000000000166E-2</v>
+      </c>
+      <c r="I28" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>4.7921999999999965E-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>1.8712399999999962E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>1.5152479999999997</v>
+      </c>
+      <c r="H29" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>8.2152000000000225E-2</v>
+      </c>
+      <c r="I29" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>4.8492499999999994E-3</v>
+      </c>
+      <c r="D30" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>1.8940599999999974E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>1.5369269999999986</v>
+      </c>
+      <c r="H30" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>8.3293000000000283E-2</v>
+      </c>
+      <c r="I30" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>4.9063000000000023E-3</v>
+      </c>
+      <c r="D31" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>1.9168799999999986E-2</v>
+      </c>
+      <c r="F31" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>1.5586059999999975</v>
+      </c>
+      <c r="H31" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>8.4434000000000342E-2</v>
+      </c>
+      <c r="I31" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>4.9633500000000053E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>1.9396999999999998E-2</v>
+      </c>
+      <c r="F32" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>1.5802850000000035</v>
+      </c>
+      <c r="H32" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>8.5574999999999957E-2</v>
+      </c>
+      <c r="I32" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>5.0203999999999943E-3</v>
+      </c>
+      <c r="D33" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>1.9625199999999954E-2</v>
+      </c>
+      <c r="F33" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>1.6019640000000024</v>
+      </c>
+      <c r="H33" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>8.6716000000000015E-2</v>
+      </c>
+      <c r="I33" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>5.0774499999999972E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>1.9853399999999966E-2</v>
+      </c>
+      <c r="F34" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>1.6236430000000013</v>
+      </c>
+      <c r="H34" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>8.7857000000000074E-2</v>
+      </c>
+      <c r="I34" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>5.1345000000000002E-3</v>
+      </c>
+      <c r="D35" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>2.0081599999999977E-2</v>
+      </c>
+      <c r="F35" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>1.6453220000000002</v>
+      </c>
+      <c r="H35" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>8.8998000000000133E-2</v>
+      </c>
+      <c r="I35" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>5.1915500000000031E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>2.0309799999999989E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>1.6670009999999991</v>
+      </c>
+      <c r="H36" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>9.0139000000000191E-2</v>
+      </c>
+      <c r="I36" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="11">
+        <f>TREND(Calculations!B$115:B$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f>TREND(Calculations!C$115:C$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>5.248600000000006E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <f>TREND(Calculations!D$115:D$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f>TREND(Calculations!E$115:E$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f>TREND(Calculations!F$115:F$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f>TREND(Calculations!G$115:G$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>1.688679999999998</v>
+      </c>
+      <c r="H37" s="11">
+        <f>TREND(Calculations!H$115:H$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>9.128000000000025E-2</v>
+      </c>
+      <c r="I37" s="11">
+        <f>TREND(Calculations!I$115:I$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f>TREND(Calculations!J$115:J$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f>TREND(Calculations!K$115:K$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f>TREND(Calculations!L$115:L$116,Calculations!$A$115:$A$116,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f>TREND(Calculations!M$115:M$116,Calculations!$A$115:$A$116,$A37)</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
+++ b/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\add-outputs\SCoHIbP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="19140" windowHeight="6435"/>
   </bookViews>
@@ -12,15 +17,16 @@
     <sheet name="Calculations" sheetId="3" r:id="rId3"/>
     <sheet name="SCoHIbP-transportation" sheetId="4" r:id="rId4"/>
     <sheet name="SCoHIbP-elec-distheat" sheetId="5" r:id="rId5"/>
-    <sheet name="SCoHIbP-bldgs-indst" sheetId="6" r:id="rId6"/>
-    <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId7"/>
+    <sheet name="SCoHIbP-bldgs" sheetId="6" r:id="rId6"/>
+    <sheet name="SCoHIbP-indst" sheetId="9" r:id="rId7"/>
+    <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="86">
   <si>
     <t>Source:</t>
   </si>
@@ -276,11 +282,14 @@
   <si>
     <t>scaling factors and update the green-highlighted cells on the "Calculations" tab accordingly.</t>
   </si>
+  <si>
+    <t>($/g pollutant)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -427,7 +436,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -463,6 +472,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -479,6 +491,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -527,7 +542,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,7 +577,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5163,15 +5178,16 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -7133,10 +7149,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -9098,10 +9117,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>
@@ -11063,10 +11085,1982 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" style="18" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="18"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>9</v>
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="11">
+        <f>TREND(Calculations!B$150:B$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>3.1947999999999976E-3</v>
+      </c>
+      <c r="D2" s="11">
+        <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>1.2551000000000034E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="11">
+        <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0.59332000000000207</v>
+      </c>
+      <c r="H2" s="11">
+        <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>7.6446999999999932E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f>TREND(Calculations!J$150:J$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="11">
+        <f>TREND(Calculations!K$150:K$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <f>TREND(Calculations!L$150:L$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="11">
+        <f>TREND(Calculations!M$150:M$151,Calculations!$A$150:$A$151,$A2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>2016</v>
+      </c>
+      <c r="B3" s="11">
+        <f>TREND(Calculations!B$150:B$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="11">
+        <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>3.2632599999999901E-3</v>
+      </c>
+      <c r="D3" s="11">
+        <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>1.2779200000000046E-2</v>
+      </c>
+      <c r="F3" s="11">
+        <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0.60472999999999999</v>
+      </c>
+      <c r="H3" s="11">
+        <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>7.8044400000000014E-2</v>
+      </c>
+      <c r="I3" s="11">
+        <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f>TREND(Calculations!J$150:J$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f>TREND(Calculations!K$150:K$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <f>TREND(Calculations!L$150:L$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f>TREND(Calculations!M$150:M$151,Calculations!$A$150:$A$151,$A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="11">
+        <f>TREND(Calculations!B$150:B$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="11">
+        <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>3.3317200000000102E-3</v>
+      </c>
+      <c r="D4" s="11">
+        <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>1.3007400000000058E-2</v>
+      </c>
+      <c r="F4" s="11">
+        <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0.61614000000000146</v>
+      </c>
+      <c r="H4" s="11">
+        <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>7.9641800000000096E-2</v>
+      </c>
+      <c r="I4" s="11">
+        <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <f>TREND(Calculations!J$150:J$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="11">
+        <f>TREND(Calculations!K$150:K$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f>TREND(Calculations!L$150:L$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="11">
+        <f>TREND(Calculations!M$150:M$151,Calculations!$A$150:$A$151,$A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="11">
+        <f>TREND(Calculations!B$150:B$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="11">
+        <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>3.4001800000000026E-3</v>
+      </c>
+      <c r="D5" s="11">
+        <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="11">
+        <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>1.3235600000000014E-2</v>
+      </c>
+      <c r="F5" s="11">
+        <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="11">
+        <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0.62754999999999939</v>
+      </c>
+      <c r="H5" s="11">
+        <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>8.1239200000000178E-2</v>
+      </c>
+      <c r="I5" s="11">
+        <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f>TREND(Calculations!J$150:J$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="11">
+        <f>TREND(Calculations!K$150:K$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <f>TREND(Calculations!L$150:L$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="11">
+        <f>TREND(Calculations!M$150:M$151,Calculations!$A$150:$A$151,$A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="11">
+        <f>TREND(Calculations!B$150:B$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="11">
+        <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>3.4686399999999951E-3</v>
+      </c>
+      <c r="D6" s="11">
+        <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>1.3463800000000026E-2</v>
+      </c>
+      <c r="F6" s="11">
+        <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0.63896000000000086</v>
+      </c>
+      <c r="H6" s="11">
+        <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>8.2836599999999816E-2</v>
+      </c>
+      <c r="I6" s="11">
+        <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f>TREND(Calculations!J$150:J$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="11">
+        <f>TREND(Calculations!K$150:K$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <f>TREND(Calculations!L$150:L$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="11">
+        <f>TREND(Calculations!M$150:M$151,Calculations!$A$150:$A$151,$A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="14">
+        <f>TREND(Calculations!B$150:B$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="14">
+        <f>TREND(Calculations!C$150:C$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>3.5370999999999875E-3</v>
+      </c>
+      <c r="D7" s="14">
+        <f>TREND(Calculations!D$150:D$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="14">
+        <f>TREND(Calculations!E$150:E$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>1.3692000000000037E-2</v>
+      </c>
+      <c r="F7" s="14">
+        <f>TREND(Calculations!F$150:F$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <f>TREND(Calculations!G$150:G$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0.65037000000000234</v>
+      </c>
+      <c r="H7" s="14">
+        <f>TREND(Calculations!H$150:H$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>8.4433999999999898E-2</v>
+      </c>
+      <c r="I7" s="14">
+        <f>TREND(Calculations!I$150:I$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
+        <f>TREND(Calculations!J$150:J$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <f>TREND(Calculations!K$150:K$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="14">
+        <f>TREND(Calculations!L$150:L$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="14">
+        <f>TREND(Calculations!M$150:M$151,Calculations!$A$150:$A$151,$A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>3.5941500000000043E-3</v>
+      </c>
+      <c r="D8" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>1.3920199999999994E-2</v>
+      </c>
+      <c r="F8" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0.66063899999999975</v>
+      </c>
+      <c r="H8" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>8.5917300000000196E-2</v>
+      </c>
+      <c r="I8" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>3.6511999999999933E-3</v>
+      </c>
+      <c r="D9" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>1.4148400000000005E-2</v>
+      </c>
+      <c r="F9" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0.67090800000000073</v>
+      </c>
+      <c r="H9" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>8.740060000000005E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>3.7082499999999963E-3</v>
+      </c>
+      <c r="D10" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>1.4376599999999962E-2</v>
+      </c>
+      <c r="F10" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0.6811770000000017</v>
+      </c>
+      <c r="H10" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>8.8883900000000349E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>3.7652999999999992E-3</v>
+      </c>
+      <c r="D11" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>1.4604799999999973E-2</v>
+      </c>
+      <c r="F11" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0.69144600000000267</v>
+      </c>
+      <c r="H11" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>9.0367200000000203E-2</v>
+      </c>
+      <c r="I11" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>3.8223500000000021E-3</v>
+      </c>
+      <c r="D12" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>1.4832999999999985E-2</v>
+      </c>
+      <c r="F12" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0.70171500000000009</v>
+      </c>
+      <c r="H12" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>9.1850500000000057E-2</v>
+      </c>
+      <c r="I12" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>2026</v>
+      </c>
+      <c r="B13" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>3.8794000000000051E-3</v>
+      </c>
+      <c r="D13" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>1.5061199999999997E-2</v>
+      </c>
+      <c r="F13" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0.71198400000000106</v>
+      </c>
+      <c r="H13" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>9.3333800000000355E-2</v>
+      </c>
+      <c r="I13" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>2027</v>
+      </c>
+      <c r="B14" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>3.9364499999999941E-3</v>
+      </c>
+      <c r="D14" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>1.5289399999999953E-2</v>
+      </c>
+      <c r="F14" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0.72225300000000203</v>
+      </c>
+      <c r="H14" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>9.481710000000021E-2</v>
+      </c>
+      <c r="I14" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>2028</v>
+      </c>
+      <c r="B15" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>3.9934999999999971E-3</v>
+      </c>
+      <c r="D15" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>1.5517599999999965E-2</v>
+      </c>
+      <c r="F15" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0.73252199999999945</v>
+      </c>
+      <c r="H15" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>9.6300400000000064E-2</v>
+      </c>
+      <c r="I15" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>2029</v>
+      </c>
+      <c r="B16" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>4.05055E-3</v>
+      </c>
+      <c r="D16" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>1.5745799999999976E-2</v>
+      </c>
+      <c r="F16" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0.74279100000000042</v>
+      </c>
+      <c r="H16" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>9.7783700000000362E-2</v>
+      </c>
+      <c r="I16" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>2030</v>
+      </c>
+      <c r="B17" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>4.1076000000000029E-3</v>
+      </c>
+      <c r="D17" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>1.5973999999999988E-2</v>
+      </c>
+      <c r="F17" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0.75306000000000139</v>
+      </c>
+      <c r="H17" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>9.9267000000000216E-2</v>
+      </c>
+      <c r="I17" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>2031</v>
+      </c>
+      <c r="B18" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>4.1646500000000058E-3</v>
+      </c>
+      <c r="D18" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>1.62022E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0.76332900000000237</v>
+      </c>
+      <c r="H18" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0.10075030000000007</v>
+      </c>
+      <c r="I18" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>2032</v>
+      </c>
+      <c r="B19" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>4.2216999999999949E-3</v>
+      </c>
+      <c r="D19" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>1.6430399999999956E-2</v>
+      </c>
+      <c r="F19" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0.77359799999999979</v>
+      </c>
+      <c r="H19" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0.10223360000000037</v>
+      </c>
+      <c r="I19" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>2033</v>
+      </c>
+      <c r="B20" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>4.2787499999999978E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>1.6658599999999968E-2</v>
+      </c>
+      <c r="F20" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0.78386700000000076</v>
+      </c>
+      <c r="H20" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0.10371690000000022</v>
+      </c>
+      <c r="I20" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>2034</v>
+      </c>
+      <c r="B21" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>4.3358000000000008E-3</v>
+      </c>
+      <c r="D21" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>1.688679999999998E-2</v>
+      </c>
+      <c r="F21" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0.79413600000000173</v>
+      </c>
+      <c r="H21" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0.10520020000000008</v>
+      </c>
+      <c r="I21" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2035</v>
+      </c>
+      <c r="B22" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>4.3928500000000037E-3</v>
+      </c>
+      <c r="D22" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>1.7114999999999991E-2</v>
+      </c>
+      <c r="F22" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0.8044050000000027</v>
+      </c>
+      <c r="H22" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0.10668350000000038</v>
+      </c>
+      <c r="I22" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>2036</v>
+      </c>
+      <c r="B23" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>4.4499000000000066E-3</v>
+      </c>
+      <c r="D23" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>1.7343200000000003E-2</v>
+      </c>
+      <c r="F23" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0.81467400000000012</v>
+      </c>
+      <c r="H23" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0.10816680000000023</v>
+      </c>
+      <c r="I23" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>2037</v>
+      </c>
+      <c r="B24" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>4.5069499999999957E-3</v>
+      </c>
+      <c r="D24" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>1.7571399999999959E-2</v>
+      </c>
+      <c r="F24" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0.82494300000000109</v>
+      </c>
+      <c r="H24" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0.10965010000000008</v>
+      </c>
+      <c r="I24" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>2038</v>
+      </c>
+      <c r="B25" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>4.5639999999999986E-3</v>
+      </c>
+      <c r="D25" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>1.7799599999999971E-2</v>
+      </c>
+      <c r="F25" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0.83521200000000206</v>
+      </c>
+      <c r="H25" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0.11113340000000038</v>
+      </c>
+      <c r="I25" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>2039</v>
+      </c>
+      <c r="B26" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>4.6210500000000015E-3</v>
+      </c>
+      <c r="D26" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>1.8027799999999983E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0.84548099999999948</v>
+      </c>
+      <c r="H26" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0.11261670000000024</v>
+      </c>
+      <c r="I26" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>2040</v>
+      </c>
+      <c r="B27" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>4.6781000000000045E-3</v>
+      </c>
+      <c r="D27" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>1.8255999999999994E-2</v>
+      </c>
+      <c r="F27" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0.85575000000000045</v>
+      </c>
+      <c r="H27" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0.11410000000000009</v>
+      </c>
+      <c r="I27" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>2041</v>
+      </c>
+      <c r="B28" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>4.7351499999999935E-3</v>
+      </c>
+      <c r="D28" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>1.8484199999999951E-2</v>
+      </c>
+      <c r="F28" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0.86601900000000143</v>
+      </c>
+      <c r="H28" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0.11558330000000039</v>
+      </c>
+      <c r="I28" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>2042</v>
+      </c>
+      <c r="B29" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>4.7921999999999965E-3</v>
+      </c>
+      <c r="D29" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>1.8712399999999962E-2</v>
+      </c>
+      <c r="F29" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0.8762880000000024</v>
+      </c>
+      <c r="H29" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0.11706660000000024</v>
+      </c>
+      <c r="I29" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>2043</v>
+      </c>
+      <c r="B30" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>4.8492499999999994E-3</v>
+      </c>
+      <c r="D30" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>1.8940599999999974E-2</v>
+      </c>
+      <c r="F30" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0.88655699999999982</v>
+      </c>
+      <c r="H30" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0.1185499000000001</v>
+      </c>
+      <c r="I30" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>2044</v>
+      </c>
+      <c r="B31" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>4.9063000000000023E-3</v>
+      </c>
+      <c r="D31" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>1.9168799999999986E-2</v>
+      </c>
+      <c r="F31" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0.89682600000000079</v>
+      </c>
+      <c r="H31" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0.1200332000000004</v>
+      </c>
+      <c r="I31" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>2045</v>
+      </c>
+      <c r="B32" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>4.9633500000000053E-3</v>
+      </c>
+      <c r="D32" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>1.9396999999999998E-2</v>
+      </c>
+      <c r="F32" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0.90709500000000176</v>
+      </c>
+      <c r="H32" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0.12151650000000025</v>
+      </c>
+      <c r="I32" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>2046</v>
+      </c>
+      <c r="B33" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>5.0203999999999943E-3</v>
+      </c>
+      <c r="D33" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>1.9625199999999954E-2</v>
+      </c>
+      <c r="F33" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0.91736400000000273</v>
+      </c>
+      <c r="H33" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0.1229998000000001</v>
+      </c>
+      <c r="I33" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>2047</v>
+      </c>
+      <c r="B34" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>5.0774499999999972E-3</v>
+      </c>
+      <c r="D34" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>1.9853399999999966E-2</v>
+      </c>
+      <c r="F34" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0.92763300000000015</v>
+      </c>
+      <c r="H34" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0.1244831000000004</v>
+      </c>
+      <c r="I34" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>2048</v>
+      </c>
+      <c r="B35" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>5.1345000000000002E-3</v>
+      </c>
+      <c r="D35" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>2.0081599999999977E-2</v>
+      </c>
+      <c r="F35" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0.93790200000000112</v>
+      </c>
+      <c r="H35" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0.12596640000000026</v>
+      </c>
+      <c r="I35" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>2049</v>
+      </c>
+      <c r="B36" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>5.1915500000000031E-3</v>
+      </c>
+      <c r="D36" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>2.0309799999999989E-2</v>
+      </c>
+      <c r="F36" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0.9481710000000021</v>
+      </c>
+      <c r="H36" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0.12744970000000011</v>
+      </c>
+      <c r="I36" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="18">
+        <v>2050</v>
+      </c>
+      <c r="B37" s="11">
+        <f>TREND(Calculations!B$151:B$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="11">
+        <f>TREND(Calculations!C$151:C$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>5.248600000000006E-3</v>
+      </c>
+      <c r="D37" s="11">
+        <f>TREND(Calculations!D$151:D$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="11">
+        <f>TREND(Calculations!E$151:E$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>2.0538000000000001E-2</v>
+      </c>
+      <c r="F37" s="11">
+        <f>TREND(Calculations!F$151:F$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="11">
+        <f>TREND(Calculations!G$151:G$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0.95843999999999951</v>
+      </c>
+      <c r="H37" s="11">
+        <f>TREND(Calculations!H$151:H$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0.12893300000000041</v>
+      </c>
+      <c r="I37" s="11">
+        <f>TREND(Calculations!I$151:I$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="11">
+        <f>TREND(Calculations!J$151:J$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="11">
+        <f>TREND(Calculations!K$151:K$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11">
+        <f>TREND(Calculations!L$151:L$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="11">
+        <f>TREND(Calculations!M$151:M$152,Calculations!$A$151:$A$152,$A37)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>24</v>

--- a/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
+++ b/InputData/add-outputs/SCoHIbP/Social Cost of Health Impacts by Pollutant.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\add-outputs\SCoHIbP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rorvis\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\add-outputs\SCoHIbP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BA766F-0036-4C6A-84A7-54AE5DB5AEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="172" yWindow="150" windowWidth="18976" windowHeight="9765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="165" yWindow="150" windowWidth="18975" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="SCoHIbP-indst" sheetId="9" r:id="rId7"/>
     <sheet name="SCoHIbP-LULUCF" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="83">
   <si>
     <t>Source:</t>
   </si>
   <si>
     <t>U.S. Environmental Protection Agency</t>
-  </si>
-  <si>
-    <t>RSM-based Benefit Per Ton Estimates</t>
   </si>
   <si>
     <t>Notes</t>
@@ -55,12 +51,6 @@
   </si>
   <si>
     <t>The figures account for damages from particulates (including secondary particulates formed</t>
-  </si>
-  <si>
-    <t>by NOx, SOx, etc.) and from ozone (all of which is secondary).  It does not account for damages</t>
-  </si>
-  <si>
-    <t>from directly breathing any other pollutants, including NOx, SOx, etc.</t>
   </si>
   <si>
     <t>Year</t>
@@ -145,18 +135,6 @@
   </si>
   <si>
     <t>LULUCF Sector</t>
-  </si>
-  <si>
-    <t>Although the LULUCF sector doesn't emit the types of pollutants that are assigned health impacts</t>
-  </si>
-  <si>
-    <t>in the source document above, we nonetheless include it here and produce a CSV output file,</t>
-  </si>
-  <si>
-    <t>in case the LULUCF sector is changed in the future to add some of the pollutant types for which</t>
-  </si>
-  <si>
-    <t>health impacts are calculated.</t>
   </si>
   <si>
     <t>See "cpi.xlsx" in the InputData folder for source information.</t>
@@ -302,11 +280,17 @@
   <si>
     <t>Human health benefits of reducing a ton of air pollution (2015 dollars / ton pollutant)</t>
   </si>
+  <si>
+    <t>Sector Based Benefit per Ton Estimates</t>
+  </si>
+  <si>
+    <t>by NOx, SOx, etc.).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -491,14 +475,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,23 +573,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -641,23 +608,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -833,154 +783,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.265625" customWidth="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>0.97</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>55</v>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -988,22 +913,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.06640625" customWidth="1"/>
-    <col min="2" max="13" width="14.3984375" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1011,26 +936,26 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B3" s="14">
         <v>260000</v>
@@ -1045,9 +970,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B4" s="14">
         <v>350000</v>
@@ -1062,9 +987,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B5" s="14">
         <v>390000</v>
@@ -1079,9 +1004,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6" s="14">
         <v>510000</v>
@@ -1096,9 +1021,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7" s="14">
         <v>480000</v>
@@ -1113,9 +1038,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8" s="14">
         <v>140000</v>
@@ -1130,9 +1055,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B9" s="14">
         <v>320000</v>
@@ -1147,9 +1072,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B10" s="14">
         <v>540000</v>
@@ -1164,9 +1089,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B11" s="14">
         <v>560000</v>
@@ -1181,9 +1106,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B12" s="14">
         <v>340000</v>
@@ -1198,9 +1123,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B13" s="14">
         <v>290000</v>
@@ -1215,9 +1140,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B14" s="14">
         <v>48000</v>
@@ -1232,9 +1157,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B15" s="14">
         <v>400000</v>
@@ -1249,9 +1174,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B16" s="14">
         <v>170000</v>
@@ -1266,9 +1191,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B17" s="14">
         <v>350000</v>
@@ -1283,9 +1208,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B18" s="14">
         <v>400000</v>
@@ -1300,9 +1225,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" s="14">
         <v>95000</v>
@@ -1317,9 +1242,9 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B20" s="14">
         <v>280000</v>
@@ -1334,9 +1259,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B21" s="14">
         <v>370000</v>
@@ -1351,9 +1276,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B22" s="14">
         <v>420000</v>
@@ -1368,9 +1293,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B23" s="14">
         <v>520000</v>
@@ -1385,9 +1310,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B24" s="14">
         <v>500000</v>
@@ -1402,9 +1327,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B25" s="14">
         <v>150000</v>
@@ -1419,9 +1344,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B26" s="14">
         <v>330000</v>
@@ -1436,9 +1361,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B27" s="14">
         <v>560000</v>
@@ -1453,9 +1378,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B28" s="14">
         <v>580000</v>
@@ -1470,9 +1395,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B29" s="14">
         <v>360000</v>
@@ -1487,9 +1412,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B30" s="14">
         <v>310000</v>
@@ -1504,9 +1429,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B31" s="14">
         <v>52000</v>
@@ -1521,9 +1446,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B32" s="14">
         <v>420000</v>
@@ -1538,9 +1463,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B33" s="14">
         <v>180000</v>
@@ -1555,9 +1480,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B34" s="14">
         <v>360000</v>
@@ -1572,9 +1497,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B35" s="14">
         <v>420000</v>
@@ -1589,9 +1514,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B36" s="14">
         <v>99000</v>
@@ -1606,9 +1531,9 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B37" s="14">
         <v>300000</v>
@@ -1623,9 +1548,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B38" s="14">
         <v>410000</v>
@@ -1640,9 +1565,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B39" s="14">
         <v>460000</v>
@@ -1657,9 +1582,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B40" s="14">
         <v>550000</v>
@@ -1674,9 +1599,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B41" s="14">
         <v>540000</v>
@@ -1691,9 +1616,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B42" s="14">
         <v>170000</v>
@@ -1708,9 +1633,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B43" s="14">
         <v>350000</v>
@@ -1725,9 +1650,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B44" s="14">
         <v>590000</v>
@@ -1742,9 +1667,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B45" s="14">
         <v>620000</v>
@@ -1759,9 +1684,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B46" s="14">
         <v>390000</v>
@@ -1776,9 +1701,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B47" s="14">
         <v>330000</v>
@@ -1793,9 +1718,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="48" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B48" s="14">
         <v>57000</v>
@@ -1810,9 +1735,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="49" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B49" s="14">
         <v>460000</v>
@@ -1827,9 +1752,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="50" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B50" s="14">
         <v>190000</v>
@@ -1844,9 +1769,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B51" s="14">
         <v>400000</v>
@@ -1861,9 +1786,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="52" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B52" s="14">
         <v>460000</v>
@@ -1878,9 +1803,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B53" s="14">
         <v>110000</v>
@@ -1895,9 +1820,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B54" s="14">
         <v>330000</v>
@@ -1912,9 +1837,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B55" s="14">
         <v>450000</v>
@@ -1929,9 +1854,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B56" s="14">
         <v>510000</v>
@@ -1946,9 +1871,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B57" s="14">
         <v>590000</v>
@@ -1963,9 +1888,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B58" s="14">
         <v>580000</v>
@@ -1980,9 +1905,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B59" s="14">
         <v>180000</v>
@@ -1997,9 +1922,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B60" s="14">
         <v>380000</v>
@@ -2014,9 +1939,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B61" s="14">
         <v>630000</v>
@@ -2031,9 +1956,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B62" s="14">
         <v>670000</v>
@@ -2048,9 +1973,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B63" s="14">
         <v>430000</v>
@@ -2065,9 +1990,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B64" s="14">
         <v>370000</v>
@@ -2082,9 +2007,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B65" s="14">
         <v>63000</v>
@@ -2099,9 +2024,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B66" s="14">
         <v>500000</v>
@@ -2116,9 +2041,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B67" s="14">
         <v>210000</v>
@@ -2133,9 +2058,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B68" s="14">
         <v>430000</v>
@@ -2150,9 +2075,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B69" s="14">
         <v>510000</v>
@@ -2167,9 +2092,9 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B70" s="14">
         <v>120000</v>
@@ -2190,31 +2115,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="F200" sqref="F200"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="13.1328125" customWidth="1"/>
-    <col min="3" max="5" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.59765625" customWidth="1"/>
-    <col min="11" max="12" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -2222,21 +2147,21 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2016</v>
       </c>
@@ -2253,7 +2178,7 @@
         <v>8300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2020</v>
       </c>
@@ -2270,7 +2195,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2025</v>
       </c>
@@ -2287,7 +2212,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2030</v>
       </c>
@@ -2304,29 +2229,29 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2016</v>
       </c>
@@ -2343,7 +2268,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2020</v>
       </c>
@@ -2360,7 +2285,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2025</v>
       </c>
@@ -2377,7 +2302,7 @@
         <v>6700</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2394,29 +2319,29 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>2016</v>
       </c>
@@ -2433,7 +2358,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>2020</v>
       </c>
@@ -2450,7 +2375,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>2025</v>
       </c>
@@ -2467,7 +2392,7 @@
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>2030</v>
       </c>
@@ -2484,35 +2409,35 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
     </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D25" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>2016</v>
       </c>
@@ -2529,7 +2454,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>2020</v>
       </c>
@@ -2546,7 +2471,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>2025</v>
       </c>
@@ -2563,7 +2488,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>2030</v>
       </c>
@@ -2580,38 +2505,38 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="F31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D32" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>2016</v>
       </c>
@@ -2628,7 +2553,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="34" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2020</v>
       </c>
@@ -2645,7 +2570,7 @@
         <v>7300</v>
       </c>
     </row>
-    <row r="35" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>2025</v>
       </c>
@@ -2662,7 +2587,7 @@
         <v>7900</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>2030</v>
       </c>
@@ -2679,34 +2604,34 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A44" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2721,48 +2646,48 @@
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="I45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="L45" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L45" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M45" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>2016</v>
       </c>
@@ -2806,7 +2731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>2020</v>
       </c>
@@ -2850,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>2025</v>
       </c>
@@ -2894,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>2030</v>
       </c>
@@ -2938,9 +2863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2955,48 +2880,48 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="I52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="6" t="s">
+      <c r="L52" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L52" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M52" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>2016</v>
       </c>
@@ -3040,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>2020</v>
       </c>
@@ -3084,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>2025</v>
       </c>
@@ -3128,7 +3053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>2030</v>
       </c>
@@ -3172,9 +3097,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3189,48 +3114,48 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="I59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="6" t="s">
+      <c r="L59" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L59" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M59" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>2016</v>
       </c>
@@ -3274,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>2020</v>
       </c>
@@ -3318,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>2025</v>
       </c>
@@ -3362,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>2030</v>
       </c>
@@ -3406,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="C64" s="4"/>
       <c r="E64" s="4"/>
@@ -3414,9 +3339,9 @@
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
     </row>
-    <row r="65" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3431,48 +3356,48 @@
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
     </row>
-    <row r="66" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="I66" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J66" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F66" s="6" t="s">
+      <c r="L66" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K66" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M66" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>2016</v>
       </c>
@@ -3516,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>2020</v>
       </c>
@@ -3560,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>2025</v>
       </c>
@@ -3604,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>2030</v>
       </c>
@@ -3648,7 +3573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="C71" s="4"/>
       <c r="E71" s="4"/>
@@ -3656,9 +3581,9 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3673,48 +3598,48 @@
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="I73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="6" t="s">
+      <c r="L73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L73" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M73" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>2016</v>
       </c>
@@ -3758,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>2020</v>
       </c>
@@ -3802,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>2025</v>
       </c>
@@ -3846,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>2030</v>
       </c>
@@ -3890,14 +3815,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -3912,262 +3837,262 @@
       <c r="L81" s="8"/>
       <c r="M81" s="8"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="6" t="s">
+      <c r="I82" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="6" t="s">
+      <c r="L82" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L82" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M82" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>2016</v>
       </c>
       <c r="B83" s="4">
-        <f>B46*(About!$A$25)</f>
+        <f>B46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C83" s="4">
-        <f>C46*(About!$A$25)</f>
+        <f>C46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D83" s="4">
-        <f>D46*(About!$A$25)</f>
+        <f>D46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E83" s="4">
-        <f>E46*(About!$A$25)</f>
+        <f>E46*(About!$A$19)</f>
         <v>8051</v>
       </c>
       <c r="F83" s="4">
-        <f>F46*(About!$A$25)</f>
+        <f>F46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G83" s="4">
-        <f>G46*(About!$A$25)</f>
+        <f>G46*(About!$A$19)</f>
         <v>388000</v>
       </c>
       <c r="H83" s="4">
-        <f>H46*(About!$A$25)</f>
+        <f>H46*(About!$A$19)</f>
         <v>20370</v>
       </c>
       <c r="I83" s="4">
-        <f>I46*(About!$A$25)</f>
+        <f>I46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J83" s="4">
-        <f>J46*(About!$A$25)</f>
+        <f>J46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K83" s="4">
-        <f>K46*(About!$A$25)</f>
+        <f>K46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L83" s="4">
-        <f>L46*(About!$A$25)</f>
+        <f>L46*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M83" s="4">
-        <f>M46*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M46*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>2020</v>
       </c>
       <c r="B84" s="4">
-        <f>B47*(About!$A$25)</f>
+        <f>B47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C84" s="4">
-        <f>C47*(About!$A$25)</f>
+        <f>C47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D84" s="4">
-        <f>D47*(About!$A$25)</f>
+        <f>D47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E84" s="4">
-        <f>E47*(About!$A$25)</f>
+        <f>E47*(About!$A$19)</f>
         <v>8439</v>
       </c>
       <c r="F84" s="4">
-        <f>F47*(About!$A$25)</f>
+        <f>F47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G84" s="4">
-        <f>G47*(About!$A$25)</f>
+        <f>G47*(About!$A$19)</f>
         <v>407400</v>
       </c>
       <c r="H84" s="4">
-        <f>H47*(About!$A$25)</f>
+        <f>H47*(About!$A$19)</f>
         <v>22310</v>
       </c>
       <c r="I84" s="4">
-        <f>I47*(About!$A$25)</f>
+        <f>I47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J84" s="4">
-        <f>J47*(About!$A$25)</f>
+        <f>J47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K84" s="4">
-        <f>K47*(About!$A$25)</f>
+        <f>K47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L84" s="4">
-        <f>L47*(About!$A$25)</f>
+        <f>L47*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M84" s="4">
-        <f>M47*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M47*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>2025</v>
       </c>
       <c r="B85" s="4">
-        <f>B48*(About!$A$25)</f>
+        <f>B48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C85" s="4">
-        <f>C48*(About!$A$25)</f>
+        <f>C48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D85" s="4">
-        <f>D48*(About!$A$25)</f>
+        <f>D48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E85" s="4">
-        <f>E48*(About!$A$25)</f>
+        <f>E48*(About!$A$19)</f>
         <v>9118</v>
       </c>
       <c r="F85" s="4">
-        <f>F48*(About!$A$25)</f>
+        <f>F48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G85" s="4">
-        <f>G48*(About!$A$25)</f>
+        <f>G48*(About!$A$19)</f>
         <v>446200</v>
       </c>
       <c r="H85" s="4">
-        <f>H48*(About!$A$25)</f>
+        <f>H48*(About!$A$19)</f>
         <v>24250</v>
       </c>
       <c r="I85" s="4">
-        <f>I48*(About!$A$25)</f>
+        <f>I48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J85" s="4">
-        <f>J48*(About!$A$25)</f>
+        <f>J48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K85" s="4">
-        <f>K48*(About!$A$25)</f>
+        <f>K48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L85" s="4">
-        <f>L48*(About!$A$25)</f>
+        <f>L48*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M85" s="4">
-        <f>M48*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M48*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>2030</v>
       </c>
       <c r="B86" s="4">
-        <f>B49*(About!$A$25)</f>
+        <f>B49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C86" s="4">
-        <f>C49*(About!$A$25)</f>
+        <f>C49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D86" s="4">
-        <f>D49*(About!$A$25)</f>
+        <f>D49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E86" s="4">
-        <f>E49*(About!$A$25)</f>
+        <f>E49*(About!$A$19)</f>
         <v>9700</v>
       </c>
       <c r="F86" s="4">
-        <f>F49*(About!$A$25)</f>
+        <f>F49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G86" s="4">
-        <f>G49*(About!$A$25)</f>
+        <f>G49*(About!$A$19)</f>
         <v>485000</v>
       </c>
       <c r="H86" s="4">
-        <f>H49*(About!$A$25)</f>
+        <f>H49*(About!$A$19)</f>
         <v>27160</v>
       </c>
       <c r="I86" s="4">
-        <f>I49*(About!$A$25)</f>
+        <f>I49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J86" s="4">
-        <f>J49*(About!$A$25)</f>
+        <f>J49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K86" s="4">
-        <f>K49*(About!$A$25)</f>
+        <f>K49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L86" s="4">
-        <f>L49*(About!$A$25)</f>
+        <f>L49*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M86" s="4">
-        <f>M49*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M49*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4182,262 +4107,262 @@
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D89" s="6" t="s">
+      <c r="I89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F89" s="6" t="s">
+      <c r="L89" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H89" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J89" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M89" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>2016</v>
       </c>
       <c r="B90" s="4">
-        <f>B53*(About!$A$25)</f>
+        <f>B53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C90" s="4">
-        <f>C53*(About!$A$25)</f>
+        <f>C53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D90" s="4">
-        <f>D53*(About!$A$25)</f>
+        <f>D53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E90" s="4">
-        <f>E53*(About!$A$25)</f>
+        <f>E53*(About!$A$19)</f>
         <v>5820</v>
       </c>
       <c r="F90" s="4">
-        <f>F53*(About!$A$25)</f>
+        <f>F53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G90" s="4">
-        <f>G53*(About!$A$25)</f>
+        <f>G53*(About!$A$19)</f>
         <v>135800</v>
       </c>
       <c r="H90" s="4">
-        <f>H53*(About!$A$25)</f>
+        <f>H53*(About!$A$19)</f>
         <v>38800</v>
       </c>
       <c r="I90" s="4">
-        <f>I53*(About!$A$25)</f>
+        <f>I53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J90" s="4">
-        <f>J53*(About!$A$25)</f>
+        <f>J53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K90" s="4">
-        <f>K53*(About!$A$25)</f>
+        <f>K53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L90" s="4">
-        <f>L53*(About!$A$25)</f>
+        <f>L53*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M90" s="4">
-        <f>M53*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M53*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>2020</v>
       </c>
       <c r="B91" s="4">
-        <f>B54*(About!$A$25)</f>
+        <f>B54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C91" s="4">
-        <f>C54*(About!$A$25)</f>
+        <f>C54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D91" s="4">
-        <f>D54*(About!$A$25)</f>
+        <f>D54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E91" s="4">
-        <f>E54*(About!$A$25)</f>
+        <f>E54*(About!$A$19)</f>
         <v>6014</v>
       </c>
       <c r="F91" s="4">
-        <f>F54*(About!$A$25)</f>
+        <f>F54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G91" s="4">
-        <f>G54*(About!$A$25)</f>
+        <f>G54*(About!$A$19)</f>
         <v>145500</v>
       </c>
       <c r="H91" s="4">
-        <f>H54*(About!$A$25)</f>
+        <f>H54*(About!$A$19)</f>
         <v>40740</v>
       </c>
       <c r="I91" s="4">
-        <f>I54*(About!$A$25)</f>
+        <f>I54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J91" s="4">
-        <f>J54*(About!$A$25)</f>
+        <f>J54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K91" s="4">
-        <f>K54*(About!$A$25)</f>
+        <f>K54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L91" s="4">
-        <f>L54*(About!$A$25)</f>
+        <f>L54*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M91" s="4">
-        <f>M54*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M54*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>2025</v>
       </c>
       <c r="B92" s="4">
-        <f>B55*(About!$A$25)</f>
+        <f>B55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C92" s="4">
-        <f>C55*(About!$A$25)</f>
+        <f>C55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D92" s="4">
-        <f>D55*(About!$A$25)</f>
+        <f>D55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E92" s="4">
-        <f>E55*(About!$A$25)</f>
+        <f>E55*(About!$A$19)</f>
         <v>6499</v>
       </c>
       <c r="F92" s="4">
-        <f>F55*(About!$A$25)</f>
+        <f>F55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G92" s="4">
-        <f>G55*(About!$A$25)</f>
+        <f>G55*(About!$A$19)</f>
         <v>164900</v>
       </c>
       <c r="H92" s="4">
-        <f>H55*(About!$A$25)</f>
+        <f>H55*(About!$A$19)</f>
         <v>44620</v>
       </c>
       <c r="I92" s="4">
-        <f>I55*(About!$A$25)</f>
+        <f>I55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J92" s="4">
-        <f>J55*(About!$A$25)</f>
+        <f>J55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K92" s="4">
-        <f>K55*(About!$A$25)</f>
+        <f>K55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L92" s="4">
-        <f>L55*(About!$A$25)</f>
+        <f>L55*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M92" s="4">
-        <f>M55*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M55*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>2030</v>
       </c>
       <c r="B93" s="4">
-        <f>B56*(About!$A$25)</f>
+        <f>B56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C93" s="4">
-        <f>C56*(About!$A$25)</f>
+        <f>C56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D93" s="4">
-        <f>D56*(About!$A$25)</f>
+        <f>D56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E93" s="4">
-        <f>E56*(About!$A$25)</f>
+        <f>E56*(About!$A$19)</f>
         <v>6984</v>
       </c>
       <c r="F93" s="4">
-        <f>F56*(About!$A$25)</f>
+        <f>F56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G93" s="4">
-        <f>G56*(About!$A$25)</f>
+        <f>G56*(About!$A$19)</f>
         <v>174600</v>
       </c>
       <c r="H93" s="4">
-        <f>H56*(About!$A$25)</f>
+        <f>H56*(About!$A$19)</f>
         <v>47530</v>
       </c>
       <c r="I93" s="4">
-        <f>I56*(About!$A$25)</f>
+        <f>I56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J93" s="4">
-        <f>J56*(About!$A$25)</f>
+        <f>J56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K93" s="4">
-        <f>K56*(About!$A$25)</f>
+        <f>K56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L93" s="4">
-        <f>L56*(About!$A$25)</f>
+        <f>L56*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M93" s="4">
-        <f>M56*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M56*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4452,260 +4377,260 @@
       <c r="L95" s="8"/>
       <c r="M95" s="8"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D96" s="6" t="s">
+      <c r="I96" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J96" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F96" s="6" t="s">
+      <c r="L96" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H96" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J96" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M96" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>2016</v>
       </c>
       <c r="B97" s="4">
-        <f>B60*(About!$A$25)</f>
+        <f>B60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C97" s="4">
-        <f>C60*(About!$A$25)</f>
+        <f>C60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D97" s="4">
-        <f>D60*(About!$A$25)</f>
+        <f>D60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E97" s="4">
-        <f>E60*(About!$A$25)</f>
+        <f>E60*(About!$A$19)</f>
         <v>8342</v>
       </c>
       <c r="F97" s="4">
-        <f>F60*(About!$A$25)</f>
+        <f>F60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G97" s="4">
-        <f>G60*(About!$A$25)</f>
+        <f>G60*(About!$A$19)</f>
         <v>339500</v>
       </c>
       <c r="H97" s="4">
-        <f>H60*(About!$A$25)</f>
+        <f>H60*(About!$A$19)</f>
         <v>52380</v>
       </c>
       <c r="I97" s="4">
-        <f>I60*(About!$A$25)</f>
+        <f>I60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J97" s="4">
-        <f>J60*(About!$A$25)</f>
+        <f>J60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K97" s="4">
-        <f>K60*(About!$A$25)</f>
+        <f>K60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L97" s="4">
-        <f>L60*(About!$A$25)</f>
+        <f>L60*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M97" s="4">
-        <f>M60*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M60*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>2020</v>
       </c>
       <c r="B98" s="4">
-        <f>B61*(About!$A$25)</f>
+        <f>B61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C98" s="4">
-        <f>C61*(About!$A$25)</f>
+        <f>C61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D98" s="4">
-        <f>D61*(About!$A$25)</f>
+        <f>D61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E98" s="4">
-        <f>E61*(About!$A$25)</f>
+        <f>E61*(About!$A$19)</f>
         <v>8730</v>
       </c>
       <c r="F98" s="4">
-        <f>F61*(About!$A$25)</f>
+        <f>F61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G98" s="4">
-        <f>G61*(About!$A$25)</f>
+        <f>G61*(About!$A$19)</f>
         <v>358900</v>
       </c>
       <c r="H98" s="4">
-        <f>H61*(About!$A$25)</f>
+        <f>H61*(About!$A$19)</f>
         <v>54320</v>
       </c>
       <c r="I98" s="4">
-        <f>I61*(About!$A$25)</f>
+        <f>I61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J98" s="4">
-        <f>J61*(About!$A$25)</f>
+        <f>J61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K98" s="4">
-        <f>K61*(About!$A$25)</f>
+        <f>K61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L98" s="4">
-        <f>L61*(About!$A$25)</f>
+        <f>L61*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M98" s="4">
-        <f>M61*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M61*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>2025</v>
       </c>
       <c r="B99" s="4">
-        <f>B62*(About!$A$25)</f>
+        <f>B62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C99" s="4">
-        <f>C62*(About!$A$25)</f>
+        <f>C62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D99" s="4">
-        <f>D62*(About!$A$25)</f>
+        <f>D62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E99" s="4">
-        <f>E62*(About!$A$25)</f>
+        <f>E62*(About!$A$19)</f>
         <v>9409</v>
       </c>
       <c r="F99" s="4">
-        <f>F62*(About!$A$25)</f>
+        <f>F62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G99" s="4">
-        <f>G62*(About!$A$25)</f>
+        <f>G62*(About!$A$19)</f>
         <v>397700</v>
       </c>
       <c r="H99" s="4">
-        <f>H62*(About!$A$25)</f>
+        <f>H62*(About!$A$19)</f>
         <v>59170</v>
       </c>
       <c r="I99" s="4">
-        <f>I62*(About!$A$25)</f>
+        <f>I62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J99" s="4">
-        <f>J62*(About!$A$25)</f>
+        <f>J62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K99" s="4">
-        <f>K62*(About!$A$25)</f>
+        <f>K62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L99" s="4">
-        <f>L62*(About!$A$25)</f>
+        <f>L62*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M99" s="4">
-        <f>M62*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M62*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>2030</v>
       </c>
       <c r="B100" s="4">
-        <f>B63*(About!$A$25)</f>
+        <f>B63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C100" s="4">
-        <f>C63*(About!$A$25)</f>
+        <f>C63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D100" s="4">
-        <f>D63*(About!$A$25)</f>
+        <f>D63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E100" s="4">
-        <f>E63*(About!$A$25)</f>
+        <f>E63*(About!$A$19)</f>
         <v>10670</v>
       </c>
       <c r="F100" s="4">
-        <f>F63*(About!$A$25)</f>
+        <f>F63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G100" s="4">
-        <f>G63*(About!$A$25)</f>
+        <f>G63*(About!$A$19)</f>
         <v>436500</v>
       </c>
       <c r="H100" s="4">
-        <f>H63*(About!$A$25)</f>
+        <f>H63*(About!$A$19)</f>
         <v>64990</v>
       </c>
       <c r="I100" s="4">
-        <f>I63*(About!$A$25)</f>
+        <f>I63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J100" s="4">
-        <f>J63*(About!$A$25)</f>
+        <f>J63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K100" s="4">
-        <f>K63*(About!$A$25)</f>
+        <f>K63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L100" s="4">
-        <f>L63*(About!$A$25)</f>
+        <f>L63*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M100" s="4">
-        <f>M63*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M63*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -4720,9 +4645,9 @@
       <c r="L101" s="4"/>
       <c r="M101" s="4"/>
     </row>
-    <row r="102" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
@@ -4737,260 +4662,260 @@
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
     </row>
-    <row r="103" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="I103" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K103" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F103" s="6" t="s">
+      <c r="L103" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H103" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J103" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M103" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>2016</v>
       </c>
       <c r="B104" s="4">
-        <f>B67*(About!$A$25)</f>
+        <f>B67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C104" s="4">
-        <f>C67*(About!$A$25)</f>
+        <f>C67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D104" s="4">
-        <f>D67*(About!$A$25)</f>
+        <f>D67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E104" s="4">
-        <f>E67*(About!$A$25)</f>
+        <f>E67*(About!$A$19)</f>
         <v>14550</v>
       </c>
       <c r="F104" s="4">
-        <f>F67*(About!$A$25)</f>
+        <f>F67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G104" s="4">
-        <f>G67*(About!$A$25)</f>
+        <f>G67*(About!$A$19)</f>
         <v>523800</v>
       </c>
       <c r="H104" s="4">
-        <f>H67*(About!$A$25)</f>
+        <f>H67*(About!$A$19)</f>
         <v>94090</v>
       </c>
       <c r="I104" s="4">
-        <f>I67*(About!$A$25)</f>
+        <f>I67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <f>J67*(About!$A$25)</f>
+        <f>J67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K104" s="4">
-        <f>K67*(About!$A$25)</f>
+        <f>K67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L104" s="4">
-        <f>L67*(About!$A$25)</f>
+        <f>L67*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M104" s="4">
-        <f>M67*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M67*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>2020</v>
       </c>
       <c r="B105" s="4">
-        <f>B68*(About!$A$25)</f>
+        <f>B68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C105" s="4">
-        <f>C68*(About!$A$25)</f>
+        <f>C68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D105" s="4">
-        <f>D68*(About!$A$25)</f>
+        <f>D68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E105" s="4">
-        <f>E68*(About!$A$25)</f>
+        <f>E68*(About!$A$19)</f>
         <v>15520</v>
       </c>
       <c r="F105" s="4">
-        <f>F68*(About!$A$25)</f>
+        <f>F68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G105" s="4">
-        <f>G68*(About!$A$25)</f>
+        <f>G68*(About!$A$19)</f>
         <v>543200</v>
       </c>
       <c r="H105" s="4">
-        <f>H68*(About!$A$25)</f>
+        <f>H68*(About!$A$19)</f>
         <v>97000</v>
       </c>
       <c r="I105" s="4">
-        <f>I68*(About!$A$25)</f>
+        <f>I68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J105" s="4">
-        <f>J68*(About!$A$25)</f>
+        <f>J68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K105" s="4">
-        <f>K68*(About!$A$25)</f>
+        <f>K68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L105" s="4">
-        <f>L68*(About!$A$25)</f>
+        <f>L68*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M105" s="4">
-        <f>M68*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M68*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>2025</v>
       </c>
       <c r="B106" s="4">
-        <f>B69*(About!$A$25)</f>
+        <f>B69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C106" s="4">
-        <f>C69*(About!$A$25)</f>
+        <f>C69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D106" s="4">
-        <f>D69*(About!$A$25)</f>
+        <f>D69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E106" s="4">
-        <f>E69*(About!$A$25)</f>
+        <f>E69*(About!$A$19)</f>
         <v>16490</v>
       </c>
       <c r="F106" s="4">
-        <f>F69*(About!$A$25)</f>
+        <f>F69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G106" s="4">
-        <f>G69*(About!$A$25)</f>
+        <f>G69*(About!$A$19)</f>
         <v>572300</v>
       </c>
       <c r="H106" s="4">
-        <f>H69*(About!$A$25)</f>
+        <f>H69*(About!$A$19)</f>
         <v>106700</v>
       </c>
       <c r="I106" s="4">
-        <f>I69*(About!$A$25)</f>
+        <f>I69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J106" s="4">
-        <f>J69*(About!$A$25)</f>
+        <f>J69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K106" s="4">
-        <f>K69*(About!$A$25)</f>
+        <f>K69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L106" s="4">
-        <f>L69*(About!$A$25)</f>
+        <f>L69*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M106" s="4">
-        <f>M69*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M69*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>2030</v>
       </c>
       <c r="B107" s="4">
-        <f>B70*(About!$A$25)</f>
+        <f>B70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C107" s="4">
-        <f>C70*(About!$A$25)</f>
+        <f>C70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D107" s="4">
-        <f>D70*(About!$A$25)</f>
+        <f>D70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E107" s="4">
-        <f>E70*(About!$A$25)</f>
+        <f>E70*(About!$A$19)</f>
         <v>17460</v>
       </c>
       <c r="F107" s="4">
-        <f>F70*(About!$A$25)</f>
+        <f>F70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G107" s="4">
-        <f>G70*(About!$A$25)</f>
+        <f>G70*(About!$A$19)</f>
         <v>611100</v>
       </c>
       <c r="H107" s="4">
-        <f>H70*(About!$A$25)</f>
+        <f>H70*(About!$A$19)</f>
         <v>116400</v>
       </c>
       <c r="I107" s="4">
-        <f>I70*(About!$A$25)</f>
+        <f>I70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J107" s="4">
-        <f>J70*(About!$A$25)</f>
+        <f>J70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K107" s="4">
-        <f>K70*(About!$A$25)</f>
+        <f>K70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L107" s="4">
-        <f>L70*(About!$A$25)</f>
+        <f>L70*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M107" s="4">
-        <f>M70*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M70*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -5005,9 +4930,9 @@
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
@@ -5022,276 +4947,276 @@
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D110" s="6" t="s">
+      <c r="I110" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K110" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="L110" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G110" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J110" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K110" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L110" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M110" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>2016</v>
       </c>
       <c r="B111" s="4">
-        <f>B74*(About!$A$25)</f>
+        <f>B74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C111" s="4">
-        <f>C74*(About!$A$25)</f>
+        <f>C74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D111" s="4">
-        <f>D74*(About!$A$25)</f>
+        <f>D74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E111" s="4">
-        <f>E74*(About!$A$25)</f>
+        <f>E74*(About!$A$19)</f>
         <v>6790</v>
       </c>
       <c r="F111" s="4">
-        <f>F74*(About!$A$25)</f>
+        <f>F74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G111" s="4">
-        <f>G74*(About!$A$25)</f>
+        <f>G74*(About!$A$19)</f>
         <v>281300</v>
       </c>
       <c r="H111" s="4">
-        <f>H74*(About!$A$25)</f>
+        <f>H74*(About!$A$19)</f>
         <v>43650</v>
       </c>
       <c r="I111" s="4">
-        <f>I74*(About!$A$25)</f>
+        <f>I74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J111" s="4">
-        <f>J74*(About!$A$25)</f>
+        <f>J74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K111" s="4">
-        <f>K74*(About!$A$25)</f>
+        <f>K74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L111" s="4">
-        <f>L74*(About!$A$25)</f>
+        <f>L74*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M111" s="4">
-        <f>M74*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M74*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>2020</v>
       </c>
       <c r="B112" s="4">
-        <f>B75*(About!$A$25)</f>
+        <f>B75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C112" s="4">
-        <f>C75*(About!$A$25)</f>
+        <f>C75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D112" s="4">
-        <f>D75*(About!$A$25)</f>
+        <f>D75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E112" s="4">
-        <f>E75*(About!$A$25)</f>
+        <f>E75*(About!$A$19)</f>
         <v>7081</v>
       </c>
       <c r="F112" s="4">
-        <f>F75*(About!$A$25)</f>
+        <f>F75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G112" s="4">
-        <f>G75*(About!$A$25)</f>
+        <f>G75*(About!$A$19)</f>
         <v>300700</v>
       </c>
       <c r="H112" s="4">
-        <f>H75*(About!$A$25)</f>
+        <f>H75*(About!$A$19)</f>
         <v>45590</v>
       </c>
       <c r="I112" s="4">
-        <f>I75*(About!$A$25)</f>
+        <f>I75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J112" s="4">
-        <f>J75*(About!$A$25)</f>
+        <f>J75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K112" s="4">
-        <f>K75*(About!$A$25)</f>
+        <f>K75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L112" s="4">
-        <f>L75*(About!$A$25)</f>
+        <f>L75*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M112" s="4">
-        <f>M75*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <f>M75*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>2025</v>
       </c>
       <c r="B113" s="4">
-        <f>B76*(About!$A$25)</f>
+        <f>B76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C113" s="4">
-        <f>C76*(About!$A$25)</f>
+        <f>C76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D113" s="4">
-        <f>D76*(About!$A$25)</f>
+        <f>D76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E113" s="4">
-        <f>E76*(About!$A$25)</f>
+        <f>E76*(About!$A$19)</f>
         <v>7663</v>
       </c>
       <c r="F113" s="4">
-        <f>F76*(About!$A$25)</f>
+        <f>F76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G113" s="4">
-        <f>G76*(About!$A$25)</f>
+        <f>G76*(About!$A$19)</f>
         <v>320100</v>
       </c>
       <c r="H113" s="4">
-        <f>H76*(About!$A$25)</f>
+        <f>H76*(About!$A$19)</f>
         <v>49470</v>
       </c>
       <c r="I113" s="4">
-        <f>I76*(About!$A$25)</f>
+        <f>I76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J113" s="4">
-        <f>J76*(About!$A$25)</f>
+        <f>J76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K113" s="4">
-        <f>K76*(About!$A$25)</f>
+        <f>K76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L113" s="4">
-        <f>L76*(About!$A$25)</f>
+        <f>L76*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M113" s="4">
-        <f>M76*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M76*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>2030</v>
       </c>
       <c r="B114" s="4">
-        <f>B77*(About!$A$25)</f>
+        <f>B77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="C114" s="4">
-        <f>C77*(About!$A$25)</f>
+        <f>C77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="D114" s="4">
-        <f>D77*(About!$A$25)</f>
+        <f>D77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="E114" s="4">
-        <f>E77*(About!$A$25)</f>
+        <f>E77*(About!$A$19)</f>
         <v>8245</v>
       </c>
       <c r="F114" s="4">
-        <f>F77*(About!$A$25)</f>
+        <f>F77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="G114" s="4">
-        <f>G77*(About!$A$25)</f>
+        <f>G77*(About!$A$19)</f>
         <v>358900</v>
       </c>
       <c r="H114" s="4">
-        <f>H77*(About!$A$25)</f>
+        <f>H77*(About!$A$19)</f>
         <v>54320</v>
       </c>
       <c r="I114" s="4">
-        <f>I77*(About!$A$25)</f>
+        <f>I77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="J114" s="4">
-        <f>J77*(About!$A$25)</f>
+        <f>J77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="K114" s="4">
-        <f>K77*(About!$A$25)</f>
+        <f>K77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="L114" s="4">
-        <f>L77*(About!$A$25)</f>
+        <f>L77*(About!$A$19)</f>
         <v>0</v>
       </c>
       <c r="M114" s="4">
-        <f>M77*(About!$A$25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+        <f>M77*(About!$A$19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B118">
         <f>10^6</f>
         <v>1000000</v>
       </c>
     </row>
-    <row r="120" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5306,48 +5231,48 @@
       <c r="L120" s="8"/>
       <c r="M120" s="8"/>
     </row>
-    <row r="121" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" s="6" t="s">
+      <c r="I121" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F121" s="6" t="s">
+      <c r="L121" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G121" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H121" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I121" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J121" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K121" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L121" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M121" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>2016</v>
       </c>
@@ -5400,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>2020</v>
       </c>
@@ -5453,7 +5378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>2025</v>
       </c>
@@ -5506,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>2030</v>
       </c>
@@ -5559,10 +5484,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="127" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5577,48 +5502,48 @@
       <c r="L127" s="8"/>
       <c r="M127" s="8"/>
     </row>
-    <row r="128" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B128" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" s="6" t="s">
+      <c r="I128" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J128" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K128" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F128" s="6" t="s">
+      <c r="L128" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G128" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H128" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I128" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J128" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K128" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L128" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M128" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>2016</v>
       </c>
@@ -5671,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>2020</v>
       </c>
@@ -5724,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>2025</v>
       </c>
@@ -5777,7 +5702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>2030</v>
       </c>
@@ -5830,10 +5755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="134" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5848,48 +5773,48 @@
       <c r="L134" s="8"/>
       <c r="M134" s="8"/>
     </row>
-    <row r="135" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B135" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D135" s="6" t="s">
+      <c r="I135" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K135" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E135" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F135" s="6" t="s">
+      <c r="L135" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G135" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H135" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K135" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L135" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M135" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>2016</v>
       </c>
@@ -5942,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>2020</v>
       </c>
@@ -5995,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>2025</v>
       </c>
@@ -6048,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>2030</v>
       </c>
@@ -6101,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -6116,9 +6041,9 @@
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
     </row>
-    <row r="141" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -6133,48 +6058,48 @@
       <c r="L141" s="8"/>
       <c r="M141" s="8"/>
     </row>
-    <row r="142" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D142" s="6" t="s">
+      <c r="I142" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K142" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E142" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F142" s="6" t="s">
+      <c r="L142" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H142" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I142" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K142" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L142" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M142" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>2016</v>
       </c>
@@ -6227,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>2020</v>
       </c>
@@ -6280,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>2025</v>
       </c>
@@ -6333,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>2030</v>
       </c>
@@ -6386,10 +6311,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="148" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -6404,48 +6329,48 @@
       <c r="L148" s="8"/>
       <c r="M148" s="8"/>
     </row>
-    <row r="149" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H149" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D149" s="6" t="s">
+      <c r="I149" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J149" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K149" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E149" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F149" s="6" t="s">
+      <c r="L149" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G149" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H149" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K149" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L149" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M149" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>2016</v>
       </c>
@@ -6498,7 +6423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>2020</v>
       </c>
@@ -6551,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>2025</v>
       </c>
@@ -6604,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>2030</v>
       </c>
@@ -6657,76 +6582,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="155" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="156" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="157" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="14" t="s">
+    <row r="162" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="160" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="14" t="s">
+    <row r="165" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="161" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="164" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="167" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="170" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -6741,48 +6666,48 @@
       <c r="L173" s="8"/>
       <c r="M173" s="8"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H174" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" s="6" t="s">
+      <c r="I174" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K174" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E174" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F174" s="6" t="s">
+      <c r="L174" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G174" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H174" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I174" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J174" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K174" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L174" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M174" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>2016</v>
       </c>
@@ -6835,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>2020</v>
       </c>
@@ -6888,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>2025</v>
       </c>
@@ -6941,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>2030</v>
       </c>
@@ -6994,9 +6919,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -7011,48 +6936,48 @@
       <c r="L180" s="8"/>
       <c r="M180" s="8"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H181" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D181" s="6" t="s">
+      <c r="I181" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J181" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K181" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E181" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F181" s="6" t="s">
+      <c r="L181" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G181" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H181" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I181" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J181" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K181" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L181" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M181" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>2016</v>
       </c>
@@ -7105,7 +7030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>2020</v>
       </c>
@@ -7158,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>2025</v>
       </c>
@@ -7211,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:13" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>2030</v>
       </c>
@@ -7264,9 +7189,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -7281,48 +7206,48 @@
       <c r="L187" s="8"/>
       <c r="M187" s="8"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H188" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D188" s="6" t="s">
+      <c r="I188" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J188" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K188" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E188" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F188" s="6" t="s">
+      <c r="L188" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G188" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H188" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I188" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J188" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K188" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L188" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M188" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>2016</v>
       </c>
@@ -7375,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>2020</v>
       </c>
@@ -7428,7 +7353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>2025</v>
       </c>
@@ -7481,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>2030</v>
       </c>
@@ -7534,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" s="5"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -7549,9 +7474,9 @@
       <c r="L193" s="4"/>
       <c r="M193" s="4"/>
     </row>
-    <row r="194" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -7566,48 +7491,48 @@
       <c r="L194" s="8"/>
       <c r="M194" s="8"/>
     </row>
-    <row r="195" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H195" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D195" s="6" t="s">
+      <c r="I195" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J195" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K195" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E195" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="L195" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G195" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H195" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I195" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J195" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K195" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L195" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M195" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>2016</v>
       </c>
@@ -7660,7 +7585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>2020</v>
       </c>
@@ -7713,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>2025</v>
       </c>
@@ -7766,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>2030</v>
       </c>
@@ -7819,10 +7744,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B201" s="8"/>
       <c r="C201" s="8"/>
@@ -7837,48 +7762,48 @@
       <c r="L201" s="8"/>
       <c r="M201" s="8"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H202" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D202" s="6" t="s">
+      <c r="I202" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J202" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K202" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E202" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F202" s="6" t="s">
+      <c r="L202" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G202" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H202" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I202" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J202" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K202" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L202" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M202" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>2016</v>
       </c>
@@ -7931,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>2020</v>
       </c>
@@ -7984,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>2025</v>
       </c>
@@ -8037,7 +7962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>2030</v>
       </c>
@@ -8090,9 +8015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -8102,63 +8027,63 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2015</v>
       </c>
@@ -8211,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2016</v>
       </c>
@@ -8265,7 +8190,7 @@
       </c>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2017</v>
       </c>
@@ -8319,7 +8244,7 @@
       </c>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2018</v>
       </c>
@@ -8373,7 +8298,7 @@
       </c>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2019</v>
       </c>
@@ -8427,7 +8352,7 @@
       </c>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2020</v>
       </c>
@@ -8481,7 +8406,7 @@
       </c>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2021</v>
       </c>
@@ -8534,7 +8459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2022</v>
       </c>
@@ -8587,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2023</v>
       </c>
@@ -8640,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2024</v>
       </c>
@@ -8693,7 +8618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2025</v>
       </c>
@@ -8746,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2026</v>
       </c>
@@ -8799,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2027</v>
       </c>
@@ -8852,7 +8777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2028</v>
       </c>
@@ -8905,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2029</v>
       </c>
@@ -8958,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2030</v>
       </c>
@@ -9011,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -9064,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -9117,7 +9042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -9170,7 +9095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -9223,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -9276,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -9329,7 +9254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -9382,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -9435,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -9488,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -9541,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -9594,7 +9519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -9647,7 +9572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -9700,7 +9625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -9753,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -9806,7 +9731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -9859,7 +9784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -9912,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -9965,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -10018,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -10077,7 +10002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -10087,53 +10012,53 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.73046875" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2015</v>
       </c>
@@ -10186,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2016</v>
       </c>
@@ -10239,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2017</v>
       </c>
@@ -10292,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2018</v>
       </c>
@@ -10345,7 +10270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2019</v>
       </c>
@@ -10398,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2020</v>
       </c>
@@ -10451,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2021</v>
       </c>
@@ -10504,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2022</v>
       </c>
@@ -10557,7 +10482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2023</v>
       </c>
@@ -10610,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2024</v>
       </c>
@@ -10663,7 +10588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2025</v>
       </c>
@@ -10716,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2026</v>
       </c>
@@ -10769,7 +10694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2027</v>
       </c>
@@ -10822,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2028</v>
       </c>
@@ -10875,7 +10800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2029</v>
       </c>
@@ -10928,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2030</v>
       </c>
@@ -10981,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -11034,7 +10959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -11087,7 +11012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -11140,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -11193,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -11246,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -11299,7 +11224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -11352,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -11405,7 +11330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -11458,7 +11383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -11511,7 +11436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -11564,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -11617,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -11670,7 +11595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -11723,7 +11648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -11776,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -11829,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -11882,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -11935,7 +11860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -11988,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -12047,7 +11972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12057,53 +11982,53 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.265625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="H1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2015</v>
       </c>
@@ -12156,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2016</v>
       </c>
@@ -12209,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2017</v>
       </c>
@@ -12262,7 +12187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2018</v>
       </c>
@@ -12315,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2019</v>
       </c>
@@ -12368,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2020</v>
       </c>
@@ -12421,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2021</v>
       </c>
@@ -12474,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2022</v>
       </c>
@@ -12527,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2023</v>
       </c>
@@ -12580,7 +12505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2024</v>
       </c>
@@ -12633,7 +12558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2025</v>
       </c>
@@ -12686,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2026</v>
       </c>
@@ -12739,7 +12664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2027</v>
       </c>
@@ -12792,7 +12717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2028</v>
       </c>
@@ -12845,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2029</v>
       </c>
@@ -12898,7 +12823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2030</v>
       </c>
@@ -12951,7 +12876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -13004,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -13057,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -13110,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -13163,7 +13088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -13216,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -13269,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -13322,7 +13247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -13375,7 +13300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -13428,7 +13353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -13481,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -13534,7 +13459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -13587,7 +13512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -13640,7 +13565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -13693,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -13746,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -13799,7 +13724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -13852,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -13905,7 +13830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -13958,7 +13883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -14017,7 +13942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14027,54 +13952,54 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="14"/>
+    <col min="1" max="1" width="10.5703125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2015</v>
       </c>
@@ -14127,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2016</v>
       </c>
@@ -14180,7 +14105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2017</v>
       </c>
@@ -14233,7 +14158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2018</v>
       </c>
@@ -14286,7 +14211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2019</v>
       </c>
@@ -14339,7 +14264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2020</v>
       </c>
@@ -14392,7 +14317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2021</v>
       </c>
@@ -14445,7 +14370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2022</v>
       </c>
@@ -14498,7 +14423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2023</v>
       </c>
@@ -14551,7 +14476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2024</v>
       </c>
@@ -14604,7 +14529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2025</v>
       </c>
@@ -14657,7 +14582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2026</v>
       </c>
@@ -14710,7 +14635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2027</v>
       </c>
@@ -14763,7 +14688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2028</v>
       </c>
@@ -14816,7 +14741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2029</v>
       </c>
@@ -14869,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2030</v>
       </c>
@@ -14922,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -14975,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -15028,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -15081,7 +15006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -15134,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -15187,7 +15112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -15240,7 +15165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -15293,7 +15218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -15346,7 +15271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -15399,7 +15324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -15452,7 +15377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -15505,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -15558,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -15611,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -15664,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -15717,7 +15642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -15770,7 +15695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -15823,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -15876,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -15929,7 +15854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
@@ -15988,7 +15913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -15998,53 +15923,53 @@
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="22" t="s">
+      <c r="H1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>19</v>
-      </c>
       <c r="M1" s="21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>2015</v>
       </c>
@@ -16097,7 +16022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>2016</v>
       </c>
@@ -16150,7 +16075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2017</v>
       </c>
@@ -16203,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>2018</v>
       </c>
@@ -16256,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>2019</v>
       </c>
@@ -16309,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>2020</v>
       </c>
@@ -16362,7 +16287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>2021</v>
       </c>
@@ -16415,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
         <v>2022</v>
       </c>
@@ -16468,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>2023</v>
       </c>
@@ -16521,7 +16446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
         <v>2024</v>
       </c>
@@ -16574,7 +16499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
         <v>2025</v>
       </c>
@@ -16627,7 +16552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>2026</v>
       </c>
@@ -16680,7 +16605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>2027</v>
       </c>
@@ -16733,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>2028</v>
       </c>
@@ -16786,7 +16711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>2029</v>
       </c>
@@ -16839,7 +16764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <v>2030</v>
       </c>
@@ -16892,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>2031</v>
       </c>
@@ -16945,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>2032</v>
       </c>
@@ -16998,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>2033</v>
       </c>
@@ -17051,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <v>2034</v>
       </c>
@@ -17104,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>2035</v>
       </c>
@@ -17157,7 +17082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>2036</v>
       </c>
@@ -17210,7 +17135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>2037</v>
       </c>
@@ -17263,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>2038</v>
       </c>
@@ -17316,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>2039</v>
       </c>
@@ -17369,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
         <v>2040</v>
       </c>
@@ -17422,7 +17347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
         <v>2041</v>
       </c>
@@ -17475,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>2042</v>
       </c>
@@ -17528,7 +17453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="18">
         <v>2043</v>
       </c>
@@ -17581,7 +17506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="18">
         <v>2044</v>
       </c>
@@ -17634,7 +17559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="18">
         <v>2045</v>
       </c>
@@ -17687,7 +17612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="18">
         <v>2046</v>
       </c>
@@ -17740,7 +17665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="18">
         <v>2047</v>
       </c>
@@ -17793,7 +17718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="18">
         <v>2048</v>
       </c>
@@ -17846,7 +17771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="18">
         <v>2049</v>
       </c>
@@ -17899,7 +17824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="18">
         <v>2050</v>
       </c>
